--- a/ofc/estimates/kurthali truss/truss.xlsx
+++ b/ofc/estimates/kurthali truss/truss.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\081-082\ofc\estimates\kurthali truss\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\081_082\ofc\ofc\estimates\kurthali truss\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="new" sheetId="18" r:id="rId1"/>
@@ -40,13 +40,13 @@
     <definedName name="description_784">[2]Abstract!$B$300</definedName>
     <definedName name="excavator">[1]Equipment_Rate!$J$19</definedName>
     <definedName name="generator">[1]Equipment_Rate!$J$20</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">new!$A$1:$K$29</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">new!$A$1:$K$62</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">new!$1:$8</definedName>
     <definedName name="skilled">[1]District_Rate!$D$148</definedName>
     <definedName name="skilled_blacksmith">[1]District_Rate!$D$149</definedName>
     <definedName name="unskilled">[1]District_Rate!$D$156</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="52">
   <si>
     <t>Government of Nepal</t>
   </si>
@@ -136,21 +136,9 @@
     <t xml:space="preserve">Date:                     </t>
   </si>
   <si>
-    <t>Block 1</t>
-  </si>
-  <si>
     <t>sub-total</t>
   </si>
   <si>
-    <t>-Block 3</t>
-  </si>
-  <si>
-    <t>Project:- Seti Devi Secondary School demolish work</t>
-  </si>
-  <si>
-    <t>kmnfd] sfd -Rofgn PËn 6L cflb_ x6fpg] sfo{ lemSg]</t>
-  </si>
-  <si>
     <t>Length (m)</t>
   </si>
   <si>
@@ -160,21 +148,81 @@
     <t>Unit length (Kg/m)</t>
   </si>
   <si>
-    <t>-at truss</t>
-  </si>
-  <si>
-    <t>MT</t>
+    <t>sfnf] kmnfd] kfO{ksf] 6«; agfO{ h8fg ug]{ sfd</t>
+  </si>
+  <si>
+    <t>Kg</t>
+  </si>
+  <si>
+    <t>-for horizontal member</t>
+  </si>
+  <si>
+    <t>-MS square pipe of 113.5mm * 113.5mm of 3mm thickness for vertical post</t>
+  </si>
+  <si>
+    <t xml:space="preserve">).#^ lblv ).$ dL.dL.afSnf] sf]?u]6]8 /+lug ss{6 kftfsf] 5fgf 5fpg] sfd </t>
+  </si>
+  <si>
+    <t>sqm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project:- कुर्थली सामुदायिक ट्रस्ट निर्माण </t>
+  </si>
+  <si>
+    <t>Provisional sum for unforseen works</t>
+  </si>
+  <si>
+    <t>PS</t>
+  </si>
+  <si>
+    <t>Information board</t>
+  </si>
+  <si>
+    <t>-MS square pipe of 72mm * 72mm of 3mm thickness for inclined member</t>
+  </si>
+  <si>
+    <t>-MS square pipe of 50mm * 50mm of 3mm thickness for king post member</t>
+  </si>
+  <si>
+    <t>-MS square pipe of 50mm * 50mm of 2.6mm thickness for diagnol member</t>
+  </si>
+  <si>
+    <t>-MS square pipe of 50mm * 50mm of 2.6mm thickness for vertical member</t>
+  </si>
+  <si>
+    <t>-MS square pipe of 50mm * 50mm of 2.6mm thickness for purlins</t>
+  </si>
+  <si>
+    <t>-VAT 13% for materials</t>
+  </si>
+  <si>
+    <t xml:space="preserve">g/d k|sf/sf] Sn] / l;N6L df6f]df ;j} lsl;dsf] vGg] sfd </t>
+  </si>
+  <si>
+    <t>;-for footing</t>
+  </si>
+  <si>
+    <t>cum</t>
+  </si>
+  <si>
+    <t>husf] vf8ndf 9'+uf eg]{ / n]en ug]{ sfddf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hu leQf kvf{ndf l;d]G6 s+lqm6 ug]{ sfd -lk=;L=;L= !M@M$_  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">d]lzgsf] k|of]u u/L ;'k/ :6«Sr/df l;d]G6 s+lqm6 ug]{ sfd -!M!=%M#_ </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -270,12 +318,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -343,20 +385,20 @@
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -364,7 +406,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -381,7 +423,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -390,7 +432,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -402,7 +444,7 @@
     <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -428,15 +470,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -446,8 +479,17 @@
     <xf numFmtId="2" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -480,6 +522,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1149,32 +1194,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE29"/>
+  <dimension ref="A1:AE62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="6.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.140625" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="5.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.109375" customWidth="1"/>
+    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" customWidth="1"/>
+    <col min="5" max="5" width="7.88671875" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="6.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.109375" customWidth="1"/>
+    <col min="17" max="17" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
@@ -1189,7 +1234,7 @@
       <c r="J1" s="49"/>
       <c r="K1" s="49"/>
     </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A2" s="50" t="s">
         <v>1</v>
       </c>
@@ -1204,7 +1249,7 @@
       <c r="J2" s="50"/>
       <c r="K2" s="50"/>
     </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="51" t="s">
         <v>2</v>
       </c>
@@ -1219,7 +1264,7 @@
       <c r="J3" s="51"/>
       <c r="K3" s="51"/>
     </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="51" t="s">
         <v>3</v>
       </c>
@@ -1234,7 +1279,7 @@
       <c r="J4" s="51"/>
       <c r="K4" s="51"/>
     </row>
-    <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A5" s="52" t="s">
         <v>4</v>
       </c>
@@ -1249,9 +1294,9 @@
       <c r="J5" s="52"/>
       <c r="K5" s="52"/>
     </row>
-    <row r="6" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="48" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B6" s="48"/>
       <c r="C6" s="48"/>
@@ -1266,7 +1311,7 @@
       <c r="J6" s="44"/>
       <c r="K6" s="44"/>
     </row>
-    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="43" t="s">
         <v>23</v>
       </c>
@@ -1283,7 +1328,7 @@
       <c r="J7" s="44"/>
       <c r="K7" s="44"/>
     </row>
-    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -1318,450 +1363,1284 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="17" t="s">
+    <row r="9" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="21">
+        <v>1</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="35"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="24"/>
+    </row>
+    <row r="10" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="38"/>
+      <c r="B10" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="40">
+        <v>12</v>
+      </c>
+      <c r="D10" s="10">
+        <f>15/3.281</f>
+        <v>4.5717768972874122</v>
+      </c>
+      <c r="E10" s="10">
+        <v>10.23</v>
+      </c>
+      <c r="F10" s="10">
+        <f>PRODUCT(C10:E10)</f>
+        <v>561.23133191100271</v>
+      </c>
+      <c r="G10" s="36">
+        <f>F10</f>
+        <v>561.23133191100271</v>
+      </c>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="11"/>
+      <c r="M10" s="12"/>
+    </row>
+    <row r="11" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="38"/>
+      <c r="B11" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="40">
+        <v>4</v>
+      </c>
+      <c r="D11" s="10">
+        <f>30/3.281</f>
+        <v>9.1435537945748244</v>
+      </c>
+      <c r="E11" s="10">
+        <v>10.23</v>
+      </c>
+      <c r="F11" s="10">
+        <f t="shared" ref="F11:F12" si="0">PRODUCT(C11:E11)</f>
+        <v>374.15422127400183</v>
+      </c>
+      <c r="G11" s="36">
+        <f t="shared" ref="G11:G12" si="1">F11</f>
+        <v>374.15422127400183</v>
+      </c>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="11"/>
+      <c r="M11" s="12"/>
+    </row>
+    <row r="12" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="38"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="40">
+        <v>3</v>
+      </c>
+      <c r="D12" s="10">
+        <f>40/3.281</f>
+        <v>12.1914050594331</v>
+      </c>
+      <c r="E12" s="10">
+        <v>10.23</v>
+      </c>
+      <c r="F12" s="10">
+        <f t="shared" si="0"/>
+        <v>374.15422127400183</v>
+      </c>
+      <c r="G12" s="36">
+        <f t="shared" si="1"/>
+        <v>374.15422127400183</v>
+      </c>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="11"/>
+      <c r="M12" s="12"/>
+    </row>
+    <row r="13" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="38"/>
+      <c r="B13" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="40">
+        <f>2*4</f>
+        <v>8</v>
+      </c>
+      <c r="D13" s="10">
+        <f>16/3.281</f>
+        <v>4.8765620237732392</v>
+      </c>
+      <c r="E13" s="10">
+        <v>6.5</v>
+      </c>
+      <c r="F13" s="10">
+        <f t="shared" ref="F13" si="2">PRODUCT(C13:E13)</f>
+        <v>253.58122523620844</v>
+      </c>
+      <c r="G13" s="36">
+        <f t="shared" ref="G13" si="3">F13</f>
+        <v>253.58122523620844</v>
+      </c>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="11"/>
+      <c r="M13" s="12"/>
+    </row>
+    <row r="14" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="38"/>
+      <c r="B14" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="40">
+        <v>1</v>
+      </c>
+      <c r="D14" s="10">
+        <f>4/3.281</f>
+        <v>1.2191405059433098</v>
+      </c>
+      <c r="E14" s="10">
+        <v>4.43</v>
+      </c>
+      <c r="F14" s="10">
+        <f t="shared" ref="F14" si="4">PRODUCT(C14:E14)</f>
+        <v>5.4007924413288624</v>
+      </c>
+      <c r="G14" s="36">
+        <f t="shared" ref="G14" si="5">F14</f>
+        <v>5.4007924413288624</v>
+      </c>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="11"/>
+      <c r="M14" s="12"/>
+    </row>
+    <row r="15" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="38"/>
+      <c r="B15" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="40">
+        <v>2</v>
+      </c>
+      <c r="D15" s="10">
+        <f>4.42/3.281</f>
+        <v>1.3471502590673574</v>
+      </c>
+      <c r="E15" s="10">
+        <v>3.87</v>
+      </c>
+      <c r="F15" s="10">
+        <f t="shared" ref="F15" si="6">PRODUCT(C15:E15)</f>
+        <v>10.426943005181347</v>
+      </c>
+      <c r="G15" s="36">
+        <f t="shared" ref="G15" si="7">F15</f>
+        <v>10.426943005181347</v>
+      </c>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="11"/>
+      <c r="M15" s="12"/>
+    </row>
+    <row r="16" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="38"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="40">
+        <v>2</v>
+      </c>
+      <c r="D16" s="10">
+        <f>3.833/3.281</f>
+        <v>1.1682413898201769</v>
+      </c>
+      <c r="E16" s="10">
+        <v>3.87</v>
+      </c>
+      <c r="F16" s="10">
+        <f t="shared" ref="F16:F19" si="8">PRODUCT(C16:E16)</f>
+        <v>9.04218835720817</v>
+      </c>
+      <c r="G16" s="36">
+        <f t="shared" ref="G16:G19" si="9">F16</f>
+        <v>9.04218835720817</v>
+      </c>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="11"/>
+      <c r="M16" s="12"/>
+    </row>
+    <row r="17" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="38"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="40">
+        <v>2</v>
+      </c>
+      <c r="D17" s="10">
+        <f>3.42/3.281</f>
+        <v>1.04236513258153</v>
+      </c>
+      <c r="E17" s="10">
+        <v>3.87</v>
+      </c>
+      <c r="F17" s="10">
+        <f t="shared" si="8"/>
+        <v>8.0679061261810414</v>
+      </c>
+      <c r="G17" s="36">
+        <f t="shared" si="9"/>
+        <v>8.0679061261810414</v>
+      </c>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="11"/>
+      <c r="M17" s="12"/>
+    </row>
+    <row r="18" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="38"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="40">
+        <v>2</v>
+      </c>
+      <c r="D18" s="10">
+        <f>3.083/3.281</f>
+        <v>0.93965254495580619</v>
+      </c>
+      <c r="E18" s="10">
+        <v>3.87</v>
+      </c>
+      <c r="F18" s="10">
+        <f t="shared" si="8"/>
+        <v>7.2729106979579399</v>
+      </c>
+      <c r="G18" s="36">
+        <f t="shared" si="9"/>
+        <v>7.2729106979579399</v>
+      </c>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="11"/>
+      <c r="M18" s="12"/>
+    </row>
+    <row r="19" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="38"/>
+      <c r="B19" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="40">
+        <v>2</v>
+      </c>
+      <c r="D19" s="10">
+        <f>3.17/3.281</f>
+        <v>0.9661688509600731</v>
+      </c>
+      <c r="E19" s="10">
+        <v>3.87</v>
+      </c>
+      <c r="F19" s="10">
+        <f t="shared" si="8"/>
+        <v>7.4781469064309656</v>
+      </c>
+      <c r="G19" s="36">
+        <f t="shared" si="9"/>
+        <v>7.4781469064309656</v>
+      </c>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="11"/>
+      <c r="M19" s="12"/>
+    </row>
+    <row r="20" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="38"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="40">
+        <v>2</v>
+      </c>
+      <c r="D20" s="10">
+        <f>2.42/3.281</f>
+        <v>0.73758000609570251</v>
+      </c>
+      <c r="E20" s="10">
+        <v>3.87</v>
+      </c>
+      <c r="F20" s="10">
+        <f t="shared" ref="F20:F23" si="10">PRODUCT(C20:E20)</f>
+        <v>5.7088692471807372</v>
+      </c>
+      <c r="G20" s="36">
+        <f t="shared" ref="G20:G23" si="11">F20</f>
+        <v>5.7088692471807372</v>
+      </c>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="11"/>
+      <c r="M20" s="12"/>
+    </row>
+    <row r="21" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="38"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="40">
+        <v>2</v>
+      </c>
+      <c r="D21" s="10">
+        <f>1.833/3.281</f>
+        <v>0.55867113684852177</v>
+      </c>
+      <c r="E21" s="10">
+        <v>3.87</v>
+      </c>
+      <c r="F21" s="10">
+        <f t="shared" si="10"/>
+        <v>4.3241145992075589</v>
+      </c>
+      <c r="G21" s="36">
+        <f t="shared" si="11"/>
+        <v>4.3241145992075589</v>
+      </c>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="11"/>
+      <c r="M21" s="12"/>
+    </row>
+    <row r="22" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="38"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="40">
+        <v>2</v>
+      </c>
+      <c r="D22" s="10">
+        <f>10/12/3.281</f>
+        <v>0.25398760540485626</v>
+      </c>
+      <c r="E22" s="10">
+        <v>3.87</v>
+      </c>
+      <c r="F22" s="10">
+        <f t="shared" si="10"/>
+        <v>1.9658640658335875</v>
+      </c>
+      <c r="G22" s="36">
+        <f t="shared" si="11"/>
+        <v>1.9658640658335875</v>
+      </c>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="11"/>
+      <c r="M22" s="12"/>
+    </row>
+    <row r="23" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A23" s="38"/>
+      <c r="B23" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="40">
+        <f>2*5</f>
+        <v>10</v>
+      </c>
+      <c r="D23" s="10">
+        <f>42/3.281</f>
+        <v>12.800975312404754</v>
+      </c>
+      <c r="E23" s="10">
+        <v>3.87</v>
+      </c>
+      <c r="F23" s="10">
+        <f t="shared" si="10"/>
+        <v>495.39774459006395</v>
+      </c>
+      <c r="G23" s="36">
+        <f t="shared" si="11"/>
+        <v>495.39774459006395</v>
+      </c>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="11"/>
+      <c r="M23" s="12"/>
+    </row>
+    <row r="24" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="21"/>
+      <c r="B24" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="19"/>
-    </row>
-    <row r="10" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="21">
+      <c r="C24" s="22"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="27">
+        <f>SUM(G10:G23)</f>
+        <v>2118.2064797317889</v>
+      </c>
+      <c r="H24" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="I24" s="26">
+        <v>181.17</v>
+      </c>
+      <c r="J24" s="27">
+        <f>G24*I24</f>
+        <v>383755.46793300816</v>
+      </c>
+      <c r="K24" s="24"/>
+    </row>
+    <row r="25" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="21"/>
+      <c r="B25" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="22"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="27">
+        <f>0.13*G24*(1871.42/18.94)</f>
+        <v>27208.395783471828</v>
+      </c>
+      <c r="K25" s="24"/>
+    </row>
+    <row r="26" spans="1:13" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A26" s="21"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="24"/>
+    </row>
+    <row r="27" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.3">
+      <c r="A27" s="38">
+        <v>2</v>
+      </c>
+      <c r="B27" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="40"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="11"/>
+      <c r="M27" s="12"/>
+    </row>
+    <row r="28" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="38"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="40">
+        <v>2</v>
+      </c>
+      <c r="D28" s="10">
+        <f>16/3.281</f>
+        <v>4.8765620237732392</v>
+      </c>
+      <c r="E28" s="10">
+        <f>42/3.281</f>
+        <v>12.800975312404754</v>
+      </c>
+      <c r="F28" s="10"/>
+      <c r="G28" s="36">
+        <f>PRODUCT(C28:F28)</f>
+        <v>124.8495001514636</v>
+      </c>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="11"/>
+      <c r="M28" s="12"/>
+    </row>
+    <row r="29" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="21"/>
+      <c r="B29" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="22"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="27">
+        <f>SUM(G28:G28)</f>
+        <v>124.8495001514636</v>
+      </c>
+      <c r="H29" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="I29" s="26">
+        <v>1070.9000000000001</v>
+      </c>
+      <c r="J29" s="27">
+        <f>G29*I29</f>
+        <v>133701.32971220239</v>
+      </c>
+      <c r="K29" s="24"/>
+    </row>
+    <row r="30" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="21"/>
+      <c r="B30" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="22"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="27">
+        <f>0.13*G29*8587.63/10</f>
+        <v>13938.097068814273</v>
+      </c>
+      <c r="K30" s="24"/>
+    </row>
+    <row r="31" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="21"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="24"/>
+    </row>
+    <row r="32" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+      <c r="A32" s="21">
+        <v>3</v>
+      </c>
+      <c r="B32" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="22"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="24"/>
+    </row>
+    <row r="33" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="21"/>
+      <c r="B33" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="22">
+        <f>3*4</f>
+        <v>12</v>
+      </c>
+      <c r="D33" s="23">
+        <v>0.9</v>
+      </c>
+      <c r="E33" s="24">
+        <v>0.9</v>
+      </c>
+      <c r="F33" s="24">
+        <f>3/3.281</f>
+        <v>0.91435537945748246</v>
+      </c>
+      <c r="G33" s="36">
+        <f>PRODUCT(C33:F33)</f>
+        <v>8.8875342883267301</v>
+      </c>
+      <c r="H33" s="25"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="24"/>
+    </row>
+    <row r="34" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="21"/>
+      <c r="B34" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="22"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="27">
+        <f>SUM(G33:G33)</f>
+        <v>8.8875342883267301</v>
+      </c>
+      <c r="H34" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="I34" s="26">
+        <v>663.31</v>
+      </c>
+      <c r="J34" s="27">
+        <f>G34*I34</f>
+        <v>5895.190368790003</v>
+      </c>
+      <c r="K34" s="24"/>
+    </row>
+    <row r="35" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="21"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="24"/>
+    </row>
+    <row r="36" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+      <c r="A36" s="21">
+        <v>3</v>
+      </c>
+      <c r="B36" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" s="22"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="27"/>
+      <c r="K36" s="24"/>
+    </row>
+    <row r="37" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="21"/>
+      <c r="B37" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="22">
+        <f>3*4</f>
+        <v>12</v>
+      </c>
+      <c r="D37" s="23">
+        <v>0.75</v>
+      </c>
+      <c r="E37" s="24">
+        <v>0.75</v>
+      </c>
+      <c r="F37" s="24">
+        <v>0.15</v>
+      </c>
+      <c r="G37" s="36">
+        <f>PRODUCT(C37:F37)</f>
+        <v>1.0125</v>
+      </c>
+      <c r="H37" s="25"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="27"/>
+      <c r="K37" s="24"/>
+    </row>
+    <row r="38" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="21"/>
+      <c r="B38" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" s="22"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="27">
+        <f>SUM(G37:G37)</f>
+        <v>1.0125</v>
+      </c>
+      <c r="H38" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="I38" s="26">
+        <v>4473.1499999999996</v>
+      </c>
+      <c r="J38" s="27">
+        <f>G38*I38</f>
+        <v>4529.064374999999</v>
+      </c>
+      <c r="K38" s="24"/>
+    </row>
+    <row r="39" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="21"/>
+      <c r="B39" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="22"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="27">
+        <f>0.13*G38*3093.15</f>
+        <v>407.13586874999999</v>
+      </c>
+      <c r="K39" s="24"/>
+    </row>
+    <row r="40" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="21"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="27"/>
+      <c r="K40" s="24"/>
+    </row>
+    <row r="41" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+      <c r="A41" s="21">
+        <v>3</v>
+      </c>
+      <c r="B41" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="C41" s="22"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="26"/>
+      <c r="J41" s="27"/>
+      <c r="K41" s="24"/>
+    </row>
+    <row r="42" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="21"/>
+      <c r="B42" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" s="22">
+        <f>3*4</f>
+        <v>12</v>
+      </c>
+      <c r="D42" s="23">
+        <v>0.75</v>
+      </c>
+      <c r="E42" s="24">
+        <v>0.75</v>
+      </c>
+      <c r="F42" s="24">
+        <v>0.05</v>
+      </c>
+      <c r="G42" s="36">
+        <f>PRODUCT(C42:F42)</f>
+        <v>0.33750000000000002</v>
+      </c>
+      <c r="H42" s="25"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="27"/>
+      <c r="K42" s="24"/>
+    </row>
+    <row r="43" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="21"/>
+      <c r="B43" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C43" s="22"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="27">
+        <f>SUM(G42:G42)</f>
+        <v>0.33750000000000002</v>
+      </c>
+      <c r="H43" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="I43" s="26">
+        <v>12983.1</v>
+      </c>
+      <c r="J43" s="27">
+        <f>G43*I43</f>
+        <v>4381.7962500000003</v>
+      </c>
+      <c r="K43" s="24"/>
+    </row>
+    <row r="44" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="21"/>
+      <c r="B44" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" s="22"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="26"/>
+      <c r="J44" s="27">
+        <f>0.13*G43*8078.11</f>
+        <v>354.42707625000003</v>
+      </c>
+      <c r="K44" s="24"/>
+    </row>
+    <row r="45" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="21"/>
+      <c r="B45" s="39"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="26"/>
+      <c r="J45" s="27"/>
+      <c r="K45" s="24"/>
+    </row>
+    <row r="46" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+      <c r="A46" s="21">
+        <v>3</v>
+      </c>
+      <c r="B46" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="C46" s="22"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="26"/>
+      <c r="J46" s="27"/>
+      <c r="K46" s="24"/>
+    </row>
+    <row r="47" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="21"/>
+      <c r="B47" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47" s="22">
+        <f>3*4</f>
+        <v>12</v>
+      </c>
+      <c r="D47" s="23">
+        <v>0.6</v>
+      </c>
+      <c r="E47" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="F47" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="G47" s="36">
+        <f>PRODUCT(C47:F47)</f>
+        <v>2.5919999999999996</v>
+      </c>
+      <c r="H47" s="25"/>
+      <c r="I47" s="26"/>
+      <c r="J47" s="27"/>
+      <c r="K47" s="24"/>
+    </row>
+    <row r="48" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="21"/>
+      <c r="B48" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C48" s="22"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="27">
+        <f>SUM(G47:G47)</f>
+        <v>2.5919999999999996</v>
+      </c>
+      <c r="H48" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="I48" s="26">
+        <v>13568.9</v>
+      </c>
+      <c r="J48" s="27">
+        <f>G48*I48</f>
+        <v>35170.588799999998</v>
+      </c>
+      <c r="K48" s="24"/>
+    </row>
+    <row r="49" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="21"/>
+      <c r="B49" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C49" s="22"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="26"/>
+      <c r="J49" s="27">
+        <f>0.13*G48*9524.2</f>
+        <v>3209.2744320000002</v>
+      </c>
+      <c r="K49" s="24"/>
+    </row>
+    <row r="50" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="21"/>
+      <c r="B50" s="39"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="25"/>
+      <c r="I50" s="26"/>
+      <c r="J50" s="27"/>
+      <c r="K50" s="24"/>
+    </row>
+    <row r="51" spans="1:31" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="21">
+        <v>3</v>
+      </c>
+      <c r="B51" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="C51" s="22">
+        <v>1</v>
+      </c>
+      <c r="D51" s="23"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="36">
+        <f>PRODUCT(C51:F51)</f>
+        <v>1</v>
+      </c>
+      <c r="H51" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="I51" s="26">
+        <v>5000</v>
+      </c>
+      <c r="J51" s="27">
+        <f>G51*I51</f>
+        <v>5000</v>
+      </c>
+      <c r="K51" s="24"/>
+    </row>
+    <row r="52" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="21"/>
+      <c r="B52" s="39"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="26"/>
+      <c r="J52" s="27"/>
+      <c r="K52" s="24"/>
+    </row>
+    <row r="53" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="21">
         <v>4</v>
       </c>
-      <c r="B10" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="38"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="24"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="21"/>
-      <c r="B11" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="24"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="4"/>
-      <c r="M12" s="29"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="4"/>
-      <c r="M13" s="29"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="4"/>
-      <c r="M14" s="29"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="4"/>
-      <c r="M15" s="29"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="4"/>
-      <c r="M16" s="29"/>
-    </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="4"/>
-      <c r="M17" s="29"/>
-    </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="4"/>
-      <c r="M18" s="29"/>
-    </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="4"/>
-      <c r="M19" s="29"/>
-    </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A20" s="21"/>
-      <c r="B20" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="27" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H20" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="I20" s="26">
-        <v>3541.11</v>
-      </c>
-      <c r="J20" s="7" t="e">
-        <f>G20*I20</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K20" s="24"/>
-    </row>
-    <row r="21" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="21"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="24"/>
-    </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
-      <c r="B22" s="20" t="s">
+      <c r="B53" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="C53" s="22">
+        <v>1</v>
+      </c>
+      <c r="D53" s="23"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="24"/>
+      <c r="G53" s="36">
+        <f>PRODUCT(C53:F53)</f>
+        <v>1</v>
+      </c>
+      <c r="H53" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="I53" s="26">
+        <v>500</v>
+      </c>
+      <c r="J53" s="27">
+        <f>G53*I53</f>
+        <v>500</v>
+      </c>
+      <c r="K53" s="24"/>
+    </row>
+    <row r="54" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="21"/>
+      <c r="B54" s="39"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="24"/>
+      <c r="F54" s="24"/>
+      <c r="G54" s="27"/>
+      <c r="H54" s="25"/>
+      <c r="I54" s="26"/>
+      <c r="J54" s="27"/>
+      <c r="K54" s="24"/>
+    </row>
+    <row r="55" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A55" s="9"/>
+      <c r="B55" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7" t="e">
-        <f>SUM(J11:J21)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K22" s="4"/>
-      <c r="M22" s="29"/>
-      <c r="P22" s="32"/>
-      <c r="Q22" s="32"/>
-    </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="M23" s="29"/>
-      <c r="N23" s="30"/>
-      <c r="O23" s="30"/>
-      <c r="P23" s="31"/>
-      <c r="R23" s="30"/>
-      <c r="S23" s="30"/>
-      <c r="T23" s="30"/>
-      <c r="U23" s="29"/>
-      <c r="V23" s="29"/>
-      <c r="W23" s="29"/>
-      <c r="X23" s="29"/>
-      <c r="Y23" s="29"/>
-      <c r="Z23" s="29"/>
-      <c r="AA23" s="29"/>
-      <c r="AB23" s="29"/>
-      <c r="AC23" s="29"/>
-      <c r="AD23" s="29"/>
-      <c r="AE23" s="29"/>
-    </row>
-    <row r="24" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="11" t="s">
+      <c r="C55" s="8"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="33"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7">
+        <f>SUM(J10:J54)</f>
+        <v>618050.76766828669</v>
+      </c>
+      <c r="K55" s="4"/>
+      <c r="M55" s="29"/>
+      <c r="P55" s="32"/>
+      <c r="Q55" s="32"/>
+    </row>
+    <row r="56" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="M56" s="29"/>
+      <c r="N56" s="30"/>
+      <c r="O56" s="30"/>
+      <c r="P56" s="31"/>
+      <c r="R56" s="30"/>
+      <c r="S56" s="30"/>
+      <c r="T56" s="30"/>
+      <c r="U56" s="29"/>
+      <c r="V56" s="29"/>
+      <c r="W56" s="29"/>
+      <c r="X56" s="29"/>
+      <c r="Y56" s="29"/>
+      <c r="Z56" s="29"/>
+      <c r="AA56" s="29"/>
+      <c r="AB56" s="29"/>
+      <c r="AC56" s="29"/>
+      <c r="AD56" s="29"/>
+      <c r="AE56" s="29"/>
+    </row>
+    <row r="57" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="41" t="e">
-        <f>J22</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D24" s="42"/>
-      <c r="E24" s="10">
+      <c r="C57" s="41">
+        <f>J55</f>
+        <v>618050.76766828669</v>
+      </c>
+      <c r="D57" s="42"/>
+      <c r="E57" s="10">
         <v>100</v>
       </c>
-      <c r="F24" s="12"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="16"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="30"/>
-      <c r="O24" s="30"/>
-      <c r="P24" s="30"/>
-      <c r="Q24" s="30"/>
-      <c r="R24" s="30"/>
-      <c r="S24" s="30"/>
-      <c r="T24" s="30"/>
-      <c r="U24" s="12"/>
-      <c r="V24" s="12"/>
-      <c r="W24" s="12"/>
-      <c r="X24" s="12"/>
-      <c r="Y24" s="12"/>
-      <c r="Z24" s="12"/>
-      <c r="AA24" s="12"/>
-      <c r="AB24" s="12"/>
-      <c r="AC24" s="12"/>
-      <c r="AD24" s="12"/>
-      <c r="AE24" s="12"/>
-    </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B25" s="11" t="s">
+      <c r="F57" s="12"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="14"/>
+      <c r="J57" s="15"/>
+      <c r="K57" s="16"/>
+      <c r="M57" s="12"/>
+      <c r="N57" s="30"/>
+      <c r="O57" s="30"/>
+      <c r="P57" s="30"/>
+      <c r="Q57" s="30"/>
+      <c r="R57" s="30"/>
+      <c r="S57" s="30"/>
+      <c r="T57" s="30"/>
+      <c r="U57" s="12"/>
+      <c r="V57" s="12"/>
+      <c r="W57" s="12"/>
+      <c r="X57" s="12"/>
+      <c r="Y57" s="12"/>
+      <c r="Z57" s="12"/>
+      <c r="AA57" s="12"/>
+      <c r="AB57" s="12"/>
+      <c r="AC57" s="12"/>
+      <c r="AD57" s="12"/>
+      <c r="AE57" s="12"/>
+    </row>
+    <row r="58" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="B58" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="45">
-        <v>150000</v>
-      </c>
-      <c r="D25" s="46"/>
-      <c r="E25" s="10"/>
-      <c r="M25" s="29"/>
-      <c r="N25" s="30"/>
-      <c r="O25" s="30"/>
-      <c r="P25" s="30"/>
-      <c r="Q25" s="30"/>
-      <c r="R25" s="30"/>
-      <c r="S25" s="30"/>
-      <c r="T25" s="30"/>
-      <c r="U25" s="29"/>
-      <c r="V25" s="29"/>
-      <c r="W25" s="29"/>
-      <c r="X25" s="29"/>
-      <c r="Y25" s="29"/>
-      <c r="Z25" s="29"/>
-      <c r="AA25" s="29"/>
-      <c r="AB25" s="29"/>
-      <c r="AC25" s="29"/>
-      <c r="AD25" s="29"/>
-      <c r="AE25" s="29"/>
-    </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B26" s="11" t="s">
+      <c r="C58" s="45">
+        <v>400000</v>
+      </c>
+      <c r="D58" s="46"/>
+      <c r="E58" s="10"/>
+      <c r="M58" s="29"/>
+      <c r="N58" s="30"/>
+      <c r="O58" s="30"/>
+      <c r="P58" s="30"/>
+      <c r="Q58" s="30"/>
+      <c r="R58" s="30"/>
+      <c r="S58" s="30"/>
+      <c r="T58" s="30"/>
+      <c r="U58" s="29"/>
+      <c r="V58" s="29"/>
+      <c r="W58" s="29"/>
+      <c r="X58" s="29"/>
+      <c r="Y58" s="29"/>
+      <c r="Z58" s="29"/>
+      <c r="AA58" s="29"/>
+      <c r="AB58" s="29"/>
+      <c r="AC58" s="29"/>
+      <c r="AD58" s="29"/>
+      <c r="AE58" s="29"/>
+    </row>
+    <row r="59" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="B59" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="45">
-        <f>C25-C28-C29</f>
-        <v>142500</v>
-      </c>
-      <c r="D26" s="46"/>
-      <c r="E26" s="10" t="e">
-        <f>C26/C24*100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M26" s="29"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="29"/>
-      <c r="P26" s="29"/>
-      <c r="Q26" s="29"/>
-      <c r="R26" s="29"/>
-      <c r="S26" s="29"/>
-      <c r="T26" s="29"/>
-      <c r="U26" s="29"/>
-      <c r="V26" s="29"/>
-      <c r="W26" s="29"/>
-      <c r="X26" s="29"/>
-      <c r="Y26" s="29"/>
-      <c r="Z26" s="29"/>
-      <c r="AA26" s="29"/>
-      <c r="AB26" s="29"/>
-      <c r="AC26" s="29"/>
-      <c r="AD26" s="29"/>
-      <c r="AE26" s="29"/>
-    </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B27" s="11" t="s">
+      <c r="C59" s="45">
+        <f>C58-C61-C62</f>
+        <v>380000</v>
+      </c>
+      <c r="D59" s="46"/>
+      <c r="E59" s="10">
+        <f>C59/C57*100</f>
+        <v>61.483622362224679</v>
+      </c>
+      <c r="M59" s="29"/>
+      <c r="N59" s="29"/>
+      <c r="O59" s="29"/>
+      <c r="P59" s="29"/>
+      <c r="Q59" s="29"/>
+      <c r="R59" s="29"/>
+      <c r="S59" s="29"/>
+      <c r="T59" s="29"/>
+      <c r="U59" s="29"/>
+      <c r="V59" s="29"/>
+      <c r="W59" s="29"/>
+      <c r="X59" s="29"/>
+      <c r="Y59" s="29"/>
+      <c r="Z59" s="29"/>
+      <c r="AA59" s="29"/>
+      <c r="AB59" s="29"/>
+      <c r="AC59" s="29"/>
+      <c r="AD59" s="29"/>
+      <c r="AE59" s="29"/>
+    </row>
+    <row r="60" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="B60" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="47" t="e">
-        <f>C24-C26</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D27" s="47"/>
-      <c r="E27" s="10" t="e">
-        <f>100-E26</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M27" s="29"/>
-      <c r="N27" s="29"/>
-      <c r="O27" s="29"/>
-      <c r="P27" s="29"/>
-      <c r="Q27" s="29"/>
-      <c r="R27" s="29"/>
-      <c r="S27" s="29"/>
-      <c r="T27" s="29"/>
-      <c r="U27" s="29"/>
-      <c r="V27" s="29"/>
-      <c r="W27" s="29"/>
-      <c r="X27" s="29"/>
-      <c r="Y27" s="29"/>
-      <c r="Z27" s="29"/>
-      <c r="AA27" s="29"/>
-      <c r="AB27" s="29"/>
-      <c r="AC27" s="29"/>
-      <c r="AD27" s="29"/>
-      <c r="AE27" s="29"/>
-    </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B28" s="11" t="s">
+      <c r="C60" s="47">
+        <f>C57-C59</f>
+        <v>238050.76766828669</v>
+      </c>
+      <c r="D60" s="47"/>
+      <c r="E60" s="10">
+        <f>100-E59</f>
+        <v>38.516377637775321</v>
+      </c>
+      <c r="M60" s="29"/>
+      <c r="N60" s="29"/>
+      <c r="O60" s="29"/>
+      <c r="P60" s="29"/>
+      <c r="Q60" s="29"/>
+      <c r="R60" s="29"/>
+      <c r="S60" s="29"/>
+      <c r="T60" s="29"/>
+      <c r="U60" s="29"/>
+      <c r="V60" s="29"/>
+      <c r="W60" s="29"/>
+      <c r="X60" s="29"/>
+      <c r="Y60" s="29"/>
+      <c r="Z60" s="29"/>
+      <c r="AA60" s="29"/>
+      <c r="AB60" s="29"/>
+      <c r="AC60" s="29"/>
+      <c r="AD60" s="29"/>
+      <c r="AE60" s="29"/>
+    </row>
+    <row r="61" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="B61" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="41">
-        <f>C25*0.03</f>
-        <v>4500</v>
-      </c>
-      <c r="D28" s="42"/>
-      <c r="E28" s="10">
+      <c r="C61" s="41">
+        <f>C58*0.03</f>
+        <v>12000</v>
+      </c>
+      <c r="D61" s="42"/>
+      <c r="E61" s="10">
         <v>3</v>
       </c>
-      <c r="M28" s="29"/>
-      <c r="N28" s="29"/>
-      <c r="O28" s="29"/>
-      <c r="P28" s="29"/>
-      <c r="Q28" s="29"/>
-      <c r="R28" s="29"/>
-      <c r="S28" s="29"/>
-      <c r="T28" s="29"/>
-      <c r="U28" s="29"/>
-      <c r="V28" s="29"/>
-      <c r="W28" s="29"/>
-      <c r="X28" s="29"/>
-      <c r="Y28" s="29"/>
-      <c r="Z28" s="29"/>
-      <c r="AA28" s="29"/>
-      <c r="AB28" s="29"/>
-      <c r="AC28" s="29"/>
-      <c r="AD28" s="29"/>
-      <c r="AE28" s="29"/>
-    </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B29" s="11" t="s">
+      <c r="M61" s="29"/>
+      <c r="N61" s="29"/>
+      <c r="O61" s="29"/>
+      <c r="P61" s="29"/>
+      <c r="Q61" s="29"/>
+      <c r="R61" s="29"/>
+      <c r="S61" s="29"/>
+      <c r="T61" s="29"/>
+      <c r="U61" s="29"/>
+      <c r="V61" s="29"/>
+      <c r="W61" s="29"/>
+      <c r="X61" s="29"/>
+      <c r="Y61" s="29"/>
+      <c r="Z61" s="29"/>
+      <c r="AA61" s="29"/>
+      <c r="AB61" s="29"/>
+      <c r="AC61" s="29"/>
+      <c r="AD61" s="29"/>
+      <c r="AE61" s="29"/>
+    </row>
+    <row r="62" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="B62" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="41">
-        <f>C25*0.02</f>
-        <v>3000</v>
-      </c>
-      <c r="D29" s="42"/>
-      <c r="E29" s="10">
+      <c r="C62" s="41">
+        <f>C58*0.02</f>
+        <v>8000</v>
+      </c>
+      <c r="D62" s="42"/>
+      <c r="E62" s="10">
         <v>2</v>
       </c>
-      <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
-      <c r="O29" s="29"/>
-      <c r="P29" s="29"/>
-      <c r="Q29" s="29"/>
-      <c r="R29" s="29"/>
-      <c r="S29" s="29"/>
-      <c r="T29" s="29"/>
-      <c r="U29" s="29"/>
-      <c r="V29" s="29"/>
-      <c r="W29" s="29"/>
-      <c r="X29" s="29"/>
-      <c r="Y29" s="29"/>
-      <c r="Z29" s="29"/>
-      <c r="AA29" s="29"/>
-      <c r="AB29" s="29"/>
-      <c r="AC29" s="29"/>
-      <c r="AD29" s="29"/>
-      <c r="AE29" s="29"/>
+      <c r="M62" s="29"/>
+      <c r="N62" s="29"/>
+      <c r="O62" s="29"/>
+      <c r="P62" s="29"/>
+      <c r="Q62" s="29"/>
+      <c r="R62" s="29"/>
+      <c r="S62" s="29"/>
+      <c r="T62" s="29"/>
+      <c r="U62" s="29"/>
+      <c r="V62" s="29"/>
+      <c r="W62" s="29"/>
+      <c r="X62" s="29"/>
+      <c r="Y62" s="29"/>
+      <c r="Z62" s="29"/>
+      <c r="AA62" s="29"/>
+      <c r="AB62" s="29"/>
+      <c r="AC62" s="29"/>
+      <c r="AD62" s="29"/>
+      <c r="AE62" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -1772,14 +2651,14 @@
     <mergeCell ref="A3:K3"/>
     <mergeCell ref="A4:K4"/>
     <mergeCell ref="A5:K5"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C62:D62"/>
     <mergeCell ref="A7:F7"/>
     <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C60:D60"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ofc/estimates/kurthali truss/truss.xlsx
+++ b/ofc/estimates/kurthali truss/truss.xlsx
@@ -9,17 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="new" sheetId="18" r:id="rId1"/>
+    <sheet name="as per mistry" sheetId="19" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
     <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
     <definedName name="adopted_rate_aggregate_10_20_mm">[1]District_Rate!$L$6</definedName>
@@ -40,7 +41,9 @@
     <definedName name="description_784">[2]Abstract!$B$300</definedName>
     <definedName name="excavator">[1]Equipment_Rate!$J$19</definedName>
     <definedName name="generator">[1]Equipment_Rate!$J$20</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'as per mistry'!$A$1:$K$68</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">new!$A$1:$K$62</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">'as per mistry'!$1:$8</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">new!$1:$8</definedName>
     <definedName name="skilled">[1]District_Rate!$D$148</definedName>
     <definedName name="skilled_blacksmith">[1]District_Rate!$D$149</definedName>
@@ -56,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="62">
   <si>
     <t>Government of Nepal</t>
   </si>
@@ -212,6 +215,36 @@
   </si>
   <si>
     <t xml:space="preserve">d]lzgsf] k|of]u u/L ;'k/ :6«Sr/df l;d]G6 s+lqm6 ug]{ sfd -!M!=%M#_ </t>
+  </si>
+  <si>
+    <t>-MS square pipe of 3" * 3" of 1.8mm thickness for vertical post</t>
+  </si>
+  <si>
+    <t>-MS square pipe of 2"*2" of 1.8mm thickness for horizontal member</t>
+  </si>
+  <si>
+    <t>-MS square pipe of 2"*2" of 1.6mm thickness for king post member</t>
+  </si>
+  <si>
+    <t>-MS square pipe of 1.5"*1.5" of 1.6mm thickness for vertical member</t>
+  </si>
+  <si>
+    <t>-MS square pipe of 1.5"*1.5" of 1.6mm thickness for diagnol member</t>
+  </si>
+  <si>
+    <t>-MS square pipe of 2"*2" of 1.8mm thickness for inclined member</t>
+  </si>
+  <si>
+    <t>-MS square pipe of 2"*2" of 1.8mm thickness for purlins</t>
+  </si>
+  <si>
+    <t>e'O{+tNnfdf lrDgL e§fsf] O{+6fsf] uf/f] l;d]G6 d;nf -!M^_ df</t>
+  </si>
+  <si>
+    <t>;'Vvf O{6f RofK6f] 5fKg] sfd</t>
+  </si>
+  <si>
+    <t>no.</t>
   </si>
 </sst>
 </file>
@@ -491,26 +524,13 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -523,8 +543,21 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1196,7 +1229,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView topLeftCell="A42" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
@@ -1220,113 +1253,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
     </row>
     <row r="5" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
     </row>
     <row r="6" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="44" t="s">
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
     </row>
     <row r="7" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="44" t="s">
+      <c r="H7" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
@@ -2324,7 +2357,7 @@
       <c r="A51" s="21">
         <v>3</v>
       </c>
-      <c r="B51" s="53" t="s">
+      <c r="B51" s="41" t="s">
         <v>37</v>
       </c>
       <c r="C51" s="22">
@@ -2366,7 +2399,7 @@
       <c r="A53" s="21">
         <v>4</v>
       </c>
-      <c r="B53" s="53" t="s">
+      <c r="B53" s="41" t="s">
         <v>39</v>
       </c>
       <c r="C53" s="22">
@@ -2449,11 +2482,11 @@
       <c r="B57" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C57" s="41">
+      <c r="C57" s="48">
         <f>J55</f>
         <v>618050.76766828669</v>
       </c>
-      <c r="D57" s="42"/>
+      <c r="D57" s="49"/>
       <c r="E57" s="10">
         <v>100</v>
       </c>
@@ -2487,10 +2520,10 @@
       <c r="B58" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C58" s="45">
+      <c r="C58" s="51">
         <v>400000</v>
       </c>
-      <c r="D58" s="46"/>
+      <c r="D58" s="52"/>
       <c r="E58" s="10"/>
       <c r="M58" s="29"/>
       <c r="N58" s="30"/>
@@ -2516,11 +2549,11 @@
       <c r="B59" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C59" s="45">
+      <c r="C59" s="51">
         <f>C58-C61-C62</f>
         <v>380000</v>
       </c>
-      <c r="D59" s="46"/>
+      <c r="D59" s="52"/>
       <c r="E59" s="10">
         <f>C59/C57*100</f>
         <v>61.483622362224679</v>
@@ -2549,11 +2582,11 @@
       <c r="B60" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C60" s="47">
+      <c r="C60" s="53">
         <f>C57-C59</f>
         <v>238050.76766828669</v>
       </c>
-      <c r="D60" s="47"/>
+      <c r="D60" s="53"/>
       <c r="E60" s="10">
         <f>100-E59</f>
         <v>38.516377637775321</v>
@@ -2582,11 +2615,11 @@
       <c r="B61" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C61" s="41">
+      <c r="C61" s="48">
         <f>C58*0.03</f>
         <v>12000</v>
       </c>
-      <c r="D61" s="42"/>
+      <c r="D61" s="49"/>
       <c r="E61" s="10">
         <v>3</v>
       </c>
@@ -2614,11 +2647,11 @@
       <c r="B62" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C62" s="41">
+      <c r="C62" s="48">
         <f>C58*0.02</f>
         <v>8000</v>
       </c>
-      <c r="D62" s="42"/>
+      <c r="D62" s="49"/>
       <c r="E62" s="10">
         <v>2</v>
       </c>
@@ -2644,13 +2677,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
     <mergeCell ref="C61:D61"/>
     <mergeCell ref="C62:D62"/>
     <mergeCell ref="A7:F7"/>
@@ -2659,6 +2685,1632 @@
     <mergeCell ref="C58:D58"/>
     <mergeCell ref="C59:D59"/>
     <mergeCell ref="C60:D60"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="80" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;LPrepared By:
+Kristal Suwal&amp;CChecked By:
+Er. Milan Phuyal&amp;RApproved By:    
+Er. Prakash Singh Saud</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AE68"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.109375" customWidth="1"/>
+    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" customWidth="1"/>
+    <col min="5" max="5" width="7.88671875" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="6.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.109375" customWidth="1"/>
+    <col min="17" max="17" width="14.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+    </row>
+    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+    </row>
+    <row r="5" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A5" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+    </row>
+    <row r="6" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+    </row>
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="21">
+        <v>1</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="35"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="24"/>
+    </row>
+    <row r="10" spans="1:13" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="38"/>
+      <c r="B10" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="40">
+        <f>3*5</f>
+        <v>15</v>
+      </c>
+      <c r="D10" s="10">
+        <f>(2.5+1.5+13)/3.281</f>
+        <v>5.1813471502590671</v>
+      </c>
+      <c r="E10" s="10">
+        <v>3.97</v>
+      </c>
+      <c r="F10" s="10">
+        <f>PRODUCT(C10:E10)</f>
+        <v>308.54922279792743</v>
+      </c>
+      <c r="G10" s="36">
+        <f>F10</f>
+        <v>308.54922279792743</v>
+      </c>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="11"/>
+      <c r="M10" s="12"/>
+    </row>
+    <row r="11" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="38"/>
+      <c r="B11" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="40">
+        <v>5</v>
+      </c>
+      <c r="D11" s="10">
+        <f>(1.5+30+1.5)/3.281</f>
+        <v>10.057909174032307</v>
+      </c>
+      <c r="E11" s="10">
+        <v>2.72</v>
+      </c>
+      <c r="F11" s="10">
+        <f t="shared" ref="F11:F21" si="0">PRODUCT(C11:E11)</f>
+        <v>136.78756476683938</v>
+      </c>
+      <c r="G11" s="36">
+        <f t="shared" ref="G11:G21" si="1">F11</f>
+        <v>136.78756476683938</v>
+      </c>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="11"/>
+      <c r="M11" s="12"/>
+    </row>
+    <row r="12" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="38"/>
+      <c r="B12" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="40">
+        <f>2*5</f>
+        <v>10</v>
+      </c>
+      <c r="D12" s="10">
+        <f>16.333/3.281</f>
+        <v>4.97805547089302</v>
+      </c>
+      <c r="E12" s="10">
+        <v>2.72</v>
+      </c>
+      <c r="F12" s="10">
+        <f t="shared" si="0"/>
+        <v>135.40310880829014</v>
+      </c>
+      <c r="G12" s="36">
+        <f t="shared" si="1"/>
+        <v>135.40310880829014</v>
+      </c>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="11"/>
+      <c r="M12" s="12"/>
+    </row>
+    <row r="13" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="38"/>
+      <c r="B13" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="40">
+        <f>1*5</f>
+        <v>5</v>
+      </c>
+      <c r="D13" s="10">
+        <f>3.5/3.281</f>
+        <v>1.0667479427003961</v>
+      </c>
+      <c r="E13" s="10">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F13" s="10">
+        <f t="shared" si="0"/>
+        <v>12.960987503809815</v>
+      </c>
+      <c r="G13" s="36">
+        <f t="shared" si="1"/>
+        <v>12.960987503809815</v>
+      </c>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="11"/>
+      <c r="M13" s="12"/>
+    </row>
+    <row r="14" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="38"/>
+      <c r="B14" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="40">
+        <f>2*5</f>
+        <v>10</v>
+      </c>
+      <c r="D14" s="10">
+        <f>4/3.281</f>
+        <v>1.2191405059433098</v>
+      </c>
+      <c r="E14" s="10">
+        <v>3.87</v>
+      </c>
+      <c r="F14" s="10">
+        <f t="shared" si="0"/>
+        <v>47.180737580006088</v>
+      </c>
+      <c r="G14" s="36">
+        <f t="shared" si="1"/>
+        <v>47.180737580006088</v>
+      </c>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="11"/>
+      <c r="M14" s="12"/>
+    </row>
+    <row r="15" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="38"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="40">
+        <f t="shared" ref="C15:C21" si="2">2*5</f>
+        <v>10</v>
+      </c>
+      <c r="D15" s="10">
+        <f>3.583/3.281</f>
+        <v>1.0920451081987199</v>
+      </c>
+      <c r="E15" s="10">
+        <v>3.87</v>
+      </c>
+      <c r="F15" s="10">
+        <f t="shared" si="0"/>
+        <v>42.262145687290463</v>
+      </c>
+      <c r="G15" s="36">
+        <f t="shared" si="1"/>
+        <v>42.262145687290463</v>
+      </c>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="11"/>
+      <c r="M15" s="12"/>
+    </row>
+    <row r="16" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="38"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="40">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="D16" s="10">
+        <f>3.25/3.281</f>
+        <v>0.99055166107893933</v>
+      </c>
+      <c r="E16" s="10">
+        <v>3.87</v>
+      </c>
+      <c r="F16" s="10">
+        <f t="shared" si="0"/>
+        <v>38.334349283754953</v>
+      </c>
+      <c r="G16" s="36">
+        <f t="shared" si="1"/>
+        <v>38.334349283754953</v>
+      </c>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="11"/>
+      <c r="M16" s="12"/>
+    </row>
+    <row r="17" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="38"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="40">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="D17" s="10">
+        <f>3.083/3.281</f>
+        <v>0.93965254495580619</v>
+      </c>
+      <c r="E17" s="10">
+        <v>3.87</v>
+      </c>
+      <c r="F17" s="10">
+        <f t="shared" si="0"/>
+        <v>36.364553489789699</v>
+      </c>
+      <c r="G17" s="36">
+        <f t="shared" si="1"/>
+        <v>36.364553489789699</v>
+      </c>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="11"/>
+      <c r="M17" s="12"/>
+    </row>
+    <row r="18" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="38"/>
+      <c r="B18" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="40">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="D18" s="10">
+        <f>2.667/3.281</f>
+        <v>0.81286193233770188</v>
+      </c>
+      <c r="E18" s="10">
+        <v>3.87</v>
+      </c>
+      <c r="F18" s="10">
+        <f t="shared" si="0"/>
+        <v>31.457756781469062</v>
+      </c>
+      <c r="G18" s="36">
+        <f t="shared" si="1"/>
+        <v>31.457756781469062</v>
+      </c>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="11"/>
+      <c r="M18" s="12"/>
+    </row>
+    <row r="19" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="38"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="40">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="D19" s="10">
+        <f>2/3.281</f>
+        <v>0.6095702529716549</v>
+      </c>
+      <c r="E19" s="10">
+        <v>3.87</v>
+      </c>
+      <c r="F19" s="10">
+        <f t="shared" si="0"/>
+        <v>23.590368790003044</v>
+      </c>
+      <c r="G19" s="36">
+        <f t="shared" si="1"/>
+        <v>23.590368790003044</v>
+      </c>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="11"/>
+      <c r="M19" s="12"/>
+    </row>
+    <row r="20" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="38"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="40">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="D20" s="10">
+        <f>1.333/3.281</f>
+        <v>0.40627857360560804</v>
+      </c>
+      <c r="E20" s="10">
+        <v>3.87</v>
+      </c>
+      <c r="F20" s="10">
+        <f t="shared" si="0"/>
+        <v>15.72298079853703</v>
+      </c>
+      <c r="G20" s="36">
+        <f t="shared" si="1"/>
+        <v>15.72298079853703</v>
+      </c>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="11"/>
+      <c r="M20" s="12"/>
+    </row>
+    <row r="21" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="38"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="40">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="D21" s="10">
+        <f>8/12/3.281</f>
+        <v>0.20319008432388497</v>
+      </c>
+      <c r="E21" s="10">
+        <v>3.87</v>
+      </c>
+      <c r="F21" s="10">
+        <f t="shared" si="0"/>
+        <v>7.8634562633343483</v>
+      </c>
+      <c r="G21" s="36">
+        <f t="shared" si="1"/>
+        <v>7.8634562633343483</v>
+      </c>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="11"/>
+      <c r="M21" s="12"/>
+    </row>
+    <row r="22" spans="1:13" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="38"/>
+      <c r="B22" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="40">
+        <f>2*6</f>
+        <v>12</v>
+      </c>
+      <c r="D22" s="10">
+        <f>44/3.281</f>
+        <v>13.41054556537641</v>
+      </c>
+      <c r="E22" s="10">
+        <v>2.72</v>
+      </c>
+      <c r="F22" s="10">
+        <f t="shared" ref="F22" si="3">PRODUCT(C22:E22)</f>
+        <v>437.72020725388603</v>
+      </c>
+      <c r="G22" s="36">
+        <f t="shared" ref="G22" si="4">F22</f>
+        <v>437.72020725388603</v>
+      </c>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="11"/>
+      <c r="M22" s="12"/>
+    </row>
+    <row r="23" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="21"/>
+      <c r="B23" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="22"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="27">
+        <f>SUM(G10:G22)</f>
+        <v>1274.1974398049376</v>
+      </c>
+      <c r="H23" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="I23" s="26">
+        <v>181.17</v>
+      </c>
+      <c r="J23" s="27">
+        <f>G23*I23</f>
+        <v>230846.35016946052</v>
+      </c>
+      <c r="K23" s="24"/>
+    </row>
+    <row r="24" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="21"/>
+      <c r="B24" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="22"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="27">
+        <f>0.13*G23*(1871.42/18.94)</f>
+        <v>16367.086296936026</v>
+      </c>
+      <c r="K24" s="24"/>
+    </row>
+    <row r="25" spans="1:13" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A25" s="21"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="24"/>
+    </row>
+    <row r="26" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.3">
+      <c r="A26" s="38">
+        <v>2</v>
+      </c>
+      <c r="B26" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="40"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="11"/>
+      <c r="M26" s="12"/>
+    </row>
+    <row r="27" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="38"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="40">
+        <v>2</v>
+      </c>
+      <c r="D27" s="10">
+        <f>16.333/3.281</f>
+        <v>4.97805547089302</v>
+      </c>
+      <c r="E27" s="10">
+        <f>44/3.281</f>
+        <v>13.41054556537641</v>
+      </c>
+      <c r="F27" s="10"/>
+      <c r="G27" s="36">
+        <f>PRODUCT(C27:F27)</f>
+        <v>133.51687943876433</v>
+      </c>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="11"/>
+      <c r="M27" s="12"/>
+    </row>
+    <row r="28" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="21"/>
+      <c r="B28" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="22"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="27">
+        <f>SUM(G27:G27)</f>
+        <v>133.51687943876433</v>
+      </c>
+      <c r="H28" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="I28" s="26">
+        <v>1070.9000000000001</v>
+      </c>
+      <c r="J28" s="27">
+        <f>G28*I28</f>
+        <v>142983.22619097272</v>
+      </c>
+      <c r="K28" s="24"/>
+    </row>
+    <row r="29" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="21"/>
+      <c r="B29" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="22"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="27">
+        <f>0.13*G28*8587.63/10</f>
+        <v>14905.716271871303</v>
+      </c>
+      <c r="K29" s="24"/>
+    </row>
+    <row r="30" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="21"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="24"/>
+    </row>
+    <row r="31" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+      <c r="A31" s="21">
+        <v>3</v>
+      </c>
+      <c r="B31" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="22"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="24"/>
+    </row>
+    <row r="32" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="21"/>
+      <c r="B32" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="22">
+        <f>3*5</f>
+        <v>15</v>
+      </c>
+      <c r="D32" s="23">
+        <v>0.45</v>
+      </c>
+      <c r="E32" s="24">
+        <v>0.45</v>
+      </c>
+      <c r="F32" s="24">
+        <f>(2.5+0.25+0.17)/3.281</f>
+        <v>0.88997256933861624</v>
+      </c>
+      <c r="G32" s="36">
+        <f>PRODUCT(C32:F32)</f>
+        <v>2.7032916793660471</v>
+      </c>
+      <c r="H32" s="25"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="24"/>
+    </row>
+    <row r="33" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="21"/>
+      <c r="B33" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="22"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="27">
+        <f>SUM(G32:G32)</f>
+        <v>2.7032916793660471</v>
+      </c>
+      <c r="H33" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="I33" s="26">
+        <v>663.31</v>
+      </c>
+      <c r="J33" s="27">
+        <f>G33*I33</f>
+        <v>1793.1204038402925</v>
+      </c>
+      <c r="K33" s="24"/>
+    </row>
+    <row r="34" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="21"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="24"/>
+    </row>
+    <row r="35" spans="1:11" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A35" s="21">
+        <v>4</v>
+      </c>
+      <c r="B35" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="22"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="24"/>
+    </row>
+    <row r="36" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="21"/>
+      <c r="B36" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="22">
+        <f>C32</f>
+        <v>15</v>
+      </c>
+      <c r="D36" s="23">
+        <f>D32</f>
+        <v>0.45</v>
+      </c>
+      <c r="E36" s="24">
+        <f>E32</f>
+        <v>0.45</v>
+      </c>
+      <c r="F36" s="24"/>
+      <c r="G36" s="36">
+        <f>PRODUCT(C36:F36)</f>
+        <v>3.0375000000000001</v>
+      </c>
+      <c r="H36" s="25"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="27"/>
+      <c r="K36" s="24"/>
+    </row>
+    <row r="37" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="21"/>
+      <c r="B37" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" s="22"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="27">
+        <f>SUM(G36:G36)</f>
+        <v>3.0375000000000001</v>
+      </c>
+      <c r="H37" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="I37" s="26">
+        <v>1014.97</v>
+      </c>
+      <c r="J37" s="27">
+        <f>G37*I37</f>
+        <v>3082.9713750000001</v>
+      </c>
+      <c r="K37" s="24"/>
+    </row>
+    <row r="38" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="21"/>
+      <c r="B38" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="22"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="26"/>
+      <c r="J38" s="27">
+        <f>0.13*G37*8617.2/10</f>
+        <v>340.27168500000005</v>
+      </c>
+      <c r="K38" s="24"/>
+    </row>
+    <row r="39" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="21"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="27"/>
+      <c r="K39" s="24"/>
+    </row>
+    <row r="40" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+      <c r="A40" s="21">
+        <v>5</v>
+      </c>
+      <c r="B40" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" s="22"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="27"/>
+      <c r="K40" s="24"/>
+    </row>
+    <row r="41" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="21"/>
+      <c r="B41" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="22">
+        <f>C36</f>
+        <v>15</v>
+      </c>
+      <c r="D41" s="23">
+        <f>D36</f>
+        <v>0.45</v>
+      </c>
+      <c r="E41" s="24">
+        <f>E36</f>
+        <v>0.45</v>
+      </c>
+      <c r="F41" s="24">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="G41" s="36">
+        <f>PRODUCT(C41:F41)</f>
+        <v>0.2278125</v>
+      </c>
+      <c r="H41" s="25"/>
+      <c r="I41" s="26"/>
+      <c r="J41" s="27"/>
+      <c r="K41" s="24"/>
+    </row>
+    <row r="42" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="21"/>
+      <c r="B42" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C42" s="22"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="27">
+        <f>SUM(G41:G41)</f>
+        <v>0.2278125</v>
+      </c>
+      <c r="H42" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="I42" s="26">
+        <v>12983.1</v>
+      </c>
+      <c r="J42" s="27">
+        <f>G42*I42</f>
+        <v>2957.71246875</v>
+      </c>
+      <c r="K42" s="24"/>
+    </row>
+    <row r="43" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="21"/>
+      <c r="B43" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43" s="22"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="26"/>
+      <c r="J43" s="27">
+        <f>0.13*G42*8078.11</f>
+        <v>239.23827646874997</v>
+      </c>
+      <c r="K43" s="24"/>
+    </row>
+    <row r="44" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="21"/>
+      <c r="B44" s="39"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="26"/>
+      <c r="J44" s="27"/>
+      <c r="K44" s="24"/>
+    </row>
+    <row r="45" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+      <c r="A45" s="21">
+        <v>6</v>
+      </c>
+      <c r="B45" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" s="22"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="26"/>
+      <c r="J45" s="27"/>
+      <c r="K45" s="24"/>
+    </row>
+    <row r="46" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="21"/>
+      <c r="B46" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" s="22">
+        <f>C41</f>
+        <v>15</v>
+      </c>
+      <c r="D46" s="23">
+        <f>D41</f>
+        <v>0.45</v>
+      </c>
+      <c r="E46" s="24">
+        <f>E41</f>
+        <v>0.45</v>
+      </c>
+      <c r="F46" s="24">
+        <v>0.75</v>
+      </c>
+      <c r="G46" s="36">
+        <f>PRODUCT(C46:F46)</f>
+        <v>2.2781250000000002</v>
+      </c>
+      <c r="H46" s="25"/>
+      <c r="I46" s="26"/>
+      <c r="J46" s="27"/>
+      <c r="K46" s="24"/>
+    </row>
+    <row r="47" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="21"/>
+      <c r="B47" s="39"/>
+      <c r="C47" s="22">
+        <f>C46</f>
+        <v>15</v>
+      </c>
+      <c r="D47" s="23">
+        <v>0.3</v>
+      </c>
+      <c r="E47" s="24">
+        <v>0.3</v>
+      </c>
+      <c r="F47" s="24">
+        <v>0.45</v>
+      </c>
+      <c r="G47" s="36">
+        <f>PRODUCT(C47:F47)</f>
+        <v>0.60749999999999993</v>
+      </c>
+      <c r="H47" s="25"/>
+      <c r="I47" s="26"/>
+      <c r="J47" s="27"/>
+      <c r="K47" s="24"/>
+    </row>
+    <row r="48" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="21"/>
+      <c r="B48" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C48" s="22"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="27">
+        <f>SUM(G46:G47)</f>
+        <v>2.8856250000000001</v>
+      </c>
+      <c r="H48" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="I48" s="26">
+        <v>13568.9</v>
+      </c>
+      <c r="J48" s="27">
+        <f>G48*I48</f>
+        <v>39154.757062500001</v>
+      </c>
+      <c r="K48" s="24"/>
+    </row>
+    <row r="49" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="21"/>
+      <c r="B49" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C49" s="22"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="26"/>
+      <c r="J49" s="27">
+        <f>0.13*G48*9524.2</f>
+        <v>3572.8250512500003</v>
+      </c>
+      <c r="K49" s="24"/>
+    </row>
+    <row r="50" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="21"/>
+      <c r="B50" s="39"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="25"/>
+      <c r="I50" s="26"/>
+      <c r="J50" s="27"/>
+      <c r="K50" s="24"/>
+    </row>
+    <row r="51" spans="1:31" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+      <c r="A51" s="21">
+        <v>7</v>
+      </c>
+      <c r="B51" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="C51" s="22"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="26"/>
+      <c r="J51" s="27"/>
+      <c r="K51" s="24"/>
+    </row>
+    <row r="52" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="21"/>
+      <c r="B52" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="C52" s="22">
+        <f>4*2</f>
+        <v>8</v>
+      </c>
+      <c r="D52" s="23">
+        <f>13.917/3.281</f>
+        <v>4.2416946053032607</v>
+      </c>
+      <c r="E52" s="24">
+        <v>0.23</v>
+      </c>
+      <c r="F52" s="24">
+        <v>0.3</v>
+      </c>
+      <c r="G52" s="36">
+        <f>PRODUCT(C52:F52)</f>
+        <v>2.3414154221273997</v>
+      </c>
+      <c r="H52" s="25"/>
+      <c r="I52" s="26"/>
+      <c r="J52" s="27"/>
+      <c r="K52" s="24"/>
+    </row>
+    <row r="53" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="21"/>
+      <c r="B53" s="39"/>
+      <c r="C53" s="22">
+        <f>2*2</f>
+        <v>4</v>
+      </c>
+      <c r="D53" s="23">
+        <f>8.917/3.281</f>
+        <v>2.7177689728741234</v>
+      </c>
+      <c r="E53" s="24">
+        <v>0.23</v>
+      </c>
+      <c r="F53" s="24">
+        <v>0.3</v>
+      </c>
+      <c r="G53" s="36">
+        <f>PRODUCT(C53:F53)</f>
+        <v>0.75010423651325808</v>
+      </c>
+      <c r="H53" s="25"/>
+      <c r="I53" s="26"/>
+      <c r="J53" s="27"/>
+      <c r="K53" s="24"/>
+    </row>
+    <row r="54" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="21"/>
+      <c r="B54" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C54" s="22"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="24"/>
+      <c r="F54" s="24"/>
+      <c r="G54" s="27">
+        <f>SUM(G52:G53)</f>
+        <v>3.0915196586406579</v>
+      </c>
+      <c r="H54" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="I54" s="26">
+        <v>14362.76</v>
+      </c>
+      <c r="J54" s="27">
+        <f>G54*I54</f>
+        <v>44402.754892337696</v>
+      </c>
+      <c r="K54" s="24"/>
+    </row>
+    <row r="55" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="21"/>
+      <c r="B55" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C55" s="22"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="24"/>
+      <c r="G55" s="27"/>
+      <c r="H55" s="25"/>
+      <c r="I55" s="26"/>
+      <c r="J55" s="27">
+        <f>0.13*G54*10311.74</f>
+        <v>4144.2631002228582</v>
+      </c>
+      <c r="K55" s="24"/>
+    </row>
+    <row r="56" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="21"/>
+      <c r="B56" s="39"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="23"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="24"/>
+      <c r="G56" s="27"/>
+      <c r="H56" s="25"/>
+      <c r="I56" s="26"/>
+      <c r="J56" s="27"/>
+      <c r="K56" s="24"/>
+    </row>
+    <row r="57" spans="1:31" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A57" s="21">
+        <v>8</v>
+      </c>
+      <c r="B57" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="C57" s="22">
+        <v>1</v>
+      </c>
+      <c r="D57" s="23"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="24"/>
+      <c r="G57" s="36">
+        <f>PRODUCT(C57:F57)</f>
+        <v>1</v>
+      </c>
+      <c r="H57" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="I57" s="26">
+        <v>5000</v>
+      </c>
+      <c r="J57" s="27">
+        <f>G57*I57</f>
+        <v>5000</v>
+      </c>
+      <c r="K57" s="24"/>
+    </row>
+    <row r="58" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="21"/>
+      <c r="B58" s="39"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="23"/>
+      <c r="E58" s="24"/>
+      <c r="F58" s="24"/>
+      <c r="G58" s="27"/>
+      <c r="H58" s="25"/>
+      <c r="I58" s="26"/>
+      <c r="J58" s="27"/>
+      <c r="K58" s="24"/>
+    </row>
+    <row r="59" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="21">
+        <v>9</v>
+      </c>
+      <c r="B59" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C59" s="22">
+        <v>1</v>
+      </c>
+      <c r="D59" s="23"/>
+      <c r="E59" s="24"/>
+      <c r="F59" s="24"/>
+      <c r="G59" s="36">
+        <f>PRODUCT(C59:F59)</f>
+        <v>1</v>
+      </c>
+      <c r="H59" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="I59" s="26">
+        <v>500</v>
+      </c>
+      <c r="J59" s="27">
+        <f>G59*I59</f>
+        <v>500</v>
+      </c>
+      <c r="K59" s="24"/>
+    </row>
+    <row r="60" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="21"/>
+      <c r="B60" s="39"/>
+      <c r="C60" s="22"/>
+      <c r="D60" s="23"/>
+      <c r="E60" s="24"/>
+      <c r="F60" s="24"/>
+      <c r="G60" s="27"/>
+      <c r="H60" s="25"/>
+      <c r="I60" s="26"/>
+      <c r="J60" s="27"/>
+      <c r="K60" s="24"/>
+    </row>
+    <row r="61" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A61" s="9"/>
+      <c r="B61" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61" s="8"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="33"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="7">
+        <f>SUM(J10:J60)</f>
+        <v>510290.29324461019</v>
+      </c>
+      <c r="K61" s="4"/>
+      <c r="M61" s="29"/>
+      <c r="P61" s="32"/>
+      <c r="Q61" s="32"/>
+    </row>
+    <row r="62" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="M62" s="29"/>
+      <c r="N62" s="30"/>
+      <c r="O62" s="30"/>
+      <c r="P62" s="31"/>
+      <c r="R62" s="30"/>
+      <c r="S62" s="30"/>
+      <c r="T62" s="30"/>
+      <c r="U62" s="29"/>
+      <c r="V62" s="29"/>
+      <c r="W62" s="29"/>
+      <c r="X62" s="29"/>
+      <c r="Y62" s="29"/>
+      <c r="Z62" s="29"/>
+      <c r="AA62" s="29"/>
+      <c r="AB62" s="29"/>
+      <c r="AC62" s="29"/>
+      <c r="AD62" s="29"/>
+      <c r="AE62" s="29"/>
+    </row>
+    <row r="63" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C63" s="48">
+        <f>J61</f>
+        <v>510290.29324461019</v>
+      </c>
+      <c r="D63" s="49"/>
+      <c r="E63" s="10">
+        <v>100</v>
+      </c>
+      <c r="F63" s="12"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="14"/>
+      <c r="J63" s="15"/>
+      <c r="K63" s="16"/>
+      <c r="M63" s="12"/>
+      <c r="N63" s="30"/>
+      <c r="O63" s="30"/>
+      <c r="P63" s="30"/>
+      <c r="Q63" s="30"/>
+      <c r="R63" s="30"/>
+      <c r="S63" s="30"/>
+      <c r="T63" s="30"/>
+      <c r="U63" s="12"/>
+      <c r="V63" s="12"/>
+      <c r="W63" s="12"/>
+      <c r="X63" s="12"/>
+      <c r="Y63" s="12"/>
+      <c r="Z63" s="12"/>
+      <c r="AA63" s="12"/>
+      <c r="AB63" s="12"/>
+      <c r="AC63" s="12"/>
+      <c r="AD63" s="12"/>
+      <c r="AE63" s="12"/>
+    </row>
+    <row r="64" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="B64" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C64" s="51">
+        <v>400000</v>
+      </c>
+      <c r="D64" s="52"/>
+      <c r="E64" s="10"/>
+      <c r="M64" s="29"/>
+      <c r="N64" s="30"/>
+      <c r="O64" s="30"/>
+      <c r="P64" s="30"/>
+      <c r="Q64" s="30"/>
+      <c r="R64" s="30"/>
+      <c r="S64" s="30"/>
+      <c r="T64" s="30"/>
+      <c r="U64" s="29"/>
+      <c r="V64" s="29"/>
+      <c r="W64" s="29"/>
+      <c r="X64" s="29"/>
+      <c r="Y64" s="29"/>
+      <c r="Z64" s="29"/>
+      <c r="AA64" s="29"/>
+      <c r="AB64" s="29"/>
+      <c r="AC64" s="29"/>
+      <c r="AD64" s="29"/>
+      <c r="AE64" s="29"/>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B65" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C65" s="51">
+        <f>C64-C67-C68</f>
+        <v>380000</v>
+      </c>
+      <c r="D65" s="52"/>
+      <c r="E65" s="10">
+        <f>C65/C63*100</f>
+        <v>74.467416886145841</v>
+      </c>
+      <c r="M65" s="29"/>
+      <c r="N65" s="29"/>
+      <c r="O65" s="29"/>
+      <c r="P65" s="29"/>
+      <c r="Q65" s="29"/>
+      <c r="R65" s="29"/>
+      <c r="S65" s="29"/>
+      <c r="T65" s="29"/>
+      <c r="U65" s="29"/>
+      <c r="V65" s="29"/>
+      <c r="W65" s="29"/>
+      <c r="X65" s="29"/>
+      <c r="Y65" s="29"/>
+      <c r="Z65" s="29"/>
+      <c r="AA65" s="29"/>
+      <c r="AB65" s="29"/>
+      <c r="AC65" s="29"/>
+      <c r="AD65" s="29"/>
+      <c r="AE65" s="29"/>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B66" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C66" s="53">
+        <f>C63-C65</f>
+        <v>130290.29324461019</v>
+      </c>
+      <c r="D66" s="53"/>
+      <c r="E66" s="10">
+        <f>100-E65</f>
+        <v>25.532583113854159</v>
+      </c>
+      <c r="M66" s="29"/>
+      <c r="N66" s="29"/>
+      <c r="O66" s="29"/>
+      <c r="P66" s="29"/>
+      <c r="Q66" s="29"/>
+      <c r="R66" s="29"/>
+      <c r="S66" s="29"/>
+      <c r="T66" s="29"/>
+      <c r="U66" s="29"/>
+      <c r="V66" s="29"/>
+      <c r="W66" s="29"/>
+      <c r="X66" s="29"/>
+      <c r="Y66" s="29"/>
+      <c r="Z66" s="29"/>
+      <c r="AA66" s="29"/>
+      <c r="AB66" s="29"/>
+      <c r="AC66" s="29"/>
+      <c r="AD66" s="29"/>
+      <c r="AE66" s="29"/>
+    </row>
+    <row r="67" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B67" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C67" s="48">
+        <f>C64*0.03</f>
+        <v>12000</v>
+      </c>
+      <c r="D67" s="49"/>
+      <c r="E67" s="10">
+        <v>3</v>
+      </c>
+      <c r="M67" s="29"/>
+      <c r="N67" s="29"/>
+      <c r="O67" s="29"/>
+      <c r="P67" s="29"/>
+      <c r="Q67" s="29"/>
+      <c r="R67" s="29"/>
+      <c r="S67" s="29"/>
+      <c r="T67" s="29"/>
+      <c r="U67" s="29"/>
+      <c r="V67" s="29"/>
+      <c r="W67" s="29"/>
+      <c r="X67" s="29"/>
+      <c r="Y67" s="29"/>
+      <c r="Z67" s="29"/>
+      <c r="AA67" s="29"/>
+      <c r="AB67" s="29"/>
+      <c r="AC67" s="29"/>
+      <c r="AD67" s="29"/>
+      <c r="AE67" s="29"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B68" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C68" s="48">
+        <f>C64*0.02</f>
+        <v>8000</v>
+      </c>
+      <c r="D68" s="49"/>
+      <c r="E68" s="10">
+        <v>2</v>
+      </c>
+      <c r="M68" s="29"/>
+      <c r="N68" s="29"/>
+      <c r="O68" s="29"/>
+      <c r="P68" s="29"/>
+      <c r="Q68" s="29"/>
+      <c r="R68" s="29"/>
+      <c r="S68" s="29"/>
+      <c r="T68" s="29"/>
+      <c r="U68" s="29"/>
+      <c r="V68" s="29"/>
+      <c r="W68" s="29"/>
+      <c r="X68" s="29"/>
+      <c r="Y68" s="29"/>
+      <c r="Z68" s="29"/>
+      <c r="AA68" s="29"/>
+      <c r="AB68" s="29"/>
+      <c r="AC68" s="29"/>
+      <c r="AD68" s="29"/>
+      <c r="AE68" s="29"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="H6:K6"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ofc/estimates/kurthali truss/truss.xlsx
+++ b/ofc/estimates/kurthali truss/truss.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\081_082\ofc\ofc\estimates\kurthali truss\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\081-082\ofc\estimates\kurthali truss\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="new" sheetId="18" r:id="rId1"/>
@@ -41,7 +41,7 @@
     <definedName name="description_784">[2]Abstract!$B$300</definedName>
     <definedName name="excavator">[1]Equipment_Rate!$J$19</definedName>
     <definedName name="generator">[1]Equipment_Rate!$J$20</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'as per mistry'!$A$1:$K$68</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'as per mistry'!$A$5:$K$72</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">new!$A$1:$K$62</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'as per mistry'!$1:$8</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">new!$1:$8</definedName>
@@ -49,7 +49,7 @@
     <definedName name="skilled_blacksmith">[1]District_Rate!$D$149</definedName>
     <definedName name="unskilled">[1]District_Rate!$D$156</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="66">
   <si>
     <t>Government of Nepal</t>
   </si>
@@ -245,15 +245,27 @@
   </si>
   <si>
     <t>no.</t>
+  </si>
+  <si>
+    <t>-for flooring</t>
+  </si>
+  <si>
+    <t>-for footing</t>
+  </si>
+  <si>
+    <t>-wall</t>
+  </si>
+  <si>
+    <t>!@=% dL=dL= l;d]G6 afn'jf -!M$_ Knfi6/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
@@ -418,9 +430,9 @@
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
@@ -431,7 +443,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -439,7 +451,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -456,7 +468,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -465,7 +477,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -477,7 +489,7 @@
     <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -521,16 +533,32 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -542,22 +570,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1233,135 +1245,135 @@
       <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.109375" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" customWidth="1"/>
-    <col min="5" max="5" width="7.88671875" customWidth="1"/>
-    <col min="6" max="6" width="7.109375" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="6.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.109375" customWidth="1"/>
-    <col min="17" max="17" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="6.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-    </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="45" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-    </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="46" t="s">
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-    </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="46" t="s">
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+    </row>
+    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-    </row>
-    <row r="5" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="47" t="s">
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+    </row>
+    <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-    </row>
-    <row r="6" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" s="42" t="s">
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+    </row>
+    <row r="6" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="43" t="s">
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-    </row>
-    <row r="7" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="50" t="s">
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="43" t="s">
+      <c r="H7" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
-    </row>
-    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+    </row>
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -1396,7 +1408,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="21">
         <v>1</v>
       </c>
@@ -1421,7 +1433,7 @@
       <c r="J9" s="27"/>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="38"/>
       <c r="B10" s="39" t="s">
         <v>33</v>
@@ -1450,7 +1462,7 @@
       <c r="K10" s="11"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="38"/>
       <c r="B11" s="39" t="s">
         <v>32</v>
@@ -1479,7 +1491,7 @@
       <c r="K11" s="11"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="38"/>
       <c r="B12" s="39"/>
       <c r="C12" s="40">
@@ -1506,7 +1518,7 @@
       <c r="K12" s="11"/>
       <c r="M12" s="12"/>
     </row>
-    <row r="13" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="38"/>
       <c r="B13" s="39" t="s">
         <v>40</v>
@@ -1536,7 +1548,7 @@
       <c r="K13" s="11"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="38"/>
       <c r="B14" s="39" t="s">
         <v>41</v>
@@ -1565,7 +1577,7 @@
       <c r="K14" s="11"/>
       <c r="M14" s="12"/>
     </row>
-    <row r="15" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="38"/>
       <c r="B15" s="39" t="s">
         <v>42</v>
@@ -1594,7 +1606,7 @@
       <c r="K15" s="11"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="38"/>
       <c r="B16" s="39"/>
       <c r="C16" s="40">
@@ -1621,7 +1633,7 @@
       <c r="K16" s="11"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="38"/>
       <c r="B17" s="39"/>
       <c r="C17" s="40">
@@ -1648,7 +1660,7 @@
       <c r="K17" s="11"/>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="38"/>
       <c r="B18" s="39"/>
       <c r="C18" s="40">
@@ -1675,7 +1687,7 @@
       <c r="K18" s="11"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="38"/>
       <c r="B19" s="39" t="s">
         <v>43</v>
@@ -1704,7 +1716,7 @@
       <c r="K19" s="11"/>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="38"/>
       <c r="B20" s="39"/>
       <c r="C20" s="40">
@@ -1731,7 +1743,7 @@
       <c r="K20" s="11"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="38"/>
       <c r="B21" s="39"/>
       <c r="C21" s="40">
@@ -1758,7 +1770,7 @@
       <c r="K21" s="11"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="38"/>
       <c r="B22" s="39"/>
       <c r="C22" s="40">
@@ -1785,7 +1797,7 @@
       <c r="K22" s="11"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="38"/>
       <c r="B23" s="39" t="s">
         <v>44</v>
@@ -1815,7 +1827,7 @@
       <c r="K23" s="11"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="21"/>
       <c r="B24" s="39" t="s">
         <v>26</v>
@@ -1840,7 +1852,7 @@
       </c>
       <c r="K24" s="24"/>
     </row>
-    <row r="25" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="21"/>
       <c r="B25" s="39" t="s">
         <v>45</v>
@@ -1858,7 +1870,7 @@
       </c>
       <c r="K25" s="24"/>
     </row>
-    <row r="26" spans="1:13" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="21"/>
       <c r="B26" s="37"/>
       <c r="C26" s="22"/>
@@ -1871,7 +1883,7 @@
       <c r="J26" s="27"/>
       <c r="K26" s="24"/>
     </row>
-    <row r="27" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="38">
         <v>2</v>
       </c>
@@ -1889,7 +1901,7 @@
       <c r="K27" s="11"/>
       <c r="M27" s="12"/>
     </row>
-    <row r="28" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="38"/>
       <c r="B28" s="39"/>
       <c r="C28" s="40">
@@ -1914,7 +1926,7 @@
       <c r="K28" s="11"/>
       <c r="M28" s="12"/>
     </row>
-    <row r="29" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="21"/>
       <c r="B29" s="39" t="s">
         <v>26</v>
@@ -1939,7 +1951,7 @@
       </c>
       <c r="K29" s="24"/>
     </row>
-    <row r="30" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="21"/>
       <c r="B30" s="39" t="s">
         <v>45</v>
@@ -1957,7 +1969,7 @@
       </c>
       <c r="K30" s="24"/>
     </row>
-    <row r="31" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="21"/>
       <c r="B31" s="39"/>
       <c r="C31" s="22"/>
@@ -1970,7 +1982,7 @@
       <c r="J31" s="27"/>
       <c r="K31" s="24"/>
     </row>
-    <row r="32" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="21">
         <v>3</v>
       </c>
@@ -1987,7 +1999,7 @@
       <c r="J32" s="27"/>
       <c r="K32" s="24"/>
     </row>
-    <row r="33" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="21"/>
       <c r="B33" s="39" t="s">
         <v>47</v>
@@ -2015,7 +2027,7 @@
       <c r="J33" s="27"/>
       <c r="K33" s="24"/>
     </row>
-    <row r="34" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="21"/>
       <c r="B34" s="39" t="s">
         <v>26</v>
@@ -2040,7 +2052,7 @@
       </c>
       <c r="K34" s="24"/>
     </row>
-    <row r="35" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="21"/>
       <c r="B35" s="39"/>
       <c r="C35" s="22"/>
@@ -2053,7 +2065,7 @@
       <c r="J35" s="27"/>
       <c r="K35" s="24"/>
     </row>
-    <row r="36" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="21">
         <v>3</v>
       </c>
@@ -2070,7 +2082,7 @@
       <c r="J36" s="27"/>
       <c r="K36" s="24"/>
     </row>
-    <row r="37" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="21"/>
       <c r="B37" s="39" t="s">
         <v>47</v>
@@ -2097,7 +2109,7 @@
       <c r="J37" s="27"/>
       <c r="K37" s="24"/>
     </row>
-    <row r="38" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="21"/>
       <c r="B38" s="39" t="s">
         <v>26</v>
@@ -2122,7 +2134,7 @@
       </c>
       <c r="K38" s="24"/>
     </row>
-    <row r="39" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="21"/>
       <c r="B39" s="39" t="s">
         <v>45</v>
@@ -2140,7 +2152,7 @@
       </c>
       <c r="K39" s="24"/>
     </row>
-    <row r="40" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="21"/>
       <c r="B40" s="39"/>
       <c r="C40" s="22"/>
@@ -2153,7 +2165,7 @@
       <c r="J40" s="27"/>
       <c r="K40" s="24"/>
     </row>
-    <row r="41" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="21">
         <v>3</v>
       </c>
@@ -2170,7 +2182,7 @@
       <c r="J41" s="27"/>
       <c r="K41" s="24"/>
     </row>
-    <row r="42" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="21"/>
       <c r="B42" s="39" t="s">
         <v>47</v>
@@ -2197,7 +2209,7 @@
       <c r="J42" s="27"/>
       <c r="K42" s="24"/>
     </row>
-    <row r="43" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="21"/>
       <c r="B43" s="39" t="s">
         <v>26</v>
@@ -2222,7 +2234,7 @@
       </c>
       <c r="K43" s="24"/>
     </row>
-    <row r="44" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="21"/>
       <c r="B44" s="39" t="s">
         <v>45</v>
@@ -2240,7 +2252,7 @@
       </c>
       <c r="K44" s="24"/>
     </row>
-    <row r="45" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="21"/>
       <c r="B45" s="39"/>
       <c r="C45" s="22"/>
@@ -2253,7 +2265,7 @@
       <c r="J45" s="27"/>
       <c r="K45" s="24"/>
     </row>
-    <row r="46" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="21">
         <v>3</v>
       </c>
@@ -2270,7 +2282,7 @@
       <c r="J46" s="27"/>
       <c r="K46" s="24"/>
     </row>
-    <row r="47" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="21"/>
       <c r="B47" s="39" t="s">
         <v>47</v>
@@ -2297,7 +2309,7 @@
       <c r="J47" s="27"/>
       <c r="K47" s="24"/>
     </row>
-    <row r="48" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="21"/>
       <c r="B48" s="39" t="s">
         <v>26</v>
@@ -2322,7 +2334,7 @@
       </c>
       <c r="K48" s="24"/>
     </row>
-    <row r="49" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="21"/>
       <c r="B49" s="39" t="s">
         <v>45</v>
@@ -2340,7 +2352,7 @@
       </c>
       <c r="K49" s="24"/>
     </row>
-    <row r="50" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="21"/>
       <c r="B50" s="39"/>
       <c r="C50" s="22"/>
@@ -2353,7 +2365,7 @@
       <c r="J50" s="27"/>
       <c r="K50" s="24"/>
     </row>
-    <row r="51" spans="1:31" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:31" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A51" s="21">
         <v>3</v>
       </c>
@@ -2382,7 +2394,7 @@
       </c>
       <c r="K51" s="24"/>
     </row>
-    <row r="52" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="21"/>
       <c r="B52" s="39"/>
       <c r="C52" s="22"/>
@@ -2395,7 +2407,7 @@
       <c r="J52" s="27"/>
       <c r="K52" s="24"/>
     </row>
-    <row r="53" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="21">
         <v>4</v>
       </c>
@@ -2424,7 +2436,7 @@
       </c>
       <c r="K53" s="24"/>
     </row>
-    <row r="54" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="21"/>
       <c r="B54" s="39"/>
       <c r="C54" s="22"/>
@@ -2437,7 +2449,7 @@
       <c r="J54" s="27"/>
       <c r="K54" s="24"/>
     </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A55" s="9"/>
       <c r="B55" s="20" t="s">
         <v>16</v>
@@ -2458,7 +2470,7 @@
       <c r="P55" s="32"/>
       <c r="Q55" s="32"/>
     </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
       <c r="M56" s="29"/>
       <c r="N56" s="30"/>
       <c r="O56" s="30"/>
@@ -2478,15 +2490,15 @@
       <c r="AD56" s="29"/>
       <c r="AE56" s="29"/>
     </row>
-    <row r="57" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B57" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C57" s="48">
+      <c r="C57" s="42">
         <f>J55</f>
         <v>618050.76766828669</v>
       </c>
-      <c r="D57" s="49"/>
+      <c r="D57" s="43"/>
       <c r="E57" s="10">
         <v>100</v>
       </c>
@@ -2516,14 +2528,14 @@
       <c r="AD57" s="12"/>
       <c r="AE57" s="12"/>
     </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B58" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C58" s="51">
+      <c r="C58" s="46">
         <v>400000</v>
       </c>
-      <c r="D58" s="52"/>
+      <c r="D58" s="47"/>
       <c r="E58" s="10"/>
       <c r="M58" s="29"/>
       <c r="N58" s="30"/>
@@ -2545,15 +2557,15 @@
       <c r="AD58" s="29"/>
       <c r="AE58" s="29"/>
     </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B59" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C59" s="51">
+      <c r="C59" s="46">
         <f>C58-C61-C62</f>
         <v>380000</v>
       </c>
-      <c r="D59" s="52"/>
+      <c r="D59" s="47"/>
       <c r="E59" s="10">
         <f>C59/C57*100</f>
         <v>61.483622362224679</v>
@@ -2578,15 +2590,15 @@
       <c r="AD59" s="29"/>
       <c r="AE59" s="29"/>
     </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B60" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C60" s="53">
+      <c r="C60" s="48">
         <f>C57-C59</f>
         <v>238050.76766828669</v>
       </c>
-      <c r="D60" s="53"/>
+      <c r="D60" s="48"/>
       <c r="E60" s="10">
         <f>100-E59</f>
         <v>38.516377637775321</v>
@@ -2611,15 +2623,15 @@
       <c r="AD60" s="29"/>
       <c r="AE60" s="29"/>
     </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B61" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C61" s="48">
+      <c r="C61" s="42">
         <f>C58*0.03</f>
         <v>12000</v>
       </c>
-      <c r="D61" s="49"/>
+      <c r="D61" s="43"/>
       <c r="E61" s="10">
         <v>3</v>
       </c>
@@ -2643,15 +2655,15 @@
       <c r="AD61" s="29"/>
       <c r="AE61" s="29"/>
     </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B62" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C62" s="48">
+      <c r="C62" s="42">
         <f>C58*0.02</f>
         <v>8000</v>
       </c>
-      <c r="D62" s="49"/>
+      <c r="D62" s="43"/>
       <c r="E62" s="10">
         <v>2</v>
       </c>
@@ -2677,6 +2689,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
     <mergeCell ref="C61:D61"/>
     <mergeCell ref="C62:D62"/>
     <mergeCell ref="A7:F7"/>
@@ -2685,13 +2704,6 @@
     <mergeCell ref="C58:D58"/>
     <mergeCell ref="C59:D59"/>
     <mergeCell ref="C60:D60"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2707,141 +2719,141 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE68"/>
+  <dimension ref="A1:AE78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.109375" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" customWidth="1"/>
-    <col min="5" max="5" width="7.88671875" customWidth="1"/>
-    <col min="6" max="6" width="7.109375" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="6.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.109375" customWidth="1"/>
-    <col min="17" max="17" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="6.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-    </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="45" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-    </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="46" t="s">
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-    </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="46" t="s">
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+    </row>
+    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-    </row>
-    <row r="5" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="47" t="s">
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+    </row>
+    <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-    </row>
-    <row r="6" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" s="42" t="s">
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+    </row>
+    <row r="6" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="43" t="s">
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-    </row>
-    <row r="7" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="50" t="s">
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="43" t="s">
+      <c r="H7" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
-    </row>
-    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+    </row>
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -2876,7 +2888,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="21">
         <v>1</v>
       </c>
@@ -2901,7 +2913,7 @@
       <c r="J9" s="27"/>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="38"/>
       <c r="B10" s="39" t="s">
         <v>52</v>
@@ -2931,7 +2943,7 @@
       <c r="K10" s="11"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="38"/>
       <c r="B11" s="39" t="s">
         <v>53</v>
@@ -2960,7 +2972,7 @@
       <c r="K11" s="11"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="38"/>
       <c r="B12" s="39" t="s">
         <v>57</v>
@@ -2990,7 +3002,7 @@
       <c r="K12" s="11"/>
       <c r="M12" s="12"/>
     </row>
-    <row r="13" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="38"/>
       <c r="B13" s="39" t="s">
         <v>54</v>
@@ -3020,7 +3032,7 @@
       <c r="K13" s="11"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="38"/>
       <c r="B14" s="39" t="s">
         <v>56</v>
@@ -3050,7 +3062,7 @@
       <c r="K14" s="11"/>
       <c r="M14" s="12"/>
     </row>
-    <row r="15" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="38"/>
       <c r="B15" s="39"/>
       <c r="C15" s="40">
@@ -3078,7 +3090,7 @@
       <c r="K15" s="11"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="38"/>
       <c r="B16" s="39"/>
       <c r="C16" s="40">
@@ -3106,7 +3118,7 @@
       <c r="K16" s="11"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="38"/>
       <c r="B17" s="39"/>
       <c r="C17" s="40">
@@ -3134,7 +3146,7 @@
       <c r="K17" s="11"/>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="38"/>
       <c r="B18" s="39" t="s">
         <v>55</v>
@@ -3164,7 +3176,7 @@
       <c r="K18" s="11"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="38"/>
       <c r="B19" s="39"/>
       <c r="C19" s="40">
@@ -3192,7 +3204,7 @@
       <c r="K19" s="11"/>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="38"/>
       <c r="B20" s="39"/>
       <c r="C20" s="40">
@@ -3220,7 +3232,7 @@
       <c r="K20" s="11"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="38"/>
       <c r="B21" s="39"/>
       <c r="C21" s="40">
@@ -3248,7 +3260,7 @@
       <c r="K21" s="11"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="38"/>
       <c r="B22" s="39" t="s">
         <v>58</v>
@@ -3278,7 +3290,7 @@
       <c r="K22" s="11"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="21"/>
       <c r="B23" s="39" t="s">
         <v>26</v>
@@ -3303,7 +3315,7 @@
       </c>
       <c r="K23" s="24"/>
     </row>
-    <row r="24" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="21"/>
       <c r="B24" s="39" t="s">
         <v>45</v>
@@ -3321,7 +3333,7 @@
       </c>
       <c r="K24" s="24"/>
     </row>
-    <row r="25" spans="1:13" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="21"/>
       <c r="B25" s="37"/>
       <c r="C25" s="22"/>
@@ -3334,7 +3346,7 @@
       <c r="J25" s="27"/>
       <c r="K25" s="24"/>
     </row>
-    <row r="26" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="38">
         <v>2</v>
       </c>
@@ -3352,7 +3364,7 @@
       <c r="K26" s="11"/>
       <c r="M26" s="12"/>
     </row>
-    <row r="27" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="38"/>
       <c r="B27" s="39"/>
       <c r="C27" s="40">
@@ -3377,7 +3389,7 @@
       <c r="K27" s="11"/>
       <c r="M27" s="12"/>
     </row>
-    <row r="28" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="21"/>
       <c r="B28" s="39" t="s">
         <v>26</v>
@@ -3402,7 +3414,7 @@
       </c>
       <c r="K28" s="24"/>
     </row>
-    <row r="29" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="21"/>
       <c r="B29" s="39" t="s">
         <v>45</v>
@@ -3420,7 +3432,7 @@
       </c>
       <c r="K29" s="24"/>
     </row>
-    <row r="30" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="21"/>
       <c r="B30" s="39"/>
       <c r="C30" s="22"/>
@@ -3433,7 +3445,7 @@
       <c r="J30" s="27"/>
       <c r="K30" s="24"/>
     </row>
-    <row r="31" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="21">
         <v>3</v>
       </c>
@@ -3450,7 +3462,7 @@
       <c r="J31" s="27"/>
       <c r="K31" s="24"/>
     </row>
-    <row r="32" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="21"/>
       <c r="B32" s="39" t="s">
         <v>47</v>
@@ -3478,7 +3490,7 @@
       <c r="J32" s="27"/>
       <c r="K32" s="24"/>
     </row>
-    <row r="33" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="21"/>
       <c r="B33" s="39" t="s">
         <v>26</v>
@@ -3503,7 +3515,7 @@
       </c>
       <c r="K33" s="24"/>
     </row>
-    <row r="34" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="21"/>
       <c r="B34" s="39"/>
       <c r="C34" s="22"/>
@@ -3516,7 +3528,7 @@
       <c r="J34" s="27"/>
       <c r="K34" s="24"/>
     </row>
-    <row r="35" spans="1:11" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="21">
         <v>4</v>
       </c>
@@ -3533,7 +3545,7 @@
       <c r="J35" s="27"/>
       <c r="K35" s="24"/>
     </row>
-    <row r="36" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="21"/>
       <c r="B36" s="39" t="s">
         <v>47</v>
@@ -3560,52 +3572,62 @@
       <c r="J36" s="27"/>
       <c r="K36" s="24"/>
     </row>
-    <row r="37" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="21"/>
       <c r="B37" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" s="22"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="24"/>
+        <v>62</v>
+      </c>
+      <c r="C37" s="22">
+        <v>1</v>
+      </c>
+      <c r="D37" s="23">
+        <f>40/3.281</f>
+        <v>12.1914050594331</v>
+      </c>
+      <c r="E37" s="24">
+        <f>30/3.281</f>
+        <v>9.1435537945748244</v>
+      </c>
       <c r="F37" s="24"/>
-      <c r="G37" s="27">
-        <f>SUM(G36:G36)</f>
-        <v>3.0375000000000001</v>
-      </c>
-      <c r="H37" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="I37" s="26">
-        <v>1014.97</v>
-      </c>
-      <c r="J37" s="27">
-        <f>G37*I37</f>
-        <v>3082.9713750000001</v>
-      </c>
+      <c r="G37" s="36">
+        <f>PRODUCT(C37:F37)</f>
+        <v>111.47276799237824</v>
+      </c>
+      <c r="H37" s="25"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="27"/>
       <c r="K37" s="24"/>
     </row>
-    <row r="38" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="21"/>
       <c r="B38" s="39" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="C38" s="22"/>
       <c r="D38" s="23"/>
       <c r="E38" s="24"/>
       <c r="F38" s="24"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="26"/>
+      <c r="G38" s="27">
+        <f>SUM(G36:G37)</f>
+        <v>114.51026799237823</v>
+      </c>
+      <c r="H38" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="I38" s="26">
+        <v>1014.97</v>
+      </c>
       <c r="J38" s="27">
-        <f>0.13*G37*8617.2/10</f>
-        <v>340.27168500000005</v>
+        <f>G38*I38</f>
+        <v>116224.48670422414</v>
       </c>
       <c r="K38" s="24"/>
     </row>
-    <row r="39" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="21"/>
-      <c r="B39" s="39"/>
+      <c r="B39" s="39" t="s">
+        <v>45</v>
+      </c>
       <c r="C39" s="22"/>
       <c r="D39" s="23"/>
       <c r="E39" s="24"/>
@@ -3613,16 +3635,15 @@
       <c r="G39" s="27"/>
       <c r="H39" s="25"/>
       <c r="I39" s="26"/>
-      <c r="J39" s="27"/>
+      <c r="J39" s="27">
+        <f>0.13*G38*8617.2/10</f>
+        <v>12827.852457470985</v>
+      </c>
       <c r="K39" s="24"/>
     </row>
-    <row r="40" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
-      <c r="A40" s="21">
-        <v>5</v>
-      </c>
-      <c r="B40" s="37" t="s">
-        <v>50</v>
-      </c>
+    <row r="40" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="21"/>
+      <c r="B40" s="39"/>
       <c r="C40" s="22"/>
       <c r="D40" s="23"/>
       <c r="E40" s="24"/>
@@ -3633,81 +3654,82 @@
       <c r="J40" s="27"/>
       <c r="K40" s="24"/>
     </row>
-    <row r="41" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="21"/>
-      <c r="B41" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="C41" s="22">
-        <f>C36</f>
-        <v>15</v>
-      </c>
-      <c r="D41" s="23">
-        <f>D36</f>
-        <v>0.45</v>
-      </c>
-      <c r="E41" s="24">
-        <f>E36</f>
-        <v>0.45</v>
-      </c>
-      <c r="F41" s="24">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="G41" s="36">
-        <f>PRODUCT(C41:F41)</f>
-        <v>0.2278125</v>
-      </c>
+    <row r="41" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="21">
+        <v>5</v>
+      </c>
+      <c r="B41" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="C41" s="22"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="27"/>
       <c r="H41" s="25"/>
       <c r="I41" s="26"/>
       <c r="J41" s="27"/>
       <c r="K41" s="24"/>
     </row>
-    <row r="42" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="21"/>
       <c r="B42" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="C42" s="22"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="27">
-        <f>SUM(G41:G41)</f>
+        <v>47</v>
+      </c>
+      <c r="C42" s="22">
+        <f>C36</f>
+        <v>15</v>
+      </c>
+      <c r="D42" s="23">
+        <f>D36</f>
+        <v>0.45</v>
+      </c>
+      <c r="E42" s="24">
+        <f>E36</f>
+        <v>0.45</v>
+      </c>
+      <c r="F42" s="24">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="G42" s="36">
+        <f>PRODUCT(C42:F42)</f>
         <v>0.2278125</v>
       </c>
-      <c r="H42" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="I42" s="26">
-        <v>12983.1</v>
-      </c>
-      <c r="J42" s="27">
-        <f>G42*I42</f>
-        <v>2957.71246875</v>
-      </c>
+      <c r="H42" s="25"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="27"/>
       <c r="K42" s="24"/>
     </row>
-    <row r="43" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="21"/>
       <c r="B43" s="39" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="C43" s="22"/>
       <c r="D43" s="23"/>
       <c r="E43" s="24"/>
       <c r="F43" s="24"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="26"/>
+      <c r="G43" s="27">
+        <f>SUM(G42:G42)</f>
+        <v>0.2278125</v>
+      </c>
+      <c r="H43" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="I43" s="26">
+        <v>12983.1</v>
+      </c>
       <c r="J43" s="27">
-        <f>0.13*G42*8078.11</f>
-        <v>239.23827646874997</v>
+        <f>G43*I43</f>
+        <v>2957.71246875</v>
       </c>
       <c r="K43" s="24"/>
     </row>
-    <row r="44" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="21"/>
-      <c r="B44" s="39"/>
+      <c r="B44" s="39" t="s">
+        <v>45</v>
+      </c>
       <c r="C44" s="22"/>
       <c r="D44" s="23"/>
       <c r="E44" s="24"/>
@@ -3715,16 +3737,15 @@
       <c r="G44" s="27"/>
       <c r="H44" s="25"/>
       <c r="I44" s="26"/>
-      <c r="J44" s="27"/>
+      <c r="J44" s="27">
+        <f>0.13*G43*8078.11</f>
+        <v>239.23827646874997</v>
+      </c>
       <c r="K44" s="24"/>
     </row>
-    <row r="45" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
-      <c r="A45" s="21">
-        <v>6</v>
-      </c>
-      <c r="B45" s="37" t="s">
-        <v>51</v>
-      </c>
+    <row r="45" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="21"/>
+      <c r="B45" s="39"/>
       <c r="C45" s="22"/>
       <c r="D45" s="23"/>
       <c r="E45" s="24"/>
@@ -3735,122 +3756,134 @@
       <c r="J45" s="27"/>
       <c r="K45" s="24"/>
     </row>
-    <row r="46" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="21"/>
-      <c r="B46" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="C46" s="22">
-        <f>C41</f>
-        <v>15</v>
-      </c>
-      <c r="D46" s="23">
-        <f>D41</f>
-        <v>0.45</v>
-      </c>
-      <c r="E46" s="24">
-        <f>E41</f>
-        <v>0.45</v>
-      </c>
-      <c r="F46" s="24">
-        <v>0.75</v>
-      </c>
-      <c r="G46" s="36">
-        <f>PRODUCT(C46:F46)</f>
-        <v>2.2781250000000002</v>
-      </c>
+    <row r="46" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="21">
+        <v>6</v>
+      </c>
+      <c r="B46" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="C46" s="22"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="27"/>
       <c r="H46" s="25"/>
       <c r="I46" s="26"/>
       <c r="J46" s="27"/>
       <c r="K46" s="24"/>
     </row>
-    <row r="47" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="21"/>
-      <c r="B47" s="39"/>
+      <c r="B47" s="39" t="s">
+        <v>63</v>
+      </c>
       <c r="C47" s="22">
-        <f>C46</f>
+        <f>C42</f>
         <v>15</v>
       </c>
       <c r="D47" s="23">
-        <v>0.3</v>
+        <f>D42</f>
+        <v>0.45</v>
       </c>
       <c r="E47" s="24">
-        <v>0.3</v>
+        <f>E42</f>
+        <v>0.45</v>
       </c>
       <c r="F47" s="24">
-        <v>0.45</v>
+        <v>0.75</v>
       </c>
       <c r="G47" s="36">
         <f>PRODUCT(C47:F47)</f>
-        <v>0.60749999999999993</v>
+        <v>2.2781250000000002</v>
       </c>
       <c r="H47" s="25"/>
       <c r="I47" s="26"/>
       <c r="J47" s="27"/>
       <c r="K47" s="24"/>
     </row>
-    <row r="48" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="21"/>
-      <c r="B48" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="C48" s="22"/>
-      <c r="D48" s="23"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="27">
-        <f>SUM(G46:G47)</f>
-        <v>2.8856250000000001</v>
-      </c>
-      <c r="H48" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="I48" s="26">
-        <v>13568.9</v>
-      </c>
-      <c r="J48" s="27">
-        <f>G48*I48</f>
-        <v>39154.757062500001</v>
-      </c>
+      <c r="B48" s="39"/>
+      <c r="C48" s="22">
+        <f>C47</f>
+        <v>15</v>
+      </c>
+      <c r="D48" s="23">
+        <v>0.3</v>
+      </c>
+      <c r="E48" s="24">
+        <v>0.3</v>
+      </c>
+      <c r="F48" s="24">
+        <v>0.45</v>
+      </c>
+      <c r="G48" s="36">
+        <f>PRODUCT(C48:F48)</f>
+        <v>0.60749999999999993</v>
+      </c>
+      <c r="H48" s="25"/>
+      <c r="I48" s="26"/>
+      <c r="J48" s="27"/>
       <c r="K48" s="24"/>
     </row>
-    <row r="49" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="21"/>
       <c r="B49" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="C49" s="22"/>
-      <c r="D49" s="23"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="24"/>
-      <c r="G49" s="27"/>
+        <v>62</v>
+      </c>
+      <c r="C49" s="22">
+        <v>1</v>
+      </c>
+      <c r="D49" s="23">
+        <f>D37</f>
+        <v>12.1914050594331</v>
+      </c>
+      <c r="E49" s="24">
+        <f>E37</f>
+        <v>9.1435537945748244</v>
+      </c>
+      <c r="F49" s="24">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="G49" s="36">
+        <f>PRODUCT(C49:F49)</f>
+        <v>8.3604575994283667</v>
+      </c>
       <c r="H49" s="25"/>
       <c r="I49" s="26"/>
-      <c r="J49" s="27">
-        <f>0.13*G48*9524.2</f>
-        <v>3572.8250512500003</v>
-      </c>
+      <c r="J49" s="27"/>
       <c r="K49" s="24"/>
     </row>
-    <row r="50" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="21"/>
-      <c r="B50" s="39"/>
+      <c r="B50" s="39" t="s">
+        <v>26</v>
+      </c>
       <c r="C50" s="22"/>
       <c r="D50" s="23"/>
       <c r="E50" s="24"/>
       <c r="F50" s="24"/>
-      <c r="G50" s="27"/>
-      <c r="H50" s="25"/>
-      <c r="I50" s="26"/>
-      <c r="J50" s="27"/>
+      <c r="G50" s="27">
+        <f>SUM(G47:G49)</f>
+        <v>11.246082599428366</v>
+      </c>
+      <c r="H50" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="I50" s="26">
+        <v>13568.9</v>
+      </c>
+      <c r="J50" s="27">
+        <f>G50*I50</f>
+        <v>152596.97018338356</v>
+      </c>
       <c r="K50" s="24"/>
     </row>
-    <row r="51" spans="1:31" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
-      <c r="A51" s="21">
-        <v>7</v>
-      </c>
-      <c r="B51" s="37" t="s">
-        <v>59</v>
+    <row r="51" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="21"/>
+      <c r="B51" s="39" t="s">
+        <v>45</v>
       </c>
       <c r="C51" s="22"/>
       <c r="D51" s="23"/>
@@ -3859,191 +3892,192 @@
       <c r="G51" s="27"/>
       <c r="H51" s="25"/>
       <c r="I51" s="26"/>
-      <c r="J51" s="27"/>
+      <c r="J51" s="27">
+        <f>0.13*G50*9524.2</f>
+        <v>13924.292186151835</v>
+      </c>
       <c r="K51" s="24"/>
     </row>
-    <row r="52" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="21"/>
-      <c r="B52" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="C52" s="22">
-        <f>4*2</f>
-        <v>8</v>
-      </c>
-      <c r="D52" s="23">
-        <f>13.917/3.281</f>
-        <v>4.2416946053032607</v>
-      </c>
-      <c r="E52" s="24">
-        <v>0.23</v>
-      </c>
-      <c r="F52" s="24">
-        <v>0.3</v>
-      </c>
-      <c r="G52" s="36">
-        <f>PRODUCT(C52:F52)</f>
-        <v>2.3414154221273997</v>
-      </c>
+      <c r="B52" s="39"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="27"/>
       <c r="H52" s="25"/>
       <c r="I52" s="26"/>
       <c r="J52" s="27"/>
       <c r="K52" s="24"/>
     </row>
-    <row r="53" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="21"/>
-      <c r="B53" s="39"/>
-      <c r="C53" s="22">
-        <f>2*2</f>
-        <v>4</v>
-      </c>
-      <c r="D53" s="23">
-        <f>8.917/3.281</f>
-        <v>2.7177689728741234</v>
-      </c>
-      <c r="E53" s="24">
-        <v>0.23</v>
-      </c>
-      <c r="F53" s="24">
-        <v>0.3</v>
-      </c>
-      <c r="G53" s="36">
-        <f>PRODUCT(C53:F53)</f>
-        <v>0.75010423651325808</v>
-      </c>
+    <row r="53" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="21">
+        <v>7</v>
+      </c>
+      <c r="B53" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="C53" s="22"/>
+      <c r="D53" s="23"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="24"/>
+      <c r="G53" s="27"/>
       <c r="H53" s="25"/>
       <c r="I53" s="26"/>
       <c r="J53" s="27"/>
       <c r="K53" s="24"/>
     </row>
-    <row r="54" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="21"/>
       <c r="B54" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="C54" s="22"/>
-      <c r="D54" s="23"/>
-      <c r="E54" s="24"/>
-      <c r="F54" s="24"/>
-      <c r="G54" s="27">
-        <f>SUM(G52:G53)</f>
-        <v>3.0915196586406579</v>
-      </c>
-      <c r="H54" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="I54" s="26">
-        <v>14362.76</v>
-      </c>
-      <c r="J54" s="27">
-        <f>G54*I54</f>
-        <v>44402.754892337696</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="C54" s="22">
+        <f>4*2</f>
+        <v>8</v>
+      </c>
+      <c r="D54" s="23">
+        <f>13.917/3.281</f>
+        <v>4.2416946053032607</v>
+      </c>
+      <c r="E54" s="24">
+        <v>0.23</v>
+      </c>
+      <c r="F54" s="24">
+        <v>0.3</v>
+      </c>
+      <c r="G54" s="36">
+        <f>PRODUCT(C54:F54)</f>
+        <v>2.3414154221273997</v>
+      </c>
+      <c r="H54" s="25"/>
+      <c r="I54" s="26"/>
+      <c r="J54" s="27"/>
       <c r="K54" s="24"/>
     </row>
-    <row r="55" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="21"/>
-      <c r="B55" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="C55" s="22"/>
-      <c r="D55" s="23"/>
-      <c r="E55" s="24"/>
-      <c r="F55" s="24"/>
-      <c r="G55" s="27"/>
+      <c r="B55" s="39"/>
+      <c r="C55" s="22">
+        <f>2*2</f>
+        <v>4</v>
+      </c>
+      <c r="D55" s="23">
+        <f>8.917/3.281</f>
+        <v>2.7177689728741234</v>
+      </c>
+      <c r="E55" s="24">
+        <v>0.23</v>
+      </c>
+      <c r="F55" s="24">
+        <v>0.3</v>
+      </c>
+      <c r="G55" s="36">
+        <f>PRODUCT(C55:F55)</f>
+        <v>0.75010423651325808</v>
+      </c>
       <c r="H55" s="25"/>
       <c r="I55" s="26"/>
-      <c r="J55" s="27">
-        <f>0.13*G54*10311.74</f>
-        <v>4144.2631002228582</v>
-      </c>
+      <c r="J55" s="27"/>
       <c r="K55" s="24"/>
     </row>
-    <row r="56" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="21"/>
-      <c r="B56" s="39"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="23"/>
-      <c r="E56" s="24"/>
-      <c r="F56" s="24"/>
-      <c r="G56" s="27"/>
+      <c r="B56" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="C56" s="22">
+        <v>2</v>
+      </c>
+      <c r="D56" s="23">
+        <f>30/3.281</f>
+        <v>9.1435537945748244</v>
+      </c>
+      <c r="E56" s="24">
+        <v>0.23</v>
+      </c>
+      <c r="F56" s="24">
+        <v>0.9</v>
+      </c>
+      <c r="G56" s="36">
+        <f t="shared" ref="G56:G57" si="5">PRODUCT(C56:F56)</f>
+        <v>3.7854312709539779</v>
+      </c>
       <c r="H56" s="25"/>
       <c r="I56" s="26"/>
       <c r="J56" s="27"/>
       <c r="K56" s="24"/>
     </row>
-    <row r="57" spans="1:31" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A57" s="21">
-        <v>8</v>
-      </c>
-      <c r="B57" s="41" t="s">
-        <v>37</v>
-      </c>
+    <row r="57" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="21"/>
+      <c r="B57" s="39"/>
       <c r="C57" s="22">
-        <v>1</v>
-      </c>
-      <c r="D57" s="23"/>
-      <c r="E57" s="24"/>
-      <c r="F57" s="24"/>
+        <v>2</v>
+      </c>
+      <c r="D57" s="23">
+        <f>(40-1.5)/3.281</f>
+        <v>11.734227369704358</v>
+      </c>
+      <c r="E57" s="24">
+        <v>0.23</v>
+      </c>
+      <c r="F57" s="24">
+        <v>0.9</v>
+      </c>
       <c r="G57" s="36">
-        <f>PRODUCT(C57:F57)</f>
-        <v>1</v>
-      </c>
-      <c r="H57" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="I57" s="26">
-        <v>5000</v>
-      </c>
-      <c r="J57" s="27">
-        <f>G57*I57</f>
-        <v>5000</v>
-      </c>
+        <f t="shared" si="5"/>
+        <v>4.8579701310576047</v>
+      </c>
+      <c r="H57" s="25"/>
+      <c r="I57" s="26"/>
+      <c r="J57" s="27"/>
       <c r="K57" s="24"/>
     </row>
-    <row r="58" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="21"/>
-      <c r="B58" s="39"/>
+      <c r="B58" s="39" t="s">
+        <v>26</v>
+      </c>
       <c r="C58" s="22"/>
       <c r="D58" s="23"/>
       <c r="E58" s="24"/>
       <c r="F58" s="24"/>
-      <c r="G58" s="27"/>
-      <c r="H58" s="25"/>
-      <c r="I58" s="26"/>
-      <c r="J58" s="27"/>
+      <c r="G58" s="27">
+        <f>SUM(G54:G57)</f>
+        <v>11.73492106065224</v>
+      </c>
+      <c r="H58" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="I58" s="26">
+        <v>14362.76</v>
+      </c>
+      <c r="J58" s="27">
+        <f>G58*I58</f>
+        <v>168545.85481309358</v>
+      </c>
       <c r="K58" s="24"/>
     </row>
-    <row r="59" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="21">
-        <v>9</v>
-      </c>
-      <c r="B59" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="C59" s="22">
-        <v>1</v>
-      </c>
+    <row r="59" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="21"/>
+      <c r="B59" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C59" s="22"/>
       <c r="D59" s="23"/>
       <c r="E59" s="24"/>
       <c r="F59" s="24"/>
-      <c r="G59" s="36">
-        <f>PRODUCT(C59:F59)</f>
-        <v>1</v>
-      </c>
-      <c r="H59" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="I59" s="26">
-        <v>500</v>
-      </c>
+      <c r="G59" s="27"/>
+      <c r="H59" s="25"/>
+      <c r="I59" s="26"/>
       <c r="J59" s="27">
-        <f>G59*I59</f>
-        <v>500</v>
+        <f>0.13*G58*10311.74</f>
+        <v>15730.969136736117</v>
       </c>
       <c r="K59" s="24"/>
     </row>
-    <row r="60" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="21"/>
       <c r="B60" s="39"/>
       <c r="C60" s="22"/>
@@ -4056,270 +4090,483 @@
       <c r="J60" s="27"/>
       <c r="K60" s="24"/>
     </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A61" s="9"/>
-      <c r="B61" s="20" t="s">
+    <row r="61" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="21">
+        <v>8</v>
+      </c>
+      <c r="B61" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="C61" s="22"/>
+      <c r="D61" s="23"/>
+      <c r="E61" s="24"/>
+      <c r="F61" s="24"/>
+      <c r="G61" s="27"/>
+      <c r="H61" s="25"/>
+      <c r="I61" s="26"/>
+      <c r="J61" s="27"/>
+      <c r="K61" s="24"/>
+    </row>
+    <row r="62" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="21"/>
+      <c r="B62" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="C62" s="22">
+        <f>2*2</f>
+        <v>4</v>
+      </c>
+      <c r="D62" s="23">
+        <f>30/3.281</f>
+        <v>9.1435537945748244</v>
+      </c>
+      <c r="E62" s="24"/>
+      <c r="F62" s="24">
+        <v>0.9</v>
+      </c>
+      <c r="G62" s="36">
+        <f t="shared" ref="G62:G63" si="6">PRODUCT(C62:F62)</f>
+        <v>32.916793660469367</v>
+      </c>
+      <c r="H62" s="25"/>
+      <c r="I62" s="26"/>
+      <c r="J62" s="27"/>
+      <c r="K62" s="24"/>
+    </row>
+    <row r="63" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="21"/>
+      <c r="B63" s="39"/>
+      <c r="C63" s="22">
+        <f>2*2</f>
+        <v>4</v>
+      </c>
+      <c r="D63" s="23">
+        <f>(40-1.5)/3.281</f>
+        <v>11.734227369704358</v>
+      </c>
+      <c r="E63" s="24"/>
+      <c r="F63" s="24">
+        <v>0.9</v>
+      </c>
+      <c r="G63" s="36">
+        <f t="shared" si="6"/>
+        <v>42.243218530935692</v>
+      </c>
+      <c r="H63" s="25"/>
+      <c r="I63" s="26"/>
+      <c r="J63" s="27"/>
+      <c r="K63" s="24"/>
+    </row>
+    <row r="64" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="21"/>
+      <c r="B64" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C64" s="22"/>
+      <c r="D64" s="23"/>
+      <c r="E64" s="24"/>
+      <c r="F64" s="24"/>
+      <c r="G64" s="27">
+        <f>SUM(G60:G63)</f>
+        <v>75.160012191405059</v>
+      </c>
+      <c r="H64" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="I64" s="26">
+        <v>405.86</v>
+      </c>
+      <c r="J64" s="27">
+        <f>G64*I64</f>
+        <v>30504.442548003659</v>
+      </c>
+      <c r="K64" s="24"/>
+    </row>
+    <row r="65" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="21"/>
+      <c r="B65" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C65" s="22"/>
+      <c r="D65" s="23"/>
+      <c r="E65" s="24"/>
+      <c r="F65" s="24"/>
+      <c r="G65" s="27"/>
+      <c r="H65" s="25"/>
+      <c r="I65" s="26"/>
+      <c r="J65" s="27">
+        <f>0.13*G64*11166.2/100</f>
+        <v>1091.0272465711676</v>
+      </c>
+      <c r="K65" s="24"/>
+    </row>
+    <row r="66" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="21"/>
+      <c r="B66" s="37"/>
+      <c r="C66" s="22"/>
+      <c r="D66" s="23"/>
+      <c r="E66" s="24"/>
+      <c r="F66" s="24"/>
+      <c r="G66" s="27"/>
+      <c r="H66" s="25"/>
+      <c r="I66" s="26"/>
+      <c r="J66" s="27"/>
+      <c r="K66" s="24"/>
+    </row>
+    <row r="67" spans="1:31" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A67" s="21">
+        <v>9</v>
+      </c>
+      <c r="B67" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="C67" s="22">
+        <v>1</v>
+      </c>
+      <c r="D67" s="23"/>
+      <c r="E67" s="24"/>
+      <c r="F67" s="24"/>
+      <c r="G67" s="36">
+        <f>PRODUCT(C67:F67)</f>
+        <v>1</v>
+      </c>
+      <c r="H67" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="I67" s="26">
+        <v>5000</v>
+      </c>
+      <c r="J67" s="27">
+        <f>G67*I67</f>
+        <v>5000</v>
+      </c>
+      <c r="K67" s="24"/>
+    </row>
+    <row r="68" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="21"/>
+      <c r="B68" s="39"/>
+      <c r="C68" s="22"/>
+      <c r="D68" s="23"/>
+      <c r="E68" s="24"/>
+      <c r="F68" s="24"/>
+      <c r="G68" s="27"/>
+      <c r="H68" s="25"/>
+      <c r="I68" s="26"/>
+      <c r="J68" s="27"/>
+      <c r="K68" s="24"/>
+    </row>
+    <row r="69" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="21">
+        <v>10</v>
+      </c>
+      <c r="B69" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C69" s="22">
+        <v>1</v>
+      </c>
+      <c r="D69" s="23"/>
+      <c r="E69" s="24"/>
+      <c r="F69" s="24"/>
+      <c r="G69" s="36">
+        <f>PRODUCT(C69:F69)</f>
+        <v>1</v>
+      </c>
+      <c r="H69" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="I69" s="26">
+        <v>500</v>
+      </c>
+      <c r="J69" s="27">
+        <f>G69*I69</f>
+        <v>500</v>
+      </c>
+      <c r="K69" s="24"/>
+    </row>
+    <row r="70" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="21"/>
+      <c r="B70" s="39"/>
+      <c r="C70" s="22"/>
+      <c r="D70" s="23"/>
+      <c r="E70" s="24"/>
+      <c r="F70" s="24"/>
+      <c r="G70" s="27"/>
+      <c r="H70" s="25"/>
+      <c r="I70" s="26"/>
+      <c r="J70" s="27"/>
+      <c r="K70" s="24"/>
+    </row>
+    <row r="71" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A71" s="9"/>
+      <c r="B71" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C61" s="8"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="33"/>
-      <c r="H61" s="7"/>
-      <c r="I61" s="7"/>
-      <c r="J61" s="7">
-        <f>SUM(J10:J60)</f>
-        <v>510290.29324461019</v>
-      </c>
-      <c r="K61" s="4"/>
-      <c r="M61" s="29"/>
-      <c r="P61" s="32"/>
-      <c r="Q61" s="32"/>
-    </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="M62" s="29"/>
-      <c r="N62" s="30"/>
-      <c r="O62" s="30"/>
-      <c r="P62" s="31"/>
-      <c r="R62" s="30"/>
-      <c r="S62" s="30"/>
-      <c r="T62" s="30"/>
-      <c r="U62" s="29"/>
-      <c r="V62" s="29"/>
-      <c r="W62" s="29"/>
-      <c r="X62" s="29"/>
-      <c r="Y62" s="29"/>
-      <c r="Z62" s="29"/>
-      <c r="AA62" s="29"/>
-      <c r="AB62" s="29"/>
-      <c r="AC62" s="29"/>
-      <c r="AD62" s="29"/>
-      <c r="AE62" s="29"/>
-    </row>
-    <row r="63" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="11" t="s">
+      <c r="C71" s="8"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="33"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="7"/>
+      <c r="J71" s="7">
+        <f>SUM(J10:J70)</f>
+        <v>927038.34535393445</v>
+      </c>
+      <c r="K71" s="4"/>
+      <c r="M71" s="29"/>
+      <c r="P71" s="32"/>
+      <c r="Q71" s="32"/>
+    </row>
+    <row r="72" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="M72" s="29"/>
+      <c r="N72" s="30"/>
+      <c r="O72" s="30"/>
+      <c r="P72" s="31"/>
+      <c r="R72" s="30"/>
+      <c r="S72" s="30"/>
+      <c r="T72" s="30"/>
+      <c r="U72" s="29"/>
+      <c r="V72" s="29"/>
+      <c r="W72" s="29"/>
+      <c r="X72" s="29"/>
+      <c r="Y72" s="29"/>
+      <c r="Z72" s="29"/>
+      <c r="AA72" s="29"/>
+      <c r="AB72" s="29"/>
+      <c r="AC72" s="29"/>
+      <c r="AD72" s="29"/>
+      <c r="AE72" s="29"/>
+    </row>
+    <row r="73" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C63" s="48">
-        <f>J61</f>
-        <v>510290.29324461019</v>
-      </c>
-      <c r="D63" s="49"/>
-      <c r="E63" s="10">
+      <c r="C73" s="42">
+        <f>J71</f>
+        <v>927038.34535393445</v>
+      </c>
+      <c r="D73" s="43"/>
+      <c r="E73" s="10">
         <v>100</v>
       </c>
-      <c r="F63" s="12"/>
-      <c r="G63" s="13"/>
-      <c r="H63" s="12"/>
-      <c r="I63" s="14"/>
-      <c r="J63" s="15"/>
-      <c r="K63" s="16"/>
-      <c r="M63" s="12"/>
-      <c r="N63" s="30"/>
-      <c r="O63" s="30"/>
-      <c r="P63" s="30"/>
-      <c r="Q63" s="30"/>
-      <c r="R63" s="30"/>
-      <c r="S63" s="30"/>
-      <c r="T63" s="30"/>
-      <c r="U63" s="12"/>
-      <c r="V63" s="12"/>
-      <c r="W63" s="12"/>
-      <c r="X63" s="12"/>
-      <c r="Y63" s="12"/>
-      <c r="Z63" s="12"/>
-      <c r="AA63" s="12"/>
-      <c r="AB63" s="12"/>
-      <c r="AC63" s="12"/>
-      <c r="AD63" s="12"/>
-      <c r="AE63" s="12"/>
-    </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="B64" s="11" t="s">
+      <c r="F73" s="12"/>
+      <c r="G73" s="13"/>
+      <c r="H73" s="12"/>
+      <c r="I73" s="14"/>
+      <c r="J73" s="15"/>
+      <c r="K73" s="16"/>
+      <c r="M73" s="12"/>
+      <c r="N73" s="30"/>
+      <c r="O73" s="30"/>
+      <c r="P73" s="30"/>
+      <c r="Q73" s="30"/>
+      <c r="R73" s="30"/>
+      <c r="S73" s="30"/>
+      <c r="T73" s="30"/>
+      <c r="U73" s="12"/>
+      <c r="V73" s="12"/>
+      <c r="W73" s="12"/>
+      <c r="X73" s="12"/>
+      <c r="Y73" s="12"/>
+      <c r="Z73" s="12"/>
+      <c r="AA73" s="12"/>
+      <c r="AB73" s="12"/>
+      <c r="AC73" s="12"/>
+      <c r="AD73" s="12"/>
+      <c r="AE73" s="12"/>
+    </row>
+    <row r="74" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B74" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C64" s="51">
+      <c r="C74" s="46">
         <v>400000</v>
       </c>
-      <c r="D64" s="52"/>
-      <c r="E64" s="10"/>
-      <c r="M64" s="29"/>
-      <c r="N64" s="30"/>
-      <c r="O64" s="30"/>
-      <c r="P64" s="30"/>
-      <c r="Q64" s="30"/>
-      <c r="R64" s="30"/>
-      <c r="S64" s="30"/>
-      <c r="T64" s="30"/>
-      <c r="U64" s="29"/>
-      <c r="V64" s="29"/>
-      <c r="W64" s="29"/>
-      <c r="X64" s="29"/>
-      <c r="Y64" s="29"/>
-      <c r="Z64" s="29"/>
-      <c r="AA64" s="29"/>
-      <c r="AB64" s="29"/>
-      <c r="AC64" s="29"/>
-      <c r="AD64" s="29"/>
-      <c r="AE64" s="29"/>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B65" s="11" t="s">
+      <c r="D74" s="47"/>
+      <c r="E74" s="10"/>
+      <c r="M74" s="29"/>
+      <c r="N74" s="30"/>
+      <c r="O74" s="30"/>
+      <c r="P74" s="30"/>
+      <c r="Q74" s="30"/>
+      <c r="R74" s="30"/>
+      <c r="S74" s="30"/>
+      <c r="T74" s="30"/>
+      <c r="U74" s="29"/>
+      <c r="V74" s="29"/>
+      <c r="W74" s="29"/>
+      <c r="X74" s="29"/>
+      <c r="Y74" s="29"/>
+      <c r="Z74" s="29"/>
+      <c r="AA74" s="29"/>
+      <c r="AB74" s="29"/>
+      <c r="AC74" s="29"/>
+      <c r="AD74" s="29"/>
+      <c r="AE74" s="29"/>
+    </row>
+    <row r="75" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B75" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C65" s="51">
-        <f>C64-C67-C68</f>
+      <c r="C75" s="46">
+        <f>C74-C77-C78</f>
         <v>380000</v>
       </c>
-      <c r="D65" s="52"/>
-      <c r="E65" s="10">
-        <f>C65/C63*100</f>
-        <v>74.467416886145841</v>
-      </c>
-      <c r="M65" s="29"/>
-      <c r="N65" s="29"/>
-      <c r="O65" s="29"/>
-      <c r="P65" s="29"/>
-      <c r="Q65" s="29"/>
-      <c r="R65" s="29"/>
-      <c r="S65" s="29"/>
-      <c r="T65" s="29"/>
-      <c r="U65" s="29"/>
-      <c r="V65" s="29"/>
-      <c r="W65" s="29"/>
-      <c r="X65" s="29"/>
-      <c r="Y65" s="29"/>
-      <c r="Z65" s="29"/>
-      <c r="AA65" s="29"/>
-      <c r="AB65" s="29"/>
-      <c r="AC65" s="29"/>
-      <c r="AD65" s="29"/>
-      <c r="AE65" s="29"/>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B66" s="11" t="s">
+      <c r="D75" s="47"/>
+      <c r="E75" s="10">
+        <f>C75/C73*100</f>
+        <v>40.990753176981002</v>
+      </c>
+      <c r="M75" s="29"/>
+      <c r="N75" s="29"/>
+      <c r="O75" s="29"/>
+      <c r="P75" s="29"/>
+      <c r="Q75" s="29"/>
+      <c r="R75" s="29"/>
+      <c r="S75" s="29"/>
+      <c r="T75" s="29"/>
+      <c r="U75" s="29"/>
+      <c r="V75" s="29"/>
+      <c r="W75" s="29"/>
+      <c r="X75" s="29"/>
+      <c r="Y75" s="29"/>
+      <c r="Z75" s="29"/>
+      <c r="AA75" s="29"/>
+      <c r="AB75" s="29"/>
+      <c r="AC75" s="29"/>
+      <c r="AD75" s="29"/>
+      <c r="AE75" s="29"/>
+    </row>
+    <row r="76" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B76" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C66" s="53">
-        <f>C63-C65</f>
-        <v>130290.29324461019</v>
-      </c>
-      <c r="D66" s="53"/>
-      <c r="E66" s="10">
-        <f>100-E65</f>
-        <v>25.532583113854159</v>
-      </c>
-      <c r="M66" s="29"/>
-      <c r="N66" s="29"/>
-      <c r="O66" s="29"/>
-      <c r="P66" s="29"/>
-      <c r="Q66" s="29"/>
-      <c r="R66" s="29"/>
-      <c r="S66" s="29"/>
-      <c r="T66" s="29"/>
-      <c r="U66" s="29"/>
-      <c r="V66" s="29"/>
-      <c r="W66" s="29"/>
-      <c r="X66" s="29"/>
-      <c r="Y66" s="29"/>
-      <c r="Z66" s="29"/>
-      <c r="AA66" s="29"/>
-      <c r="AB66" s="29"/>
-      <c r="AC66" s="29"/>
-      <c r="AD66" s="29"/>
-      <c r="AE66" s="29"/>
-    </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B67" s="11" t="s">
+      <c r="C76" s="48">
+        <f>C73-C75</f>
+        <v>547038.34535393445</v>
+      </c>
+      <c r="D76" s="48"/>
+      <c r="E76" s="10">
+        <f>100-E75</f>
+        <v>59.009246823018998</v>
+      </c>
+      <c r="M76" s="29"/>
+      <c r="N76" s="29"/>
+      <c r="O76" s="29"/>
+      <c r="P76" s="29"/>
+      <c r="Q76" s="29"/>
+      <c r="R76" s="29"/>
+      <c r="S76" s="29"/>
+      <c r="T76" s="29"/>
+      <c r="U76" s="29"/>
+      <c r="V76" s="29"/>
+      <c r="W76" s="29"/>
+      <c r="X76" s="29"/>
+      <c r="Y76" s="29"/>
+      <c r="Z76" s="29"/>
+      <c r="AA76" s="29"/>
+      <c r="AB76" s="29"/>
+      <c r="AC76" s="29"/>
+      <c r="AD76" s="29"/>
+      <c r="AE76" s="29"/>
+    </row>
+    <row r="77" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B77" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C67" s="48">
-        <f>C64*0.03</f>
+      <c r="C77" s="42">
+        <f>C74*0.03</f>
         <v>12000</v>
       </c>
-      <c r="D67" s="49"/>
-      <c r="E67" s="10">
+      <c r="D77" s="43"/>
+      <c r="E77" s="10">
         <v>3</v>
       </c>
-      <c r="M67" s="29"/>
-      <c r="N67" s="29"/>
-      <c r="O67" s="29"/>
-      <c r="P67" s="29"/>
-      <c r="Q67" s="29"/>
-      <c r="R67" s="29"/>
-      <c r="S67" s="29"/>
-      <c r="T67" s="29"/>
-      <c r="U67" s="29"/>
-      <c r="V67" s="29"/>
-      <c r="W67" s="29"/>
-      <c r="X67" s="29"/>
-      <c r="Y67" s="29"/>
-      <c r="Z67" s="29"/>
-      <c r="AA67" s="29"/>
-      <c r="AB67" s="29"/>
-      <c r="AC67" s="29"/>
-      <c r="AD67" s="29"/>
-      <c r="AE67" s="29"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B68" s="11" t="s">
+      <c r="M77" s="29"/>
+      <c r="N77" s="29"/>
+      <c r="O77" s="29"/>
+      <c r="P77" s="29"/>
+      <c r="Q77" s="29"/>
+      <c r="R77" s="29"/>
+      <c r="S77" s="29"/>
+      <c r="T77" s="29"/>
+      <c r="U77" s="29"/>
+      <c r="V77" s="29"/>
+      <c r="W77" s="29"/>
+      <c r="X77" s="29"/>
+      <c r="Y77" s="29"/>
+      <c r="Z77" s="29"/>
+      <c r="AA77" s="29"/>
+      <c r="AB77" s="29"/>
+      <c r="AC77" s="29"/>
+      <c r="AD77" s="29"/>
+      <c r="AE77" s="29"/>
+    </row>
+    <row r="78" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B78" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C68" s="48">
-        <f>C64*0.02</f>
+      <c r="C78" s="42">
+        <f>C74*0.02</f>
         <v>8000</v>
       </c>
-      <c r="D68" s="49"/>
-      <c r="E68" s="10">
+      <c r="D78" s="43"/>
+      <c r="E78" s="10">
         <v>2</v>
       </c>
-      <c r="M68" s="29"/>
-      <c r="N68" s="29"/>
-      <c r="O68" s="29"/>
-      <c r="P68" s="29"/>
-      <c r="Q68" s="29"/>
-      <c r="R68" s="29"/>
-      <c r="S68" s="29"/>
-      <c r="T68" s="29"/>
-      <c r="U68" s="29"/>
-      <c r="V68" s="29"/>
-      <c r="W68" s="29"/>
-      <c r="X68" s="29"/>
-      <c r="Y68" s="29"/>
-      <c r="Z68" s="29"/>
-      <c r="AA68" s="29"/>
-      <c r="AB68" s="29"/>
-      <c r="AC68" s="29"/>
-      <c r="AD68" s="29"/>
-      <c r="AE68" s="29"/>
+      <c r="M78" s="29"/>
+      <c r="N78" s="29"/>
+      <c r="O78" s="29"/>
+      <c r="P78" s="29"/>
+      <c r="Q78" s="29"/>
+      <c r="R78" s="29"/>
+      <c r="S78" s="29"/>
+      <c r="T78" s="29"/>
+      <c r="U78" s="29"/>
+      <c r="V78" s="29"/>
+      <c r="W78" s="29"/>
+      <c r="X78" s="29"/>
+      <c r="Y78" s="29"/>
+      <c r="Z78" s="29"/>
+      <c r="AA78" s="29"/>
+      <c r="AB78" s="29"/>
+      <c r="AC78" s="29"/>
+      <c r="AD78" s="29"/>
+      <c r="AE78" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="H6:K6"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A3:K3"/>
     <mergeCell ref="A4:K4"/>
     <mergeCell ref="A5:K5"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C76:D76"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B61" r:id="rId1"/>
+  </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="80" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="80" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <headerFooter>
     <oddFooter>&amp;LPrepared By:
 Kristal Suwal&amp;CChecked By:
 Er. Milan Phuyal&amp;RApproved By:    
 Er. Prakash Singh Saud</oddFooter>
   </headerFooter>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="40" max="10" man="1"/>
+  </rowBreaks>
 </worksheet>
 </file>
--- a/ofc/estimates/kurthali truss/truss.xlsx
+++ b/ofc/estimates/kurthali truss/truss.xlsx
@@ -2,25 +2,26 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\081-082\ofc\estimates\kurthali truss\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\081_082\ofc\ofc\estimates\kurthali truss\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="new" sheetId="18" r:id="rId1"/>
     <sheet name="as per mistry" sheetId="19" r:id="rId2"/>
+    <sheet name="final" sheetId="20" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
     <definedName name="adopted_rate_aggregate_10_20_mm">[1]District_Rate!$L$6</definedName>
@@ -42,14 +43,16 @@
     <definedName name="excavator">[1]Equipment_Rate!$J$19</definedName>
     <definedName name="generator">[1]Equipment_Rate!$J$20</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'as per mistry'!$A$5:$K$72</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">new!$A$1:$K$62</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">final!$A$5:$K$87</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">new!$A$1:$K$76</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'as per mistry'!$1:$8</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">final!$1:$8</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">new!$1:$8</definedName>
     <definedName name="skilled">[1]District_Rate!$D$148</definedName>
     <definedName name="skilled_blacksmith">[1]District_Rate!$D$149</definedName>
     <definedName name="unskilled">[1]District_Rate!$D$156</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -59,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="72">
   <si>
     <t>Government of Nepal</t>
   </si>
@@ -157,12 +160,6 @@
     <t>Kg</t>
   </si>
   <si>
-    <t>-for horizontal member</t>
-  </si>
-  <si>
-    <t>-MS square pipe of 113.5mm * 113.5mm of 3mm thickness for vertical post</t>
-  </si>
-  <si>
     <t xml:space="preserve">).#^ lblv ).$ dL.dL.afSnf] sf]?u]6]8 /+lug ss{6 kftfsf] 5fgf 5fpg] sfd </t>
   </si>
   <si>
@@ -181,21 +178,9 @@
     <t>Information board</t>
   </si>
   <si>
-    <t>-MS square pipe of 72mm * 72mm of 3mm thickness for inclined member</t>
-  </si>
-  <si>
-    <t>-MS square pipe of 50mm * 50mm of 3mm thickness for king post member</t>
-  </si>
-  <si>
-    <t>-MS square pipe of 50mm * 50mm of 2.6mm thickness for diagnol member</t>
-  </si>
-  <si>
     <t>-MS square pipe of 50mm * 50mm of 2.6mm thickness for vertical member</t>
   </si>
   <si>
-    <t>-MS square pipe of 50mm * 50mm of 2.6mm thickness for purlins</t>
-  </si>
-  <si>
     <t>-VAT 13% for materials</t>
   </si>
   <si>
@@ -257,15 +242,51 @@
   </si>
   <si>
     <t>!@=% dL=dL= l;d]G6 afn'jf -!M$_ Knfi6/</t>
+  </si>
+  <si>
+    <t>-MS square pipe of 2"*2" of 1.6mm thickness for purlins</t>
+  </si>
+  <si>
+    <t>-tie beam</t>
+  </si>
+  <si>
+    <t>-deduction for overlap part</t>
+  </si>
+  <si>
+    <t>-for tie beam</t>
+  </si>
+  <si>
+    <t>cf/=;L=;L= nflu kmnfd] 808L sf6\g], df]8\g] #) dL6/ ;Dd</t>
+  </si>
+  <si>
+    <t>Nos.</t>
+  </si>
+  <si>
+    <t>Total Weight (Kg)</t>
+  </si>
+  <si>
+    <t>Total Weight (MT)</t>
+  </si>
+  <si>
+    <t>-for column</t>
+  </si>
+  <si>
+    <t>-stirrups</t>
+  </si>
+  <si>
+    <t>MT</t>
+  </si>
+  <si>
+    <t>kmnfd]sf] kfOk / KnfOaf]8{af6 kmdf{ agfpg] sfd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
@@ -430,20 +451,20 @@
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -451,7 +472,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -468,7 +489,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -477,7 +498,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -489,7 +510,7 @@
     <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -533,32 +554,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -570,6 +575,28 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -885,33 +912,33 @@
       <sheetName val="PPMO_BOQ"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1">
         <row r="33">
           <cell r="B33" t="str">
             <v>Earthwork Excavation in Cutting., Roadway Excavation in all types of Soil by Manual Means ., Roadway Excavation in all types of soil as per drawing and technical specification, including removal of stumps and other deleterious matter, with all lifts and lead as per Drawing and instruction of the Engineer.</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1239,141 +1266,141 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE62"/>
+  <dimension ref="A1:AE76"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="J44" sqref="J44"/>
+    <sheetView topLeftCell="A41" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46:XFD59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="6.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.140625" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="5.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.109375" customWidth="1"/>
+    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" customWidth="1"/>
+    <col min="5" max="5" width="7.88671875" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="6.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.109375" customWidth="1"/>
+    <col min="17" max="17" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-    </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-    </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="52" t="s">
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-    </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="52" t="s">
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+    </row>
+    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-    </row>
-    <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="53" t="s">
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+    </row>
+    <row r="5" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A5" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-    </row>
-    <row r="6" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="45" t="s">
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+    </row>
+    <row r="6" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-    </row>
-    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="44" t="s">
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="45" t="s">
+      <c r="H7" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="45"/>
-    </row>
-    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+    </row>
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -1408,7 +1435,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A9" s="21">
         <v>1</v>
       </c>
@@ -1433,10 +1460,10 @@
       <c r="J9" s="27"/>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A10" s="38"/>
       <c r="B10" s="39" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="C10" s="40">
         <v>12</v>
@@ -1446,15 +1473,15 @@
         <v>4.5717768972874122</v>
       </c>
       <c r="E10" s="10">
-        <v>10.23</v>
+        <v>3.97</v>
       </c>
       <c r="F10" s="10">
         <f>PRODUCT(C10:E10)</f>
-        <v>561.23133191100271</v>
+        <v>217.79945138677232</v>
       </c>
       <c r="G10" s="36">
         <f>F10</f>
-        <v>561.23133191100271</v>
+        <v>217.79945138677232</v>
       </c>
       <c r="H10" s="27"/>
       <c r="I10" s="27"/>
@@ -1462,28 +1489,28 @@
       <c r="K10" s="11"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A11" s="38"/>
       <c r="B11" s="39" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="C11" s="40">
         <v>4</v>
       </c>
       <c r="D11" s="10">
-        <f>30/3.281</f>
-        <v>9.1435537945748244</v>
+        <f>33/3.281</f>
+        <v>10.057909174032307</v>
       </c>
       <c r="E11" s="10">
-        <v>10.23</v>
+        <v>2.72</v>
       </c>
       <c r="F11" s="10">
         <f t="shared" ref="F11:F12" si="0">PRODUCT(C11:E11)</f>
-        <v>374.15422127400183</v>
+        <v>109.43005181347151</v>
       </c>
       <c r="G11" s="36">
         <f t="shared" ref="G11:G12" si="1">F11</f>
-        <v>374.15422127400183</v>
+        <v>109.43005181347151</v>
       </c>
       <c r="H11" s="27"/>
       <c r="I11" s="27"/>
@@ -1491,26 +1518,27 @@
       <c r="K11" s="11"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="38"/>
       <c r="B12" s="39"/>
       <c r="C12" s="40">
-        <v>3</v>
+        <f>3-1</f>
+        <v>2</v>
       </c>
       <c r="D12" s="10">
         <f>40/3.281</f>
         <v>12.1914050594331</v>
       </c>
       <c r="E12" s="10">
-        <v>10.23</v>
+        <v>2.72</v>
       </c>
       <c r="F12" s="10">
         <f t="shared" si="0"/>
-        <v>374.15422127400183</v>
+        <v>66.32124352331607</v>
       </c>
       <c r="G12" s="36">
         <f t="shared" si="1"/>
-        <v>374.15422127400183</v>
+        <v>66.32124352331607</v>
       </c>
       <c r="H12" s="27"/>
       <c r="I12" s="27"/>
@@ -1518,10 +1546,10 @@
       <c r="K12" s="11"/>
       <c r="M12" s="12"/>
     </row>
-    <row r="13" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A13" s="38"/>
       <c r="B13" s="39" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="C13" s="40">
         <f>2*4</f>
@@ -1532,15 +1560,15 @@
         <v>4.8765620237732392</v>
       </c>
       <c r="E13" s="10">
-        <v>6.5</v>
+        <v>2.72</v>
       </c>
       <c r="F13" s="10">
         <f t="shared" ref="F13" si="2">PRODUCT(C13:E13)</f>
-        <v>253.58122523620844</v>
+        <v>106.11398963730569</v>
       </c>
       <c r="G13" s="36">
         <f t="shared" ref="G13" si="3">F13</f>
-        <v>253.58122523620844</v>
+        <v>106.11398963730569</v>
       </c>
       <c r="H13" s="27"/>
       <c r="I13" s="27"/>
@@ -1548,28 +1576,28 @@
       <c r="K13" s="11"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A14" s="38"/>
       <c r="B14" s="39" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C14" s="40">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D14" s="10">
-        <f>4/3.281</f>
-        <v>1.2191405059433098</v>
+        <f>3.5/3.281</f>
+        <v>1.0667479427003961</v>
       </c>
       <c r="E14" s="10">
-        <v>4.43</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="F14" s="10">
         <f t="shared" ref="F14" si="4">PRODUCT(C14:E14)</f>
-        <v>5.4007924413288624</v>
+        <v>10.368790003047851</v>
       </c>
       <c r="G14" s="36">
         <f t="shared" ref="G14" si="5">F14</f>
-        <v>5.4007924413288624</v>
+        <v>10.368790003047851</v>
       </c>
       <c r="H14" s="27"/>
       <c r="I14" s="27"/>
@@ -1577,28 +1605,28 @@
       <c r="K14" s="11"/>
       <c r="M14" s="12"/>
     </row>
-    <row r="15" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A15" s="38"/>
       <c r="B15" s="39" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C15" s="40">
         <v>2</v>
       </c>
       <c r="D15" s="10">
-        <f>4.42/3.281</f>
-        <v>1.3471502590673574</v>
+        <f>3.917/3.281</f>
+        <v>1.1938433404449862</v>
       </c>
       <c r="E15" s="10">
-        <v>3.87</v>
+        <v>1.83</v>
       </c>
       <c r="F15" s="10">
         <f t="shared" ref="F15" si="6">PRODUCT(C15:E15)</f>
-        <v>10.426943005181347</v>
+        <v>4.3694666260286494</v>
       </c>
       <c r="G15" s="36">
         <f t="shared" ref="G15" si="7">F15</f>
-        <v>10.426943005181347</v>
+        <v>4.3694666260286494</v>
       </c>
       <c r="H15" s="27"/>
       <c r="I15" s="27"/>
@@ -1606,26 +1634,26 @@
       <c r="K15" s="11"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="38"/>
       <c r="B16" s="39"/>
       <c r="C16" s="40">
         <v>2</v>
       </c>
       <c r="D16" s="10">
-        <f>3.833/3.281</f>
-        <v>1.1682413898201769</v>
+        <f>3.5/3.281</f>
+        <v>1.0667479427003961</v>
       </c>
       <c r="E16" s="10">
-        <v>3.87</v>
+        <v>1.83</v>
       </c>
       <c r="F16" s="10">
         <f t="shared" ref="F16:F19" si="8">PRODUCT(C16:E16)</f>
-        <v>9.04218835720817</v>
+        <v>3.9042974702834496</v>
       </c>
       <c r="G16" s="36">
         <f t="shared" ref="G16:G19" si="9">F16</f>
-        <v>9.04218835720817</v>
+        <v>3.9042974702834496</v>
       </c>
       <c r="H16" s="27"/>
       <c r="I16" s="27"/>
@@ -1633,26 +1661,26 @@
       <c r="K16" s="11"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="38"/>
       <c r="B17" s="39"/>
       <c r="C17" s="40">
         <v>2</v>
       </c>
       <c r="D17" s="10">
-        <f>3.42/3.281</f>
-        <v>1.04236513258153</v>
+        <f>3.17/3.281</f>
+        <v>0.9661688509600731</v>
       </c>
       <c r="E17" s="10">
-        <v>3.87</v>
+        <v>1.83</v>
       </c>
       <c r="F17" s="10">
         <f t="shared" si="8"/>
-        <v>8.0679061261810414</v>
+        <v>3.5361779945138676</v>
       </c>
       <c r="G17" s="36">
         <f t="shared" si="9"/>
-        <v>8.0679061261810414</v>
+        <v>3.5361779945138676</v>
       </c>
       <c r="H17" s="27"/>
       <c r="I17" s="27"/>
@@ -1660,26 +1688,26 @@
       <c r="K17" s="11"/>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="38"/>
       <c r="B18" s="39"/>
       <c r="C18" s="40">
         <v>2</v>
       </c>
       <c r="D18" s="10">
-        <f>3.083/3.281</f>
-        <v>0.93965254495580619</v>
+        <f>3/3.281</f>
+        <v>0.91435537945748246</v>
       </c>
       <c r="E18" s="10">
-        <v>3.87</v>
+        <v>1.83</v>
       </c>
       <c r="F18" s="10">
         <f t="shared" si="8"/>
-        <v>7.2729106979579399</v>
+        <v>3.346540688814386</v>
       </c>
       <c r="G18" s="36">
         <f t="shared" si="9"/>
-        <v>7.2729106979579399</v>
+        <v>3.346540688814386</v>
       </c>
       <c r="H18" s="27"/>
       <c r="I18" s="27"/>
@@ -1687,28 +1715,28 @@
       <c r="K18" s="11"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A19" s="38"/>
       <c r="B19" s="39" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C19" s="40">
         <v>2</v>
       </c>
       <c r="D19" s="10">
-        <f>3.17/3.281</f>
-        <v>0.9661688509600731</v>
+        <f>2.667/3.281</f>
+        <v>0.81286193233770188</v>
       </c>
       <c r="E19" s="10">
-        <v>3.87</v>
+        <v>1.83</v>
       </c>
       <c r="F19" s="10">
         <f t="shared" si="8"/>
-        <v>7.4781469064309656</v>
+        <v>2.9750746723559889</v>
       </c>
       <c r="G19" s="36">
         <f t="shared" si="9"/>
-        <v>7.4781469064309656</v>
+        <v>2.9750746723559889</v>
       </c>
       <c r="H19" s="27"/>
       <c r="I19" s="27"/>
@@ -1716,26 +1744,26 @@
       <c r="K19" s="11"/>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="38"/>
       <c r="B20" s="39"/>
       <c r="C20" s="40">
         <v>2</v>
       </c>
       <c r="D20" s="10">
-        <f>2.42/3.281</f>
-        <v>0.73758000609570251</v>
+        <f>2/3.281</f>
+        <v>0.6095702529716549</v>
       </c>
       <c r="E20" s="10">
-        <v>3.87</v>
+        <v>1.83</v>
       </c>
       <c r="F20" s="10">
         <f t="shared" ref="F20:F23" si="10">PRODUCT(C20:E20)</f>
-        <v>5.7088692471807372</v>
+        <v>2.2310271258762571</v>
       </c>
       <c r="G20" s="36">
         <f t="shared" ref="G20:G23" si="11">F20</f>
-        <v>5.7088692471807372</v>
+        <v>2.2310271258762571</v>
       </c>
       <c r="H20" s="27"/>
       <c r="I20" s="27"/>
@@ -1743,26 +1771,26 @@
       <c r="K20" s="11"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="38"/>
       <c r="B21" s="39"/>
       <c r="C21" s="40">
         <v>2</v>
       </c>
       <c r="D21" s="10">
-        <f>1.833/3.281</f>
-        <v>0.55867113684852177</v>
+        <f>1.333/3.281</f>
+        <v>0.40627857360560804</v>
       </c>
       <c r="E21" s="10">
-        <v>3.87</v>
+        <v>1.83</v>
       </c>
       <c r="F21" s="10">
         <f t="shared" si="10"/>
-        <v>4.3241145992075589</v>
+        <v>1.4869795793965255</v>
       </c>
       <c r="G21" s="36">
         <f t="shared" si="11"/>
-        <v>4.3241145992075589</v>
+        <v>1.4869795793965255</v>
       </c>
       <c r="H21" s="27"/>
       <c r="I21" s="27"/>
@@ -1770,26 +1798,26 @@
       <c r="K21" s="11"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="38"/>
       <c r="B22" s="39"/>
       <c r="C22" s="40">
         <v>2</v>
       </c>
       <c r="D22" s="10">
-        <f>10/12/3.281</f>
-        <v>0.25398760540485626</v>
+        <f>8/12/3.281</f>
+        <v>0.20319008432388497</v>
       </c>
       <c r="E22" s="10">
-        <v>3.87</v>
+        <v>1.83</v>
       </c>
       <c r="F22" s="10">
         <f t="shared" si="10"/>
-        <v>1.9658640658335875</v>
+        <v>0.74367570862541899</v>
       </c>
       <c r="G22" s="36">
         <f t="shared" si="11"/>
-        <v>1.9658640658335875</v>
+        <v>0.74367570862541899</v>
       </c>
       <c r="H22" s="27"/>
       <c r="I22" s="27"/>
@@ -1797,29 +1825,29 @@
       <c r="K22" s="11"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A23" s="38"/>
       <c r="B23" s="39" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C23" s="40">
         <f>2*5</f>
         <v>10</v>
       </c>
       <c r="D23" s="10">
-        <f>42/3.281</f>
-        <v>12.800975312404754</v>
+        <f>(0.75+30+0.75)/3.281</f>
+        <v>9.6007314843035658</v>
       </c>
       <c r="E23" s="10">
-        <v>3.87</v>
+        <v>2.72</v>
       </c>
       <c r="F23" s="10">
         <f t="shared" si="10"/>
-        <v>495.39774459006395</v>
+        <v>261.13989637305701</v>
       </c>
       <c r="G23" s="36">
         <f t="shared" si="11"/>
-        <v>495.39774459006395</v>
+        <v>261.13989637305701</v>
       </c>
       <c r="H23" s="27"/>
       <c r="I23" s="27"/>
@@ -1827,7 +1855,7 @@
       <c r="K23" s="11"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="21"/>
       <c r="B24" s="39" t="s">
         <v>26</v>
@@ -1838,7 +1866,7 @@
       <c r="F24" s="24"/>
       <c r="G24" s="27">
         <f>SUM(G10:G23)</f>
-        <v>2118.2064797317889</v>
+        <v>793.76666260286504</v>
       </c>
       <c r="H24" s="25" t="s">
         <v>31</v>
@@ -1848,14 +1876,14 @@
       </c>
       <c r="J24" s="27">
         <f>G24*I24</f>
-        <v>383755.46793300816</v>
+        <v>143806.70626376104</v>
       </c>
       <c r="K24" s="24"/>
     </row>
-    <row r="25" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="21"/>
       <c r="B25" s="39" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C25" s="22"/>
       <c r="D25" s="23"/>
@@ -1866,11 +1894,11 @@
       <c r="I25" s="26"/>
       <c r="J25" s="27">
         <f>0.13*G24*(1871.42/18.94)</f>
-        <v>27208.395783471828</v>
+        <v>10195.945353995407</v>
       </c>
       <c r="K25" s="24"/>
     </row>
-    <row r="26" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A26" s="21"/>
       <c r="B26" s="37"/>
       <c r="C26" s="22"/>
@@ -1883,12 +1911,12 @@
       <c r="J26" s="27"/>
       <c r="K26" s="24"/>
     </row>
-    <row r="27" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A27" s="38">
         <v>2</v>
       </c>
       <c r="B27" s="37" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C27" s="40"/>
       <c r="D27" s="10"/>
@@ -1901,7 +1929,7 @@
       <c r="K27" s="11"/>
       <c r="M27" s="12"/>
     </row>
-    <row r="28" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="38"/>
       <c r="B28" s="39"/>
       <c r="C28" s="40">
@@ -1912,13 +1940,13 @@
         <v>4.8765620237732392</v>
       </c>
       <c r="E28" s="10">
-        <f>42/3.281</f>
-        <v>12.800975312404754</v>
+        <f>31.5/3.281</f>
+        <v>9.6007314843035658</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="36">
         <f>PRODUCT(C28:F28)</f>
-        <v>124.8495001514636</v>
+        <v>93.637125113597705</v>
       </c>
       <c r="H28" s="27"/>
       <c r="I28" s="27"/>
@@ -1926,7 +1954,7 @@
       <c r="K28" s="11"/>
       <c r="M28" s="12"/>
     </row>
-    <row r="29" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="21"/>
       <c r="B29" s="39" t="s">
         <v>26</v>
@@ -1937,24 +1965,24 @@
       <c r="F29" s="24"/>
       <c r="G29" s="27">
         <f>SUM(G28:G28)</f>
-        <v>124.8495001514636</v>
+        <v>93.637125113597705</v>
       </c>
       <c r="H29" s="25" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I29" s="26">
         <v>1070.9000000000001</v>
       </c>
       <c r="J29" s="27">
         <f>G29*I29</f>
-        <v>133701.32971220239</v>
+        <v>100275.99728415179</v>
       </c>
       <c r="K29" s="24"/>
     </row>
-    <row r="30" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="21"/>
       <c r="B30" s="39" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C30" s="22"/>
       <c r="D30" s="23"/>
@@ -1965,11 +1993,11 @@
       <c r="I30" s="26"/>
       <c r="J30" s="27">
         <f>0.13*G29*8587.63/10</f>
-        <v>13938.097068814273</v>
+        <v>10453.572801610706</v>
       </c>
       <c r="K30" s="24"/>
     </row>
-    <row r="31" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="21"/>
       <c r="B31" s="39"/>
       <c r="C31" s="22"/>
@@ -1982,12 +2010,12 @@
       <c r="J31" s="27"/>
       <c r="K31" s="24"/>
     </row>
-    <row r="32" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A32" s="21">
         <v>3</v>
       </c>
       <c r="B32" s="37" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C32" s="22"/>
       <c r="D32" s="23"/>
@@ -1999,10 +2027,10 @@
       <c r="J32" s="27"/>
       <c r="K32" s="24"/>
     </row>
-    <row r="33" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="21"/>
       <c r="B33" s="39" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C33" s="22">
         <f>3*4</f>
@@ -2027,7 +2055,7 @@
       <c r="J33" s="27"/>
       <c r="K33" s="24"/>
     </row>
-    <row r="34" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="21"/>
       <c r="B34" s="39" t="s">
         <v>26</v>
@@ -2041,7 +2069,7 @@
         <v>8.8875342883267301</v>
       </c>
       <c r="H34" s="25" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I34" s="26">
         <v>663.31</v>
@@ -2052,7 +2080,7 @@
       </c>
       <c r="K34" s="24"/>
     </row>
-    <row r="35" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="21"/>
       <c r="B35" s="39"/>
       <c r="C35" s="22"/>
@@ -2065,12 +2093,12 @@
       <c r="J35" s="27"/>
       <c r="K35" s="24"/>
     </row>
-    <row r="36" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A36" s="21">
         <v>3</v>
       </c>
       <c r="B36" s="37" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C36" s="22"/>
       <c r="D36" s="23"/>
@@ -2082,10 +2110,10 @@
       <c r="J36" s="27"/>
       <c r="K36" s="24"/>
     </row>
-    <row r="37" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="21"/>
       <c r="B37" s="39" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C37" s="22">
         <f>3*4</f>
@@ -2109,7 +2137,7 @@
       <c r="J37" s="27"/>
       <c r="K37" s="24"/>
     </row>
-    <row r="38" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="21"/>
       <c r="B38" s="39" t="s">
         <v>26</v>
@@ -2123,7 +2151,7 @@
         <v>1.0125</v>
       </c>
       <c r="H38" s="25" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I38" s="26">
         <v>4473.1499999999996</v>
@@ -2134,10 +2162,10 @@
       </c>
       <c r="K38" s="24"/>
     </row>
-    <row r="39" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="21"/>
       <c r="B39" s="39" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C39" s="22"/>
       <c r="D39" s="23"/>
@@ -2152,7 +2180,7 @@
       </c>
       <c r="K39" s="24"/>
     </row>
-    <row r="40" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="21"/>
       <c r="B40" s="39"/>
       <c r="C40" s="22"/>
@@ -2165,12 +2193,12 @@
       <c r="J40" s="27"/>
       <c r="K40" s="24"/>
     </row>
-    <row r="41" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A41" s="21">
         <v>3</v>
       </c>
       <c r="B41" s="37" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C41" s="22"/>
       <c r="D41" s="23"/>
@@ -2182,10 +2210,10 @@
       <c r="J41" s="27"/>
       <c r="K41" s="24"/>
     </row>
-    <row r="42" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="21"/>
       <c r="B42" s="39" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C42" s="22">
         <f>3*4</f>
@@ -2209,7 +2237,7 @@
       <c r="J42" s="27"/>
       <c r="K42" s="24"/>
     </row>
-    <row r="43" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="21"/>
       <c r="B43" s="39" t="s">
         <v>26</v>
@@ -2223,7 +2251,7 @@
         <v>0.33750000000000002</v>
       </c>
       <c r="H43" s="25" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I43" s="26">
         <v>12983.1</v>
@@ -2234,10 +2262,10 @@
       </c>
       <c r="K43" s="24"/>
     </row>
-    <row r="44" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="21"/>
       <c r="B44" s="39" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C44" s="22"/>
       <c r="D44" s="23"/>
@@ -2252,7 +2280,7 @@
       </c>
       <c r="K44" s="24"/>
     </row>
-    <row r="45" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="21"/>
       <c r="B45" s="39"/>
       <c r="C45" s="22"/>
@@ -2265,430 +2293,438 @@
       <c r="J45" s="27"/>
       <c r="K45" s="24"/>
     </row>
-    <row r="46" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="21">
+    <row r="60" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+      <c r="A60" s="21">
         <v>3</v>
       </c>
-      <c r="B46" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="C46" s="22"/>
-      <c r="D46" s="23"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="27"/>
-      <c r="H46" s="25"/>
-      <c r="I46" s="26"/>
-      <c r="J46" s="27"/>
-      <c r="K46" s="24"/>
-    </row>
-    <row r="47" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="21"/>
-      <c r="B47" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="C47" s="22">
+      <c r="B60" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="C60" s="22"/>
+      <c r="D60" s="23"/>
+      <c r="E60" s="24"/>
+      <c r="F60" s="24"/>
+      <c r="G60" s="27"/>
+      <c r="H60" s="25"/>
+      <c r="I60" s="26"/>
+      <c r="J60" s="27"/>
+      <c r="K60" s="24"/>
+    </row>
+    <row r="61" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="21"/>
+      <c r="B61" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="C61" s="22">
         <f>3*4</f>
         <v>12</v>
       </c>
-      <c r="D47" s="23">
+      <c r="D61" s="23">
         <v>0.6</v>
       </c>
-      <c r="E47" s="24">
+      <c r="E61" s="24">
         <v>0.6</v>
       </c>
-      <c r="F47" s="24">
+      <c r="F61" s="24">
         <v>0.6</v>
       </c>
-      <c r="G47" s="36">
-        <f>PRODUCT(C47:F47)</f>
+      <c r="G61" s="36">
+        <f>PRODUCT(C61:F61)</f>
         <v>2.5919999999999996</v>
       </c>
-      <c r="H47" s="25"/>
-      <c r="I47" s="26"/>
-      <c r="J47" s="27"/>
-      <c r="K47" s="24"/>
-    </row>
-    <row r="48" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="21"/>
-      <c r="B48" s="39" t="s">
+      <c r="H61" s="25"/>
+      <c r="I61" s="26"/>
+      <c r="J61" s="27"/>
+      <c r="K61" s="24"/>
+    </row>
+    <row r="62" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="21"/>
+      <c r="B62" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="C48" s="22"/>
-      <c r="D48" s="23"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="27">
-        <f>SUM(G47:G47)</f>
+      <c r="C62" s="22"/>
+      <c r="D62" s="23"/>
+      <c r="E62" s="24"/>
+      <c r="F62" s="24"/>
+      <c r="G62" s="27">
+        <f>SUM(G61:G61)</f>
         <v>2.5919999999999996</v>
       </c>
-      <c r="H48" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="I48" s="26">
+      <c r="H62" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="I62" s="26">
         <v>13568.9</v>
       </c>
-      <c r="J48" s="27">
-        <f>G48*I48</f>
+      <c r="J62" s="27">
+        <f>G62*I62</f>
         <v>35170.588799999998</v>
       </c>
-      <c r="K48" s="24"/>
-    </row>
-    <row r="49" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="21"/>
-      <c r="B49" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="C49" s="22"/>
-      <c r="D49" s="23"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="24"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="25"/>
-      <c r="I49" s="26"/>
-      <c r="J49" s="27">
-        <f>0.13*G48*9524.2</f>
+      <c r="K62" s="24"/>
+    </row>
+    <row r="63" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="21"/>
+      <c r="B63" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C63" s="22"/>
+      <c r="D63" s="23"/>
+      <c r="E63" s="24"/>
+      <c r="F63" s="24"/>
+      <c r="G63" s="27"/>
+      <c r="H63" s="25"/>
+      <c r="I63" s="26"/>
+      <c r="J63" s="27">
+        <f>0.13*G62*9524.2</f>
         <v>3209.2744320000002</v>
       </c>
-      <c r="K49" s="24"/>
-    </row>
-    <row r="50" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="21"/>
-      <c r="B50" s="39"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="24"/>
-      <c r="F50" s="24"/>
-      <c r="G50" s="27"/>
-      <c r="H50" s="25"/>
-      <c r="I50" s="26"/>
-      <c r="J50" s="27"/>
-      <c r="K50" s="24"/>
-    </row>
-    <row r="51" spans="1:31" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="21">
+      <c r="K63" s="24"/>
+    </row>
+    <row r="64" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="21"/>
+      <c r="B64" s="39"/>
+      <c r="C64" s="22"/>
+      <c r="D64" s="23"/>
+      <c r="E64" s="24"/>
+      <c r="F64" s="24"/>
+      <c r="G64" s="27"/>
+      <c r="H64" s="25"/>
+      <c r="I64" s="26"/>
+      <c r="J64" s="27"/>
+      <c r="K64" s="24"/>
+    </row>
+    <row r="65" spans="1:31" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A65" s="21">
         <v>3</v>
       </c>
-      <c r="B51" s="41" t="s">
+      <c r="B65" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="C65" s="22">
+        <v>1</v>
+      </c>
+      <c r="D65" s="23"/>
+      <c r="E65" s="24"/>
+      <c r="F65" s="24"/>
+      <c r="G65" s="36">
+        <f>PRODUCT(C65:F65)</f>
+        <v>1</v>
+      </c>
+      <c r="H65" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="I65" s="26">
+        <v>5000</v>
+      </c>
+      <c r="J65" s="27">
+        <f>G65*I65</f>
+        <v>5000</v>
+      </c>
+      <c r="K65" s="24"/>
+    </row>
+    <row r="66" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="21"/>
+      <c r="B66" s="39"/>
+      <c r="C66" s="22"/>
+      <c r="D66" s="23"/>
+      <c r="E66" s="24"/>
+      <c r="F66" s="24"/>
+      <c r="G66" s="27"/>
+      <c r="H66" s="25"/>
+      <c r="I66" s="26"/>
+      <c r="J66" s="27"/>
+      <c r="K66" s="24"/>
+    </row>
+    <row r="67" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="21">
+        <v>4</v>
+      </c>
+      <c r="B67" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="C51" s="22">
+      <c r="C67" s="22">
         <v>1</v>
       </c>
-      <c r="D51" s="23"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="36">
-        <f>PRODUCT(C51:F51)</f>
+      <c r="D67" s="23"/>
+      <c r="E67" s="24"/>
+      <c r="F67" s="24"/>
+      <c r="G67" s="36">
+        <f>PRODUCT(C67:F67)</f>
         <v>1</v>
       </c>
-      <c r="H51" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="I51" s="26">
-        <v>5000</v>
-      </c>
-      <c r="J51" s="27">
-        <f>G51*I51</f>
-        <v>5000</v>
-      </c>
-      <c r="K51" s="24"/>
-    </row>
-    <row r="52" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="21"/>
-      <c r="B52" s="39"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="23"/>
-      <c r="E52" s="24"/>
-      <c r="F52" s="24"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="25"/>
-      <c r="I52" s="26"/>
-      <c r="J52" s="27"/>
-      <c r="K52" s="24"/>
-    </row>
-    <row r="53" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="21">
-        <v>4</v>
-      </c>
-      <c r="B53" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="C53" s="22">
-        <v>1</v>
-      </c>
-      <c r="D53" s="23"/>
-      <c r="E53" s="24"/>
-      <c r="F53" s="24"/>
-      <c r="G53" s="36">
-        <f>PRODUCT(C53:F53)</f>
-        <v>1</v>
-      </c>
-      <c r="H53" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="I53" s="26">
+      <c r="H67" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="I67" s="26">
         <v>500</v>
       </c>
-      <c r="J53" s="27">
-        <f>G53*I53</f>
+      <c r="J67" s="27">
+        <f>G67*I67</f>
         <v>500</v>
       </c>
-      <c r="K53" s="24"/>
-    </row>
-    <row r="54" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="21"/>
-      <c r="B54" s="39"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="23"/>
-      <c r="E54" s="24"/>
-      <c r="F54" s="24"/>
-      <c r="G54" s="27"/>
-      <c r="H54" s="25"/>
-      <c r="I54" s="26"/>
-      <c r="J54" s="27"/>
-      <c r="K54" s="24"/>
-    </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A55" s="9"/>
-      <c r="B55" s="20" t="s">
+      <c r="K67" s="24"/>
+    </row>
+    <row r="68" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="21"/>
+      <c r="B68" s="39"/>
+      <c r="C68" s="22"/>
+      <c r="D68" s="23"/>
+      <c r="E68" s="24"/>
+      <c r="F68" s="24"/>
+      <c r="G68" s="27"/>
+      <c r="H68" s="25"/>
+      <c r="I68" s="26"/>
+      <c r="J68" s="27"/>
+      <c r="K68" s="24"/>
+    </row>
+    <row r="69" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A69" s="9"/>
+      <c r="B69" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C55" s="8"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="33"/>
-      <c r="H55" s="7"/>
-      <c r="I55" s="7"/>
-      <c r="J55" s="7">
-        <f>SUM(J10:J54)</f>
-        <v>618050.76766828669</v>
-      </c>
-      <c r="K55" s="4"/>
-      <c r="M55" s="29"/>
-      <c r="P55" s="32"/>
-      <c r="Q55" s="32"/>
-    </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="M56" s="29"/>
-      <c r="N56" s="30"/>
-      <c r="O56" s="30"/>
-      <c r="P56" s="31"/>
-      <c r="R56" s="30"/>
-      <c r="S56" s="30"/>
-      <c r="T56" s="30"/>
-      <c r="U56" s="29"/>
-      <c r="V56" s="29"/>
-      <c r="W56" s="29"/>
-      <c r="X56" s="29"/>
-      <c r="Y56" s="29"/>
-      <c r="Z56" s="29"/>
-      <c r="AA56" s="29"/>
-      <c r="AB56" s="29"/>
-      <c r="AC56" s="29"/>
-      <c r="AD56" s="29"/>
-      <c r="AE56" s="29"/>
-    </row>
-    <row r="57" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="11" t="s">
+      <c r="C69" s="8"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="33"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="7"/>
+      <c r="J69" s="7">
+        <f>SUM(J10:J68)</f>
+        <v>324179.69887430896</v>
+      </c>
+      <c r="K69" s="4"/>
+      <c r="M69" s="29"/>
+      <c r="P69" s="32"/>
+      <c r="Q69" s="32"/>
+    </row>
+    <row r="70" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="M70" s="29"/>
+      <c r="N70" s="30"/>
+      <c r="O70" s="30"/>
+      <c r="P70" s="31"/>
+      <c r="R70" s="30"/>
+      <c r="S70" s="30"/>
+      <c r="T70" s="30"/>
+      <c r="U70" s="29"/>
+      <c r="V70" s="29"/>
+      <c r="W70" s="29"/>
+      <c r="X70" s="29"/>
+      <c r="Y70" s="29"/>
+      <c r="Z70" s="29"/>
+      <c r="AA70" s="29"/>
+      <c r="AB70" s="29"/>
+      <c r="AC70" s="29"/>
+      <c r="AD70" s="29"/>
+      <c r="AE70" s="29"/>
+    </row>
+    <row r="71" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C57" s="42">
-        <f>J55</f>
-        <v>618050.76766828669</v>
-      </c>
-      <c r="D57" s="43"/>
-      <c r="E57" s="10">
+      <c r="C71" s="48">
+        <f>J69</f>
+        <v>324179.69887430896</v>
+      </c>
+      <c r="D71" s="49"/>
+      <c r="E71" s="10">
         <v>100</v>
       </c>
-      <c r="F57" s="12"/>
-      <c r="G57" s="13"/>
-      <c r="H57" s="12"/>
-      <c r="I57" s="14"/>
-      <c r="J57" s="15"/>
-      <c r="K57" s="16"/>
-      <c r="M57" s="12"/>
-      <c r="N57" s="30"/>
-      <c r="O57" s="30"/>
-      <c r="P57" s="30"/>
-      <c r="Q57" s="30"/>
-      <c r="R57" s="30"/>
-      <c r="S57" s="30"/>
-      <c r="T57" s="30"/>
-      <c r="U57" s="12"/>
-      <c r="V57" s="12"/>
-      <c r="W57" s="12"/>
-      <c r="X57" s="12"/>
-      <c r="Y57" s="12"/>
-      <c r="Z57" s="12"/>
-      <c r="AA57" s="12"/>
-      <c r="AB57" s="12"/>
-      <c r="AC57" s="12"/>
-      <c r="AD57" s="12"/>
-      <c r="AE57" s="12"/>
-    </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B58" s="11" t="s">
+      <c r="F71" s="12"/>
+      <c r="G71" s="13"/>
+      <c r="H71" s="12"/>
+      <c r="I71" s="14"/>
+      <c r="J71" s="15"/>
+      <c r="K71" s="16"/>
+      <c r="M71" s="12"/>
+      <c r="N71" s="30"/>
+      <c r="O71" s="30"/>
+      <c r="P71" s="30"/>
+      <c r="Q71" s="30"/>
+      <c r="R71" s="30"/>
+      <c r="S71" s="30"/>
+      <c r="T71" s="30"/>
+      <c r="U71" s="12"/>
+      <c r="V71" s="12"/>
+      <c r="W71" s="12"/>
+      <c r="X71" s="12"/>
+      <c r="Y71" s="12"/>
+      <c r="Z71" s="12"/>
+      <c r="AA71" s="12"/>
+      <c r="AB71" s="12"/>
+      <c r="AC71" s="12"/>
+      <c r="AD71" s="12"/>
+      <c r="AE71" s="12"/>
+    </row>
+    <row r="72" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="B72" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C58" s="46">
+      <c r="C72" s="51">
         <v>400000</v>
       </c>
-      <c r="D58" s="47"/>
-      <c r="E58" s="10"/>
-      <c r="M58" s="29"/>
-      <c r="N58" s="30"/>
-      <c r="O58" s="30"/>
-      <c r="P58" s="30"/>
-      <c r="Q58" s="30"/>
-      <c r="R58" s="30"/>
-      <c r="S58" s="30"/>
-      <c r="T58" s="30"/>
-      <c r="U58" s="29"/>
-      <c r="V58" s="29"/>
-      <c r="W58" s="29"/>
-      <c r="X58" s="29"/>
-      <c r="Y58" s="29"/>
-      <c r="Z58" s="29"/>
-      <c r="AA58" s="29"/>
-      <c r="AB58" s="29"/>
-      <c r="AC58" s="29"/>
-      <c r="AD58" s="29"/>
-      <c r="AE58" s="29"/>
-    </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B59" s="11" t="s">
+      <c r="D72" s="52"/>
+      <c r="E72" s="10"/>
+      <c r="M72" s="29"/>
+      <c r="N72" s="30"/>
+      <c r="O72" s="30"/>
+      <c r="P72" s="30"/>
+      <c r="Q72" s="30"/>
+      <c r="R72" s="30"/>
+      <c r="S72" s="30"/>
+      <c r="T72" s="30"/>
+      <c r="U72" s="29"/>
+      <c r="V72" s="29"/>
+      <c r="W72" s="29"/>
+      <c r="X72" s="29"/>
+      <c r="Y72" s="29"/>
+      <c r="Z72" s="29"/>
+      <c r="AA72" s="29"/>
+      <c r="AB72" s="29"/>
+      <c r="AC72" s="29"/>
+      <c r="AD72" s="29"/>
+      <c r="AE72" s="29"/>
+    </row>
+    <row r="73" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="B73" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C59" s="46">
-        <f>C58-C61-C62</f>
+      <c r="C73" s="51">
+        <f>C72-C75-C76</f>
         <v>380000</v>
       </c>
-      <c r="D59" s="47"/>
-      <c r="E59" s="10">
-        <f>C59/C57*100</f>
-        <v>61.483622362224679</v>
-      </c>
-      <c r="M59" s="29"/>
-      <c r="N59" s="29"/>
-      <c r="O59" s="29"/>
-      <c r="P59" s="29"/>
-      <c r="Q59" s="29"/>
-      <c r="R59" s="29"/>
-      <c r="S59" s="29"/>
-      <c r="T59" s="29"/>
-      <c r="U59" s="29"/>
-      <c r="V59" s="29"/>
-      <c r="W59" s="29"/>
-      <c r="X59" s="29"/>
-      <c r="Y59" s="29"/>
-      <c r="Z59" s="29"/>
-      <c r="AA59" s="29"/>
-      <c r="AB59" s="29"/>
-      <c r="AC59" s="29"/>
-      <c r="AD59" s="29"/>
-      <c r="AE59" s="29"/>
-    </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B60" s="11" t="s">
+      <c r="D73" s="52"/>
+      <c r="E73" s="10">
+        <f>C73/C71*100</f>
+        <v>117.21893792841533</v>
+      </c>
+      <c r="M73" s="29"/>
+      <c r="N73" s="29"/>
+      <c r="O73" s="29"/>
+      <c r="P73" s="29"/>
+      <c r="Q73" s="29"/>
+      <c r="R73" s="29"/>
+      <c r="S73" s="29"/>
+      <c r="T73" s="29"/>
+      <c r="U73" s="29"/>
+      <c r="V73" s="29"/>
+      <c r="W73" s="29"/>
+      <c r="X73" s="29"/>
+      <c r="Y73" s="29"/>
+      <c r="Z73" s="29"/>
+      <c r="AA73" s="29"/>
+      <c r="AB73" s="29"/>
+      <c r="AC73" s="29"/>
+      <c r="AD73" s="29"/>
+      <c r="AE73" s="29"/>
+    </row>
+    <row r="74" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="B74" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C60" s="48">
-        <f>C57-C59</f>
-        <v>238050.76766828669</v>
-      </c>
-      <c r="D60" s="48"/>
-      <c r="E60" s="10">
-        <f>100-E59</f>
-        <v>38.516377637775321</v>
-      </c>
-      <c r="M60" s="29"/>
-      <c r="N60" s="29"/>
-      <c r="O60" s="29"/>
-      <c r="P60" s="29"/>
-      <c r="Q60" s="29"/>
-      <c r="R60" s="29"/>
-      <c r="S60" s="29"/>
-      <c r="T60" s="29"/>
-      <c r="U60" s="29"/>
-      <c r="V60" s="29"/>
-      <c r="W60" s="29"/>
-      <c r="X60" s="29"/>
-      <c r="Y60" s="29"/>
-      <c r="Z60" s="29"/>
-      <c r="AA60" s="29"/>
-      <c r="AB60" s="29"/>
-      <c r="AC60" s="29"/>
-      <c r="AD60" s="29"/>
-      <c r="AE60" s="29"/>
-    </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B61" s="11" t="s">
+      <c r="C74" s="53">
+        <f>C71-C73</f>
+        <v>-55820.301125691039</v>
+      </c>
+      <c r="D74" s="53"/>
+      <c r="E74" s="10">
+        <f>100-E73</f>
+        <v>-17.218937928415329</v>
+      </c>
+      <c r="M74" s="29"/>
+      <c r="N74" s="29"/>
+      <c r="O74" s="29"/>
+      <c r="P74" s="29"/>
+      <c r="Q74" s="29"/>
+      <c r="R74" s="29"/>
+      <c r="S74" s="29"/>
+      <c r="T74" s="29"/>
+      <c r="U74" s="29"/>
+      <c r="V74" s="29"/>
+      <c r="W74" s="29"/>
+      <c r="X74" s="29"/>
+      <c r="Y74" s="29"/>
+      <c r="Z74" s="29"/>
+      <c r="AA74" s="29"/>
+      <c r="AB74" s="29"/>
+      <c r="AC74" s="29"/>
+      <c r="AD74" s="29"/>
+      <c r="AE74" s="29"/>
+    </row>
+    <row r="75" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="B75" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C61" s="42">
-        <f>C58*0.03</f>
+      <c r="C75" s="48">
+        <f>C72*0.03</f>
         <v>12000</v>
       </c>
-      <c r="D61" s="43"/>
-      <c r="E61" s="10">
+      <c r="D75" s="49"/>
+      <c r="E75" s="10">
         <v>3</v>
       </c>
-      <c r="M61" s="29"/>
-      <c r="N61" s="29"/>
-      <c r="O61" s="29"/>
-      <c r="P61" s="29"/>
-      <c r="Q61" s="29"/>
-      <c r="R61" s="29"/>
-      <c r="S61" s="29"/>
-      <c r="T61" s="29"/>
-      <c r="U61" s="29"/>
-      <c r="V61" s="29"/>
-      <c r="W61" s="29"/>
-      <c r="X61" s="29"/>
-      <c r="Y61" s="29"/>
-      <c r="Z61" s="29"/>
-      <c r="AA61" s="29"/>
-      <c r="AB61" s="29"/>
-      <c r="AC61" s="29"/>
-      <c r="AD61" s="29"/>
-      <c r="AE61" s="29"/>
-    </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B62" s="11" t="s">
+      <c r="M75" s="29"/>
+      <c r="N75" s="29"/>
+      <c r="O75" s="29"/>
+      <c r="P75" s="29"/>
+      <c r="Q75" s="29"/>
+      <c r="R75" s="29"/>
+      <c r="S75" s="29"/>
+      <c r="T75" s="29"/>
+      <c r="U75" s="29"/>
+      <c r="V75" s="29"/>
+      <c r="W75" s="29"/>
+      <c r="X75" s="29"/>
+      <c r="Y75" s="29"/>
+      <c r="Z75" s="29"/>
+      <c r="AA75" s="29"/>
+      <c r="AB75" s="29"/>
+      <c r="AC75" s="29"/>
+      <c r="AD75" s="29"/>
+      <c r="AE75" s="29"/>
+    </row>
+    <row r="76" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="B76" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C62" s="42">
-        <f>C58*0.02</f>
+      <c r="C76" s="48">
+        <f>C72*0.02</f>
         <v>8000</v>
       </c>
-      <c r="D62" s="43"/>
-      <c r="E62" s="10">
+      <c r="D76" s="49"/>
+      <c r="E76" s="10">
         <v>2</v>
       </c>
-      <c r="M62" s="29"/>
-      <c r="N62" s="29"/>
-      <c r="O62" s="29"/>
-      <c r="P62" s="29"/>
-      <c r="Q62" s="29"/>
-      <c r="R62" s="29"/>
-      <c r="S62" s="29"/>
-      <c r="T62" s="29"/>
-      <c r="U62" s="29"/>
-      <c r="V62" s="29"/>
-      <c r="W62" s="29"/>
-      <c r="X62" s="29"/>
-      <c r="Y62" s="29"/>
-      <c r="Z62" s="29"/>
-      <c r="AA62" s="29"/>
-      <c r="AB62" s="29"/>
-      <c r="AC62" s="29"/>
-      <c r="AD62" s="29"/>
-      <c r="AE62" s="29"/>
+      <c r="M76" s="29"/>
+      <c r="N76" s="29"/>
+      <c r="O76" s="29"/>
+      <c r="P76" s="29"/>
+      <c r="Q76" s="29"/>
+      <c r="R76" s="29"/>
+      <c r="S76" s="29"/>
+      <c r="T76" s="29"/>
+      <c r="U76" s="29"/>
+      <c r="V76" s="29"/>
+      <c r="W76" s="29"/>
+      <c r="X76" s="29"/>
+      <c r="Y76" s="29"/>
+      <c r="Z76" s="29"/>
+      <c r="AA76" s="29"/>
+      <c r="AB76" s="29"/>
+      <c r="AC76" s="29"/>
+      <c r="AD76" s="29"/>
+      <c r="AE76" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C74:D74"/>
     <mergeCell ref="A6:G6"/>
     <mergeCell ref="H6:K6"/>
     <mergeCell ref="A1:K1"/>
@@ -2696,14 +2732,6 @@
     <mergeCell ref="A3:K3"/>
     <mergeCell ref="A4:K4"/>
     <mergeCell ref="A5:K5"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C60:D60"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2721,139 +2749,139 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE78"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A52" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="J53" sqref="J53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="6.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.140625" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="5.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.109375" customWidth="1"/>
+    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" customWidth="1"/>
+    <col min="5" max="5" width="7.88671875" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="6.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.109375" customWidth="1"/>
+    <col min="17" max="17" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-    </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-    </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="52" t="s">
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-    </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="52" t="s">
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+    </row>
+    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-    </row>
-    <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="53" t="s">
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+    </row>
+    <row r="5" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A5" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-    </row>
-    <row r="6" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="45" t="s">
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+    </row>
+    <row r="6" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-    </row>
-    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="44" t="s">
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="45" t="s">
+      <c r="H7" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="45"/>
-    </row>
-    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+    </row>
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -2888,7 +2916,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A9" s="21">
         <v>1</v>
       </c>
@@ -2913,10 +2941,10 @@
       <c r="J9" s="27"/>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A10" s="38"/>
       <c r="B10" s="39" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C10" s="40">
         <f>3*5</f>
@@ -2943,10 +2971,10 @@
       <c r="K10" s="11"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A11" s="38"/>
       <c r="B11" s="39" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C11" s="40">
         <v>5</v>
@@ -2972,10 +3000,10 @@
       <c r="K11" s="11"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A12" s="38"/>
       <c r="B12" s="39" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C12" s="40">
         <f>2*5</f>
@@ -3002,10 +3030,10 @@
       <c r="K12" s="11"/>
       <c r="M12" s="12"/>
     </row>
-    <row r="13" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A13" s="38"/>
       <c r="B13" s="39" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C13" s="40">
         <f>1*5</f>
@@ -3032,10 +3060,10 @@
       <c r="K13" s="11"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A14" s="38"/>
       <c r="B14" s="39" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C14" s="40">
         <f>2*5</f>
@@ -3046,15 +3074,15 @@
         <v>1.2191405059433098</v>
       </c>
       <c r="E14" s="10">
-        <v>3.87</v>
+        <v>1.83</v>
       </c>
       <c r="F14" s="10">
         <f t="shared" si="0"/>
-        <v>47.180737580006088</v>
+        <v>22.310271258762569</v>
       </c>
       <c r="G14" s="36">
         <f t="shared" si="1"/>
-        <v>47.180737580006088</v>
+        <v>22.310271258762569</v>
       </c>
       <c r="H14" s="27"/>
       <c r="I14" s="27"/>
@@ -3062,7 +3090,7 @@
       <c r="K14" s="11"/>
       <c r="M14" s="12"/>
     </row>
-    <row r="15" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="38"/>
       <c r="B15" s="39"/>
       <c r="C15" s="40">
@@ -3074,15 +3102,15 @@
         <v>1.0920451081987199</v>
       </c>
       <c r="E15" s="10">
-        <v>3.87</v>
+        <v>1.83</v>
       </c>
       <c r="F15" s="10">
         <f t="shared" si="0"/>
-        <v>42.262145687290463</v>
+        <v>19.984425480036574</v>
       </c>
       <c r="G15" s="36">
         <f t="shared" si="1"/>
-        <v>42.262145687290463</v>
+        <v>19.984425480036574</v>
       </c>
       <c r="H15" s="27"/>
       <c r="I15" s="27"/>
@@ -3090,7 +3118,7 @@
       <c r="K15" s="11"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="38"/>
       <c r="B16" s="39"/>
       <c r="C16" s="40">
@@ -3102,15 +3130,15 @@
         <v>0.99055166107893933</v>
       </c>
       <c r="E16" s="10">
-        <v>3.87</v>
+        <v>1.83</v>
       </c>
       <c r="F16" s="10">
         <f t="shared" si="0"/>
-        <v>38.334349283754953</v>
+        <v>18.12709539774459</v>
       </c>
       <c r="G16" s="36">
         <f t="shared" si="1"/>
-        <v>38.334349283754953</v>
+        <v>18.12709539774459</v>
       </c>
       <c r="H16" s="27"/>
       <c r="I16" s="27"/>
@@ -3118,7 +3146,7 @@
       <c r="K16" s="11"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="38"/>
       <c r="B17" s="39"/>
       <c r="C17" s="40">
@@ -3130,15 +3158,15 @@
         <v>0.93965254495580619</v>
       </c>
       <c r="E17" s="10">
-        <v>3.87</v>
+        <v>1.83</v>
       </c>
       <c r="F17" s="10">
         <f t="shared" si="0"/>
-        <v>36.364553489789699</v>
+        <v>17.195641572691255</v>
       </c>
       <c r="G17" s="36">
         <f t="shared" si="1"/>
-        <v>36.364553489789699</v>
+        <v>17.195641572691255</v>
       </c>
       <c r="H17" s="27"/>
       <c r="I17" s="27"/>
@@ -3146,10 +3174,10 @@
       <c r="K17" s="11"/>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A18" s="38"/>
       <c r="B18" s="39" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C18" s="40">
         <f t="shared" si="2"/>
@@ -3160,15 +3188,15 @@
         <v>0.81286193233770188</v>
       </c>
       <c r="E18" s="10">
-        <v>3.87</v>
+        <v>1.83</v>
       </c>
       <c r="F18" s="10">
         <f t="shared" si="0"/>
-        <v>31.457756781469062</v>
+        <v>14.875373361779944</v>
       </c>
       <c r="G18" s="36">
         <f t="shared" si="1"/>
-        <v>31.457756781469062</v>
+        <v>14.875373361779944</v>
       </c>
       <c r="H18" s="27"/>
       <c r="I18" s="27"/>
@@ -3176,7 +3204,7 @@
       <c r="K18" s="11"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="38"/>
       <c r="B19" s="39"/>
       <c r="C19" s="40">
@@ -3188,15 +3216,15 @@
         <v>0.6095702529716549</v>
       </c>
       <c r="E19" s="10">
-        <v>3.87</v>
+        <v>1.83</v>
       </c>
       <c r="F19" s="10">
         <f t="shared" si="0"/>
-        <v>23.590368790003044</v>
+        <v>11.155135629381284</v>
       </c>
       <c r="G19" s="36">
         <f t="shared" si="1"/>
-        <v>23.590368790003044</v>
+        <v>11.155135629381284</v>
       </c>
       <c r="H19" s="27"/>
       <c r="I19" s="27"/>
@@ -3204,7 +3232,7 @@
       <c r="K19" s="11"/>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="38"/>
       <c r="B20" s="39"/>
       <c r="C20" s="40">
@@ -3216,15 +3244,15 @@
         <v>0.40627857360560804</v>
       </c>
       <c r="E20" s="10">
-        <v>3.87</v>
+        <v>1.83</v>
       </c>
       <c r="F20" s="10">
         <f t="shared" si="0"/>
-        <v>15.72298079853703</v>
+        <v>7.4348978969826263</v>
       </c>
       <c r="G20" s="36">
         <f t="shared" si="1"/>
-        <v>15.72298079853703</v>
+        <v>7.4348978969826263</v>
       </c>
       <c r="H20" s="27"/>
       <c r="I20" s="27"/>
@@ -3232,7 +3260,7 @@
       <c r="K20" s="11"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="38"/>
       <c r="B21" s="39"/>
       <c r="C21" s="40">
@@ -3244,15 +3272,15 @@
         <v>0.20319008432388497</v>
       </c>
       <c r="E21" s="10">
-        <v>3.87</v>
+        <v>1.83</v>
       </c>
       <c r="F21" s="10">
         <f t="shared" si="0"/>
-        <v>7.8634562633343483</v>
+        <v>3.7183785431270953</v>
       </c>
       <c r="G21" s="36">
         <f t="shared" si="1"/>
-        <v>7.8634562633343483</v>
+        <v>3.7183785431270953</v>
       </c>
       <c r="H21" s="27"/>
       <c r="I21" s="27"/>
@@ -3260,10 +3288,10 @@
       <c r="K21" s="11"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A22" s="38"/>
       <c r="B22" s="39" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C22" s="40">
         <f>2*6</f>
@@ -3290,7 +3318,7 @@
       <c r="K22" s="11"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="21"/>
       <c r="B23" s="39" t="s">
         <v>26</v>
@@ -3301,7 +3329,7 @@
       <c r="F23" s="24"/>
       <c r="G23" s="27">
         <f>SUM(G10:G22)</f>
-        <v>1274.1974398049376</v>
+        <v>1146.2223102712587</v>
       </c>
       <c r="H23" s="25" t="s">
         <v>31</v>
@@ -3311,14 +3339,14 @@
       </c>
       <c r="J23" s="27">
         <f>G23*I23</f>
-        <v>230846.35016946052</v>
+        <v>207661.09595184392</v>
       </c>
       <c r="K23" s="24"/>
     </row>
-    <row r="24" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="21"/>
       <c r="B24" s="39" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C24" s="22"/>
       <c r="D24" s="23"/>
@@ -3329,11 +3357,11 @@
       <c r="I24" s="26"/>
       <c r="J24" s="27">
         <f>0.13*G23*(1871.42/18.94)</f>
-        <v>16367.086296936026</v>
+        <v>14723.243731014734</v>
       </c>
       <c r="K24" s="24"/>
     </row>
-    <row r="25" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A25" s="21"/>
       <c r="B25" s="37"/>
       <c r="C25" s="22"/>
@@ -3346,12 +3374,12 @@
       <c r="J25" s="27"/>
       <c r="K25" s="24"/>
     </row>
-    <row r="26" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A26" s="38">
         <v>2</v>
       </c>
       <c r="B26" s="37" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C26" s="40"/>
       <c r="D26" s="10"/>
@@ -3364,7 +3392,7 @@
       <c r="K26" s="11"/>
       <c r="M26" s="12"/>
     </row>
-    <row r="27" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="38"/>
       <c r="B27" s="39"/>
       <c r="C27" s="40">
@@ -3389,7 +3417,7 @@
       <c r="K27" s="11"/>
       <c r="M27" s="12"/>
     </row>
-    <row r="28" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="21"/>
       <c r="B28" s="39" t="s">
         <v>26</v>
@@ -3403,7 +3431,7 @@
         <v>133.51687943876433</v>
       </c>
       <c r="H28" s="25" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I28" s="26">
         <v>1070.9000000000001</v>
@@ -3414,10 +3442,10 @@
       </c>
       <c r="K28" s="24"/>
     </row>
-    <row r="29" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="21"/>
       <c r="B29" s="39" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C29" s="22"/>
       <c r="D29" s="23"/>
@@ -3432,7 +3460,7 @@
       </c>
       <c r="K29" s="24"/>
     </row>
-    <row r="30" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="21"/>
       <c r="B30" s="39"/>
       <c r="C30" s="22"/>
@@ -3445,12 +3473,12 @@
       <c r="J30" s="27"/>
       <c r="K30" s="24"/>
     </row>
-    <row r="31" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A31" s="21">
         <v>3</v>
       </c>
       <c r="B31" s="37" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C31" s="22"/>
       <c r="D31" s="23"/>
@@ -3462,10 +3490,10 @@
       <c r="J31" s="27"/>
       <c r="K31" s="24"/>
     </row>
-    <row r="32" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="21"/>
       <c r="B32" s="39" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C32" s="22">
         <f>3*5</f>
@@ -3490,7 +3518,7 @@
       <c r="J32" s="27"/>
       <c r="K32" s="24"/>
     </row>
-    <row r="33" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="21"/>
       <c r="B33" s="39" t="s">
         <v>26</v>
@@ -3504,7 +3532,7 @@
         <v>2.7032916793660471</v>
       </c>
       <c r="H33" s="25" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I33" s="26">
         <v>663.31</v>
@@ -3515,7 +3543,7 @@
       </c>
       <c r="K33" s="24"/>
     </row>
-    <row r="34" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="21"/>
       <c r="B34" s="39"/>
       <c r="C34" s="22"/>
@@ -3528,12 +3556,12 @@
       <c r="J34" s="27"/>
       <c r="K34" s="24"/>
     </row>
-    <row r="35" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A35" s="21">
         <v>4</v>
       </c>
       <c r="B35" s="37" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C35" s="22"/>
       <c r="D35" s="23"/>
@@ -3545,10 +3573,10 @@
       <c r="J35" s="27"/>
       <c r="K35" s="24"/>
     </row>
-    <row r="36" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="21"/>
       <c r="B36" s="39" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C36" s="22">
         <f>C32</f>
@@ -3572,10 +3600,10 @@
       <c r="J36" s="27"/>
       <c r="K36" s="24"/>
     </row>
-    <row r="37" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="21"/>
       <c r="B37" s="39" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C37" s="22">
         <v>1</v>
@@ -3598,7 +3626,7 @@
       <c r="J37" s="27"/>
       <c r="K37" s="24"/>
     </row>
-    <row r="38" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="21"/>
       <c r="B38" s="39" t="s">
         <v>26</v>
@@ -3612,7 +3640,7 @@
         <v>114.51026799237823</v>
       </c>
       <c r="H38" s="25" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I38" s="26">
         <v>1014.97</v>
@@ -3623,10 +3651,10 @@
       </c>
       <c r="K38" s="24"/>
     </row>
-    <row r="39" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="21"/>
       <c r="B39" s="39" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C39" s="22"/>
       <c r="D39" s="23"/>
@@ -3641,7 +3669,7 @@
       </c>
       <c r="K39" s="24"/>
     </row>
-    <row r="40" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="21"/>
       <c r="B40" s="39"/>
       <c r="C40" s="22"/>
@@ -3654,12 +3682,12 @@
       <c r="J40" s="27"/>
       <c r="K40" s="24"/>
     </row>
-    <row r="41" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A41" s="21">
         <v>5</v>
       </c>
       <c r="B41" s="37" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C41" s="22"/>
       <c r="D41" s="23"/>
@@ -3671,10 +3699,10 @@
       <c r="J41" s="27"/>
       <c r="K41" s="24"/>
     </row>
-    <row r="42" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="21"/>
       <c r="B42" s="39" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C42" s="22">
         <f>C36</f>
@@ -3700,7 +3728,7 @@
       <c r="J42" s="27"/>
       <c r="K42" s="24"/>
     </row>
-    <row r="43" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="21"/>
       <c r="B43" s="39" t="s">
         <v>26</v>
@@ -3714,7 +3742,7 @@
         <v>0.2278125</v>
       </c>
       <c r="H43" s="25" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I43" s="26">
         <v>12983.1</v>
@@ -3725,10 +3753,10 @@
       </c>
       <c r="K43" s="24"/>
     </row>
-    <row r="44" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="21"/>
       <c r="B44" s="39" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C44" s="22"/>
       <c r="D44" s="23"/>
@@ -3743,7 +3771,7 @@
       </c>
       <c r="K44" s="24"/>
     </row>
-    <row r="45" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="21"/>
       <c r="B45" s="39"/>
       <c r="C45" s="22"/>
@@ -3756,12 +3784,12 @@
       <c r="J45" s="27"/>
       <c r="K45" s="24"/>
     </row>
-    <row r="46" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A46" s="21">
         <v>6</v>
       </c>
       <c r="B46" s="37" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C46" s="22"/>
       <c r="D46" s="23"/>
@@ -3773,10 +3801,10 @@
       <c r="J46" s="27"/>
       <c r="K46" s="24"/>
     </row>
-    <row r="47" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="21"/>
       <c r="B47" s="39" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C47" s="22">
         <f>C42</f>
@@ -3802,7 +3830,7 @@
       <c r="J47" s="27"/>
       <c r="K47" s="24"/>
     </row>
-    <row r="48" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="21"/>
       <c r="B48" s="39"/>
       <c r="C48" s="22">
@@ -3827,10 +3855,10 @@
       <c r="J48" s="27"/>
       <c r="K48" s="24"/>
     </row>
-    <row r="49" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="21"/>
       <c r="B49" s="39" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C49" s="22">
         <v>1</v>
@@ -3855,7 +3883,7 @@
       <c r="J49" s="27"/>
       <c r="K49" s="24"/>
     </row>
-    <row r="50" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="21"/>
       <c r="B50" s="39" t="s">
         <v>26</v>
@@ -3869,7 +3897,7 @@
         <v>11.246082599428366</v>
       </c>
       <c r="H50" s="25" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I50" s="26">
         <v>13568.9</v>
@@ -3880,10 +3908,10 @@
       </c>
       <c r="K50" s="24"/>
     </row>
-    <row r="51" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="21"/>
       <c r="B51" s="39" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C51" s="22"/>
       <c r="D51" s="23"/>
@@ -3898,7 +3926,7 @@
       </c>
       <c r="K51" s="24"/>
     </row>
-    <row r="52" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="21"/>
       <c r="B52" s="39"/>
       <c r="C52" s="22"/>
@@ -3911,12 +3939,12 @@
       <c r="J52" s="27"/>
       <c r="K52" s="24"/>
     </row>
-    <row r="53" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A53" s="21">
         <v>7</v>
       </c>
       <c r="B53" s="37" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C53" s="22"/>
       <c r="D53" s="23"/>
@@ -3928,10 +3956,10 @@
       <c r="J53" s="27"/>
       <c r="K53" s="24"/>
     </row>
-    <row r="54" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="21"/>
       <c r="B54" s="39" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C54" s="22">
         <f>4*2</f>
@@ -3956,7 +3984,7 @@
       <c r="J54" s="27"/>
       <c r="K54" s="24"/>
     </row>
-    <row r="55" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="21"/>
       <c r="B55" s="39"/>
       <c r="C55" s="22">
@@ -3982,10 +4010,10 @@
       <c r="J55" s="27"/>
       <c r="K55" s="24"/>
     </row>
-    <row r="56" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="21"/>
       <c r="B56" s="39" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C56" s="22">
         <v>2</v>
@@ -4009,7 +4037,7 @@
       <c r="J56" s="27"/>
       <c r="K56" s="24"/>
     </row>
-    <row r="57" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="21"/>
       <c r="B57" s="39"/>
       <c r="C57" s="22">
@@ -4034,7 +4062,7 @@
       <c r="J57" s="27"/>
       <c r="K57" s="24"/>
     </row>
-    <row r="58" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="21"/>
       <c r="B58" s="39" t="s">
         <v>26</v>
@@ -4048,7 +4076,7 @@
         <v>11.73492106065224</v>
       </c>
       <c r="H58" s="25" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I58" s="26">
         <v>14362.76</v>
@@ -4059,10 +4087,10 @@
       </c>
       <c r="K58" s="24"/>
     </row>
-    <row r="59" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="21"/>
       <c r="B59" s="39" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C59" s="22"/>
       <c r="D59" s="23"/>
@@ -4077,7 +4105,7 @@
       </c>
       <c r="K59" s="24"/>
     </row>
-    <row r="60" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="21"/>
       <c r="B60" s="39"/>
       <c r="C60" s="22"/>
@@ -4090,12 +4118,12 @@
       <c r="J60" s="27"/>
       <c r="K60" s="24"/>
     </row>
-    <row r="61" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A61" s="21">
         <v>8</v>
       </c>
       <c r="B61" s="37" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C61" s="22"/>
       <c r="D61" s="23"/>
@@ -4107,10 +4135,10 @@
       <c r="J61" s="27"/>
       <c r="K61" s="24"/>
     </row>
-    <row r="62" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="21"/>
       <c r="B62" s="39" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C62" s="22">
         <f>2*2</f>
@@ -4133,7 +4161,7 @@
       <c r="J62" s="27"/>
       <c r="K62" s="24"/>
     </row>
-    <row r="63" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="21"/>
       <c r="B63" s="39"/>
       <c r="C63" s="22">
@@ -4157,7 +4185,7 @@
       <c r="J63" s="27"/>
       <c r="K63" s="24"/>
     </row>
-    <row r="64" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="21"/>
       <c r="B64" s="39" t="s">
         <v>26</v>
@@ -4171,7 +4199,7 @@
         <v>75.160012191405059</v>
       </c>
       <c r="H64" s="25" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I64" s="26">
         <v>405.86</v>
@@ -4182,10 +4210,10 @@
       </c>
       <c r="K64" s="24"/>
     </row>
-    <row r="65" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="21"/>
       <c r="B65" s="39" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C65" s="22"/>
       <c r="D65" s="23"/>
@@ -4200,7 +4228,7 @@
       </c>
       <c r="K65" s="24"/>
     </row>
-    <row r="66" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:31" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A66" s="21"/>
       <c r="B66" s="37"/>
       <c r="C66" s="22"/>
@@ -4213,12 +4241,12 @@
       <c r="J66" s="27"/>
       <c r="K66" s="24"/>
     </row>
-    <row r="67" spans="1:31" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:31" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A67" s="21">
         <v>9</v>
       </c>
       <c r="B67" s="41" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C67" s="22">
         <v>1</v>
@@ -4231,7 +4259,7 @@
         <v>1</v>
       </c>
       <c r="H67" s="25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I67" s="26">
         <v>5000</v>
@@ -4242,7 +4270,7 @@
       </c>
       <c r="K67" s="24"/>
     </row>
-    <row r="68" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="21"/>
       <c r="B68" s="39"/>
       <c r="C68" s="22"/>
@@ -4255,12 +4283,12 @@
       <c r="J68" s="27"/>
       <c r="K68" s="24"/>
     </row>
-    <row r="69" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="21">
         <v>10</v>
       </c>
       <c r="B69" s="41" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C69" s="22">
         <v>1</v>
@@ -4273,7 +4301,7 @@
         <v>1</v>
       </c>
       <c r="H69" s="25" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="I69" s="26">
         <v>500</v>
@@ -4284,7 +4312,7 @@
       </c>
       <c r="K69" s="24"/>
     </row>
-    <row r="70" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="21"/>
       <c r="B70" s="39"/>
       <c r="C70" s="22"/>
@@ -4297,7 +4325,7 @@
       <c r="J70" s="27"/>
       <c r="K70" s="24"/>
     </row>
-    <row r="71" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A71" s="9"/>
       <c r="B71" s="20" t="s">
         <v>16</v>
@@ -4311,14 +4339,14 @@
       <c r="I71" s="7"/>
       <c r="J71" s="7">
         <f>SUM(J10:J70)</f>
-        <v>927038.34535393445</v>
+        <v>902209.24857039668</v>
       </c>
       <c r="K71" s="4"/>
       <c r="M71" s="29"/>
       <c r="P71" s="32"/>
       <c r="Q71" s="32"/>
     </row>
-    <row r="72" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:31" x14ac:dyDescent="0.3">
       <c r="M72" s="29"/>
       <c r="N72" s="30"/>
       <c r="O72" s="30"/>
@@ -4338,15 +4366,15 @@
       <c r="AD72" s="29"/>
       <c r="AE72" s="29"/>
     </row>
-    <row r="73" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B73" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C73" s="42">
+      <c r="C73" s="48">
         <f>J71</f>
-        <v>927038.34535393445</v>
-      </c>
-      <c r="D73" s="43"/>
+        <v>902209.24857039668</v>
+      </c>
+      <c r="D73" s="49"/>
       <c r="E73" s="10">
         <v>100</v>
       </c>
@@ -4376,14 +4404,14 @@
       <c r="AD73" s="12"/>
       <c r="AE73" s="12"/>
     </row>
-    <row r="74" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B74" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C74" s="46">
+      <c r="C74" s="51">
         <v>400000</v>
       </c>
-      <c r="D74" s="47"/>
+      <c r="D74" s="52"/>
       <c r="E74" s="10"/>
       <c r="M74" s="29"/>
       <c r="N74" s="30"/>
@@ -4405,18 +4433,18 @@
       <c r="AD74" s="29"/>
       <c r="AE74" s="29"/>
     </row>
-    <row r="75" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B75" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C75" s="46">
+      <c r="C75" s="51">
         <f>C74-C77-C78</f>
         <v>380000</v>
       </c>
-      <c r="D75" s="47"/>
+      <c r="D75" s="52"/>
       <c r="E75" s="10">
         <f>C75/C73*100</f>
-        <v>40.990753176981002</v>
+        <v>42.118832255613896</v>
       </c>
       <c r="M75" s="29"/>
       <c r="N75" s="29"/>
@@ -4438,18 +4466,18 @@
       <c r="AD75" s="29"/>
       <c r="AE75" s="29"/>
     </row>
-    <row r="76" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B76" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C76" s="48">
+      <c r="C76" s="53">
         <f>C73-C75</f>
-        <v>547038.34535393445</v>
-      </c>
-      <c r="D76" s="48"/>
+        <v>522209.24857039668</v>
+      </c>
+      <c r="D76" s="53"/>
       <c r="E76" s="10">
         <f>100-E75</f>
-        <v>59.009246823018998</v>
+        <v>57.881167744386104</v>
       </c>
       <c r="M76" s="29"/>
       <c r="N76" s="29"/>
@@ -4471,15 +4499,15 @@
       <c r="AD76" s="29"/>
       <c r="AE76" s="29"/>
     </row>
-    <row r="77" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B77" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C77" s="42">
+      <c r="C77" s="48">
         <f>C74*0.03</f>
         <v>12000</v>
       </c>
-      <c r="D77" s="43"/>
+      <c r="D77" s="49"/>
       <c r="E77" s="10">
         <v>3</v>
       </c>
@@ -4503,15 +4531,15 @@
       <c r="AD77" s="29"/>
       <c r="AE77" s="29"/>
     </row>
-    <row r="78" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B78" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C78" s="42">
+      <c r="C78" s="48">
         <f>C74*0.02</f>
         <v>8000</v>
       </c>
-      <c r="D78" s="43"/>
+      <c r="D78" s="49"/>
       <c r="E78" s="10">
         <v>2</v>
       </c>
@@ -4537,13 +4565,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
     <mergeCell ref="C77:D77"/>
     <mergeCell ref="C78:D78"/>
     <mergeCell ref="A7:F7"/>
@@ -4552,6 +4573,13 @@
     <mergeCell ref="C74:D74"/>
     <mergeCell ref="C75:D75"/>
     <mergeCell ref="C76:D76"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B61" r:id="rId1"/>
@@ -4569,4 +4597,2245 @@
     <brk id="40" max="10" man="1"/>
   </rowBreaks>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AE93"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" topLeftCell="A71" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="I75" sqref="I75"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.109375" customWidth="1"/>
+    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" customWidth="1"/>
+    <col min="5" max="5" width="7.88671875" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="6.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.109375" customWidth="1"/>
+    <col min="17" max="17" width="14.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+    </row>
+    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+    </row>
+    <row r="5" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A5" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+    </row>
+    <row r="6" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+    </row>
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="21">
+        <v>1</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="35"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="24"/>
+    </row>
+    <row r="10" spans="1:13" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="38"/>
+      <c r="B10" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="40">
+        <f>3*4</f>
+        <v>12</v>
+      </c>
+      <c r="D10" s="10">
+        <f>(2.5+1.5+13)/3.281</f>
+        <v>5.1813471502590671</v>
+      </c>
+      <c r="E10" s="10">
+        <v>3.97</v>
+      </c>
+      <c r="F10" s="10">
+        <f>PRODUCT(C10:E10)</f>
+        <v>246.83937823834196</v>
+      </c>
+      <c r="G10" s="36">
+        <f>F10</f>
+        <v>246.83937823834196</v>
+      </c>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="11"/>
+      <c r="M10" s="12"/>
+    </row>
+    <row r="11" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="38"/>
+      <c r="B11" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="40">
+        <v>4</v>
+      </c>
+      <c r="D11" s="10">
+        <f>(1.5+30+1.5)/3.281</f>
+        <v>10.057909174032307</v>
+      </c>
+      <c r="E11" s="10">
+        <v>2.72</v>
+      </c>
+      <c r="F11" s="10">
+        <f t="shared" ref="F11:F22" si="0">PRODUCT(C11:E11)</f>
+        <v>109.43005181347151</v>
+      </c>
+      <c r="G11" s="36">
+        <f t="shared" ref="G11:G22" si="1">F11</f>
+        <v>109.43005181347151</v>
+      </c>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="11"/>
+      <c r="M11" s="12"/>
+    </row>
+    <row r="12" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="38"/>
+      <c r="B12" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="40">
+        <f>2*4</f>
+        <v>8</v>
+      </c>
+      <c r="D12" s="10">
+        <f>16.333/3.281</f>
+        <v>4.97805547089302</v>
+      </c>
+      <c r="E12" s="10">
+        <v>2.72</v>
+      </c>
+      <c r="F12" s="10">
+        <f t="shared" si="0"/>
+        <v>108.32248704663212</v>
+      </c>
+      <c r="G12" s="36">
+        <f t="shared" si="1"/>
+        <v>108.32248704663212</v>
+      </c>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="11"/>
+      <c r="M12" s="12"/>
+    </row>
+    <row r="13" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="38"/>
+      <c r="B13" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="40">
+        <f>1*4</f>
+        <v>4</v>
+      </c>
+      <c r="D13" s="10">
+        <f>3.5/3.281</f>
+        <v>1.0667479427003961</v>
+      </c>
+      <c r="E13" s="10">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F13" s="10">
+        <f t="shared" si="0"/>
+        <v>10.368790003047851</v>
+      </c>
+      <c r="G13" s="36">
+        <f t="shared" si="1"/>
+        <v>10.368790003047851</v>
+      </c>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="11"/>
+      <c r="M13" s="12"/>
+    </row>
+    <row r="14" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="38"/>
+      <c r="B14" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="40">
+        <f>2*4</f>
+        <v>8</v>
+      </c>
+      <c r="D14" s="10">
+        <f>4/3.281</f>
+        <v>1.2191405059433098</v>
+      </c>
+      <c r="E14" s="10">
+        <v>1.83</v>
+      </c>
+      <c r="F14" s="10">
+        <f t="shared" si="0"/>
+        <v>17.848217007010057</v>
+      </c>
+      <c r="G14" s="36">
+        <f t="shared" si="1"/>
+        <v>17.848217007010057</v>
+      </c>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="11"/>
+      <c r="M14" s="12"/>
+    </row>
+    <row r="15" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="38"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="40">
+        <f t="shared" ref="C15:C21" si="2">2*4</f>
+        <v>8</v>
+      </c>
+      <c r="D15" s="10">
+        <f>3.583/3.281</f>
+        <v>1.0920451081987199</v>
+      </c>
+      <c r="E15" s="10">
+        <v>1.83</v>
+      </c>
+      <c r="F15" s="10">
+        <f t="shared" si="0"/>
+        <v>15.987540384029261</v>
+      </c>
+      <c r="G15" s="36">
+        <f t="shared" si="1"/>
+        <v>15.987540384029261</v>
+      </c>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="11"/>
+      <c r="M15" s="12"/>
+    </row>
+    <row r="16" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="38"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="40">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="D16" s="10">
+        <f>3.25/3.281</f>
+        <v>0.99055166107893933</v>
+      </c>
+      <c r="E16" s="10">
+        <v>1.83</v>
+      </c>
+      <c r="F16" s="10">
+        <f t="shared" si="0"/>
+        <v>14.501676318195672</v>
+      </c>
+      <c r="G16" s="36">
+        <f t="shared" si="1"/>
+        <v>14.501676318195672</v>
+      </c>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="11"/>
+      <c r="M16" s="12"/>
+    </row>
+    <row r="17" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="38"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="40">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="D17" s="10">
+        <f>3.083/3.281</f>
+        <v>0.93965254495580619</v>
+      </c>
+      <c r="E17" s="10">
+        <v>1.83</v>
+      </c>
+      <c r="F17" s="10">
+        <f t="shared" si="0"/>
+        <v>13.756513258153003</v>
+      </c>
+      <c r="G17" s="36">
+        <f t="shared" si="1"/>
+        <v>13.756513258153003</v>
+      </c>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="11"/>
+      <c r="M17" s="12"/>
+    </row>
+    <row r="18" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="38"/>
+      <c r="B18" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="40">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="D18" s="10">
+        <f>2.667/3.281</f>
+        <v>0.81286193233770188</v>
+      </c>
+      <c r="E18" s="10">
+        <v>1.83</v>
+      </c>
+      <c r="F18" s="10">
+        <f t="shared" si="0"/>
+        <v>11.900298689423956</v>
+      </c>
+      <c r="G18" s="36">
+        <f t="shared" si="1"/>
+        <v>11.900298689423956</v>
+      </c>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="11"/>
+      <c r="M18" s="12"/>
+    </row>
+    <row r="19" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="38"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="40">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="D19" s="10">
+        <f>2/3.281</f>
+        <v>0.6095702529716549</v>
+      </c>
+      <c r="E19" s="10">
+        <v>1.83</v>
+      </c>
+      <c r="F19" s="10">
+        <f t="shared" si="0"/>
+        <v>8.9241085035050283</v>
+      </c>
+      <c r="G19" s="36">
+        <f t="shared" si="1"/>
+        <v>8.9241085035050283</v>
+      </c>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="11"/>
+      <c r="M19" s="12"/>
+    </row>
+    <row r="20" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="38"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="40">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="D20" s="10">
+        <f>1.333/3.281</f>
+        <v>0.40627857360560804</v>
+      </c>
+      <c r="E20" s="10">
+        <v>1.83</v>
+      </c>
+      <c r="F20" s="10">
+        <f t="shared" si="0"/>
+        <v>5.9479183175861019</v>
+      </c>
+      <c r="G20" s="36">
+        <f t="shared" si="1"/>
+        <v>5.9479183175861019</v>
+      </c>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="11"/>
+      <c r="M20" s="12"/>
+    </row>
+    <row r="21" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="38"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="40">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="D21" s="10">
+        <f>8/12/3.281</f>
+        <v>0.20319008432388497</v>
+      </c>
+      <c r="E21" s="10">
+        <v>1.83</v>
+      </c>
+      <c r="F21" s="10">
+        <f t="shared" si="0"/>
+        <v>2.9747028345016759</v>
+      </c>
+      <c r="G21" s="36">
+        <f t="shared" si="1"/>
+        <v>2.9747028345016759</v>
+      </c>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="11"/>
+      <c r="M21" s="12"/>
+    </row>
+    <row r="22" spans="1:13" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="38"/>
+      <c r="B22" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="40">
+        <f>2*6</f>
+        <v>12</v>
+      </c>
+      <c r="D22" s="10">
+        <f>44/3.281</f>
+        <v>13.41054556537641</v>
+      </c>
+      <c r="E22" s="10">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F22" s="10">
+        <f t="shared" si="0"/>
+        <v>391.05150868637611</v>
+      </c>
+      <c r="G22" s="36">
+        <f t="shared" si="1"/>
+        <v>391.05150868637611</v>
+      </c>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="11"/>
+      <c r="M22" s="12"/>
+    </row>
+    <row r="23" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="21"/>
+      <c r="B23" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="22"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="27">
+        <f>SUM(G10:G22)</f>
+        <v>957.85319110027433</v>
+      </c>
+      <c r="H23" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="I23" s="26">
+        <v>181.17</v>
+      </c>
+      <c r="J23" s="27">
+        <f>G23*I23</f>
+        <v>173534.2626316367</v>
+      </c>
+      <c r="K23" s="24"/>
+    </row>
+    <row r="24" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="21"/>
+      <c r="B24" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="22"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="27">
+        <f>0.13*G23*(1871.42/18.94)</f>
+        <v>12303.63941159207</v>
+      </c>
+      <c r="K24" s="24"/>
+    </row>
+    <row r="25" spans="1:13" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A25" s="21"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="24"/>
+    </row>
+    <row r="26" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.3">
+      <c r="A26" s="38">
+        <v>2</v>
+      </c>
+      <c r="B26" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="40"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="11"/>
+      <c r="M26" s="12"/>
+    </row>
+    <row r="27" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="38"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="40">
+        <v>2</v>
+      </c>
+      <c r="D27" s="10">
+        <f>16.17/3.281</f>
+        <v>4.928375495275831</v>
+      </c>
+      <c r="E27" s="10">
+        <f>(0.75+40+0.75)/3.281</f>
+        <v>12.648582749161841</v>
+      </c>
+      <c r="F27" s="10"/>
+      <c r="G27" s="36">
+        <f>PRODUCT(C27:F27)</f>
+        <v>124.67393054187565</v>
+      </c>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="11"/>
+      <c r="M27" s="12"/>
+    </row>
+    <row r="28" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="21"/>
+      <c r="B28" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="22"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="27">
+        <f>SUM(G27:G27)</f>
+        <v>124.67393054187565</v>
+      </c>
+      <c r="H28" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="I28" s="26">
+        <v>1070.9000000000001</v>
+      </c>
+      <c r="J28" s="27">
+        <f>G28*I28</f>
+        <v>133513.31221729465</v>
+      </c>
+      <c r="K28" s="24"/>
+    </row>
+    <row r="29" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="21"/>
+      <c r="B29" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="22"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="27">
+        <f>0.13*G28*8587.63/10</f>
+        <v>13918.496619811258</v>
+      </c>
+      <c r="K29" s="24"/>
+    </row>
+    <row r="30" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="21"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="24"/>
+    </row>
+    <row r="31" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+      <c r="A31" s="21">
+        <v>3</v>
+      </c>
+      <c r="B31" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="22"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="24"/>
+    </row>
+    <row r="32" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="21"/>
+      <c r="B32" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" s="22">
+        <f>3*4</f>
+        <v>12</v>
+      </c>
+      <c r="D32" s="23">
+        <v>0.45</v>
+      </c>
+      <c r="E32" s="24">
+        <v>0.45</v>
+      </c>
+      <c r="F32" s="24">
+        <f>(2.5+0.25+0.17)/3.281</f>
+        <v>0.88997256933861624</v>
+      </c>
+      <c r="G32" s="36">
+        <f>PRODUCT(C32:F32)</f>
+        <v>2.1626333434928378</v>
+      </c>
+      <c r="H32" s="25"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="24"/>
+    </row>
+    <row r="33" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="21"/>
+      <c r="B33" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="22"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="27">
+        <f>SUM(G32:G32)</f>
+        <v>2.1626333434928378</v>
+      </c>
+      <c r="H33" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="I33" s="26">
+        <v>663.31</v>
+      </c>
+      <c r="J33" s="27">
+        <f>G33*I33</f>
+        <v>1434.4963230722342</v>
+      </c>
+      <c r="K33" s="24"/>
+    </row>
+    <row r="34" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="21"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="24"/>
+    </row>
+    <row r="35" spans="1:11" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A35" s="21">
+        <v>4</v>
+      </c>
+      <c r="B35" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" s="22"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="24"/>
+    </row>
+    <row r="36" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="21"/>
+      <c r="B36" s="39" t="str">
+        <f>B32</f>
+        <v>-for footing</v>
+      </c>
+      <c r="C36" s="22">
+        <f>C32</f>
+        <v>12</v>
+      </c>
+      <c r="D36" s="23">
+        <f>D32</f>
+        <v>0.45</v>
+      </c>
+      <c r="E36" s="24">
+        <f>E32</f>
+        <v>0.45</v>
+      </c>
+      <c r="F36" s="24"/>
+      <c r="G36" s="36">
+        <f>PRODUCT(C36:F36)</f>
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="H36" s="25"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="27"/>
+      <c r="K36" s="24"/>
+    </row>
+    <row r="37" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="21"/>
+      <c r="B37" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="C37" s="22">
+        <f>2*2</f>
+        <v>4</v>
+      </c>
+      <c r="D37" s="23">
+        <f>11.17/3.281</f>
+        <v>3.4044498628466928</v>
+      </c>
+      <c r="E37" s="24">
+        <v>0.23</v>
+      </c>
+      <c r="F37" s="24"/>
+      <c r="G37" s="36">
+        <f t="shared" ref="G37:G38" si="3">PRODUCT(C37:F37)</f>
+        <v>3.1320938738189574</v>
+      </c>
+      <c r="H37" s="25"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="27"/>
+      <c r="K37" s="24"/>
+    </row>
+    <row r="38" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="21"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="22">
+        <f>2*3</f>
+        <v>6</v>
+      </c>
+      <c r="D38" s="23">
+        <f>11.75/3.281</f>
+        <v>3.5812252362084727</v>
+      </c>
+      <c r="E38" s="24">
+        <v>0.23</v>
+      </c>
+      <c r="F38" s="24"/>
+      <c r="G38" s="36">
+        <f t="shared" si="3"/>
+        <v>4.9420908259676919</v>
+      </c>
+      <c r="H38" s="25"/>
+      <c r="I38" s="26"/>
+      <c r="J38" s="27"/>
+      <c r="K38" s="24"/>
+    </row>
+    <row r="39" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="21"/>
+      <c r="B39" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" s="22"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="27">
+        <f>SUM(G36:G38)</f>
+        <v>10.504184699786649</v>
+      </c>
+      <c r="H39" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="I39" s="26">
+        <v>1014.97</v>
+      </c>
+      <c r="J39" s="27">
+        <f>G39*I39</f>
+        <v>10661.432344742456</v>
+      </c>
+      <c r="K39" s="24"/>
+    </row>
+    <row r="40" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="21"/>
+      <c r="B40" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" s="22"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="27">
+        <f>0.13*G39*8617.2/10</f>
+        <v>1176.7165851350196</v>
+      </c>
+      <c r="K40" s="24"/>
+    </row>
+    <row r="41" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="21"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="26"/>
+      <c r="J41" s="27"/>
+      <c r="K41" s="24"/>
+    </row>
+    <row r="42" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+      <c r="A42" s="21">
+        <v>5</v>
+      </c>
+      <c r="B42" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" s="22"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="27"/>
+      <c r="K42" s="24"/>
+    </row>
+    <row r="43" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="21"/>
+      <c r="B43" s="39" t="str">
+        <f>B32</f>
+        <v>-for footing</v>
+      </c>
+      <c r="C43" s="22">
+        <f>C36</f>
+        <v>12</v>
+      </c>
+      <c r="D43" s="23">
+        <f>D36</f>
+        <v>0.45</v>
+      </c>
+      <c r="E43" s="24">
+        <f>E36</f>
+        <v>0.45</v>
+      </c>
+      <c r="F43" s="24">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="G43" s="36">
+        <f>PRODUCT(C43:F43)</f>
+        <v>0.18225</v>
+      </c>
+      <c r="H43" s="25"/>
+      <c r="I43" s="26"/>
+      <c r="J43" s="27"/>
+      <c r="K43" s="24"/>
+    </row>
+    <row r="44" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="21"/>
+      <c r="B44" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="C44" s="22">
+        <f>2*2</f>
+        <v>4</v>
+      </c>
+      <c r="D44" s="23">
+        <f>11.17/3.281</f>
+        <v>3.4044498628466928</v>
+      </c>
+      <c r="E44" s="24">
+        <v>0.23</v>
+      </c>
+      <c r="F44" s="24">
+        <v>0.05</v>
+      </c>
+      <c r="G44" s="36">
+        <f t="shared" ref="G44:G45" si="4">PRODUCT(C44:F44)</f>
+        <v>0.15660469369094787</v>
+      </c>
+      <c r="H44" s="25"/>
+      <c r="I44" s="26"/>
+      <c r="J44" s="27"/>
+      <c r="K44" s="24"/>
+    </row>
+    <row r="45" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="21"/>
+      <c r="B45" s="39"/>
+      <c r="C45" s="22">
+        <f>2*3</f>
+        <v>6</v>
+      </c>
+      <c r="D45" s="23">
+        <f>11.75/3.281</f>
+        <v>3.5812252362084727</v>
+      </c>
+      <c r="E45" s="24">
+        <v>0.23</v>
+      </c>
+      <c r="F45" s="24">
+        <v>0.05</v>
+      </c>
+      <c r="G45" s="36">
+        <f t="shared" si="4"/>
+        <v>0.24710454129838461</v>
+      </c>
+      <c r="H45" s="25"/>
+      <c r="I45" s="26"/>
+      <c r="J45" s="27"/>
+      <c r="K45" s="24"/>
+    </row>
+    <row r="46" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="21"/>
+      <c r="B46" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46" s="22"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="27">
+        <f>SUM(G43:G45)</f>
+        <v>0.58595923498933256</v>
+      </c>
+      <c r="H46" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="I46" s="26">
+        <v>12983.1</v>
+      </c>
+      <c r="J46" s="27">
+        <f>G46*I46</f>
+        <v>7607.5673437900041</v>
+      </c>
+      <c r="K46" s="24"/>
+    </row>
+    <row r="47" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="21"/>
+      <c r="B47" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C47" s="22"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="26"/>
+      <c r="J47" s="27">
+        <f>0.13*G46*8078.11</f>
+        <v>615.34761024875809</v>
+      </c>
+      <c r="K47" s="24"/>
+    </row>
+    <row r="48" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="21"/>
+      <c r="B48" s="39"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="26"/>
+      <c r="J48" s="27"/>
+      <c r="K48" s="24"/>
+    </row>
+    <row r="49" spans="1:11" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A49" s="21">
+        <v>6</v>
+      </c>
+      <c r="B49" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="C49" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D49" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="E49" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="F49" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="G49" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="H49" s="25"/>
+      <c r="I49" s="26"/>
+      <c r="J49" s="27"/>
+      <c r="K49" s="24"/>
+    </row>
+    <row r="50" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="21"/>
+      <c r="B50" s="39" t="str">
+        <f>B44</f>
+        <v>-for tie beam</v>
+      </c>
+      <c r="C50" s="22">
+        <v>4</v>
+      </c>
+      <c r="D50" s="34">
+        <f>(40-0.333+0.583*2)</f>
+        <v>40.832999999999998</v>
+      </c>
+      <c r="E50" s="35">
+        <f>12*12/162</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="F50" s="35">
+        <f>PRODUCT(C50:E50)</f>
+        <v>145.184</v>
+      </c>
+      <c r="G50" s="55">
+        <f>F50/1000</f>
+        <v>0.14518400000000001</v>
+      </c>
+      <c r="H50" s="25"/>
+      <c r="I50" s="26"/>
+      <c r="J50" s="27"/>
+      <c r="K50" s="24"/>
+    </row>
+    <row r="51" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="21"/>
+      <c r="B51" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="C51" s="22">
+        <f>TRUNC((11.917+12.25+11.917-0.17*6)/0.15,0)+3</f>
+        <v>236</v>
+      </c>
+      <c r="D51" s="34">
+        <f>(0.583*4+0.17*2)/3.281</f>
+        <v>0.81438585797013097</v>
+      </c>
+      <c r="E51" s="35">
+        <f>8*8/162</f>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F51" s="35">
+        <f>PRODUCT(C51:E51)</f>
+        <v>75.928913572721342</v>
+      </c>
+      <c r="G51" s="55">
+        <f>F51/1000</f>
+        <v>7.5928913572721343E-2</v>
+      </c>
+      <c r="H51" s="25"/>
+      <c r="I51" s="26"/>
+      <c r="J51" s="27"/>
+      <c r="K51" s="24"/>
+    </row>
+    <row r="52" spans="1:11" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A52" s="21"/>
+      <c r="B52" s="37"/>
+      <c r="C52" s="22">
+        <v>4</v>
+      </c>
+      <c r="D52" s="34">
+        <f>(30-0.333+0.583*2)</f>
+        <v>30.833000000000002</v>
+      </c>
+      <c r="E52" s="35">
+        <f>12*12/162</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="F52" s="35">
+        <f>PRODUCT(C52:E52)</f>
+        <v>109.62844444444444</v>
+      </c>
+      <c r="G52" s="55">
+        <f t="shared" ref="G52" si="5">F52/1000</f>
+        <v>0.10962844444444445</v>
+      </c>
+      <c r="H52" s="25"/>
+      <c r="I52" s="26"/>
+      <c r="J52" s="27"/>
+      <c r="K52" s="24"/>
+    </row>
+    <row r="53" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="21"/>
+      <c r="B53" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="C53" s="22">
+        <f>TRUNC((12.5-0.17*4)/0.15,0)+3</f>
+        <v>81</v>
+      </c>
+      <c r="D53" s="34">
+        <f>(0.583*4+0.17*2)/3.281</f>
+        <v>0.81438585797013097</v>
+      </c>
+      <c r="E53" s="35">
+        <f>8*8/162</f>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F53" s="35">
+        <f>PRODUCT(C53:E53)</f>
+        <v>26.060347455044191</v>
+      </c>
+      <c r="G53" s="55">
+        <f>F53/1000</f>
+        <v>2.6060347455044191E-2</v>
+      </c>
+      <c r="H53" s="25"/>
+      <c r="I53" s="26"/>
+      <c r="J53" s="27"/>
+      <c r="K53" s="24"/>
+    </row>
+    <row r="54" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="21"/>
+      <c r="B54" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C54" s="22"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="24"/>
+      <c r="F54" s="24"/>
+      <c r="G54" s="27">
+        <f>SUM(G50:G53)</f>
+        <v>0.35680170547220996</v>
+      </c>
+      <c r="H54" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="I54" s="26">
+        <v>131940</v>
+      </c>
+      <c r="J54" s="27">
+        <f>G54*I54</f>
+        <v>47076.417020003384</v>
+      </c>
+      <c r="K54" s="24"/>
+    </row>
+    <row r="55" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="21"/>
+      <c r="B55" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C55" s="22"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="24"/>
+      <c r="G55" s="27"/>
+      <c r="H55" s="25"/>
+      <c r="I55" s="26"/>
+      <c r="J55" s="27">
+        <f>0.13*G54*106200</f>
+        <v>4926.0043457493312</v>
+      </c>
+      <c r="K55" s="24"/>
+    </row>
+    <row r="56" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="21"/>
+      <c r="B56" s="39"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="23"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="24"/>
+      <c r="G56" s="27"/>
+      <c r="H56" s="25"/>
+      <c r="I56" s="26"/>
+      <c r="J56" s="27"/>
+      <c r="K56" s="24"/>
+    </row>
+    <row r="57" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+      <c r="A57" s="21">
+        <v>4</v>
+      </c>
+      <c r="B57" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C57" s="22"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="24"/>
+      <c r="G57" s="27"/>
+      <c r="H57" s="25"/>
+      <c r="I57" s="26"/>
+      <c r="J57" s="27"/>
+      <c r="K57" s="24"/>
+    </row>
+    <row r="58" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="21"/>
+      <c r="B58" s="39" t="str">
+        <f>B32</f>
+        <v>-for footing</v>
+      </c>
+      <c r="C58" s="22">
+        <v>12</v>
+      </c>
+      <c r="D58" s="23">
+        <f>0.45*4</f>
+        <v>1.8</v>
+      </c>
+      <c r="E58" s="24"/>
+      <c r="F58" s="24">
+        <v>0.45</v>
+      </c>
+      <c r="G58" s="36">
+        <f t="shared" ref="G58:G59" si="6">PRODUCT(C58:F58)</f>
+        <v>9.7200000000000006</v>
+      </c>
+      <c r="H58" s="25"/>
+      <c r="I58" s="26"/>
+      <c r="J58" s="27"/>
+      <c r="K58" s="24"/>
+    </row>
+    <row r="59" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="21"/>
+      <c r="B59" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="C59" s="22">
+        <v>12</v>
+      </c>
+      <c r="D59" s="23">
+        <f>4*0.3</f>
+        <v>1.2</v>
+      </c>
+      <c r="E59" s="24"/>
+      <c r="F59" s="24">
+        <v>0.3</v>
+      </c>
+      <c r="G59" s="36">
+        <f t="shared" si="6"/>
+        <v>4.3199999999999994</v>
+      </c>
+      <c r="H59" s="25"/>
+      <c r="I59" s="26"/>
+      <c r="J59" s="27"/>
+      <c r="K59" s="24"/>
+    </row>
+    <row r="60" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="21"/>
+      <c r="B60" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="C60" s="22">
+        <f>2*2</f>
+        <v>4</v>
+      </c>
+      <c r="D60" s="23">
+        <f>12.5/3.281</f>
+        <v>3.8098140810728434</v>
+      </c>
+      <c r="E60" s="24"/>
+      <c r="F60" s="24">
+        <f>0.23*2</f>
+        <v>0.46</v>
+      </c>
+      <c r="G60" s="36">
+        <f>PRODUCT(C60:F60)</f>
+        <v>7.0100579091740318</v>
+      </c>
+      <c r="H60" s="25"/>
+      <c r="I60" s="26"/>
+      <c r="J60" s="27"/>
+      <c r="K60" s="24"/>
+    </row>
+    <row r="61" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="21"/>
+      <c r="B61" s="39"/>
+      <c r="C61" s="22">
+        <f>2*2</f>
+        <v>4</v>
+      </c>
+      <c r="D61" s="23">
+        <f>11.917/3.281</f>
+        <v>3.6321243523316058</v>
+      </c>
+      <c r="E61" s="24"/>
+      <c r="F61" s="24">
+        <f t="shared" ref="F61:F62" si="7">0.23*2</f>
+        <v>0.46</v>
+      </c>
+      <c r="G61" s="36">
+        <f>PRODUCT(C61:F61)</f>
+        <v>6.6831088082901546</v>
+      </c>
+      <c r="H61" s="25"/>
+      <c r="I61" s="26"/>
+      <c r="J61" s="27"/>
+      <c r="K61" s="24"/>
+    </row>
+    <row r="62" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="21"/>
+      <c r="B62" s="39"/>
+      <c r="C62" s="22">
+        <f>1*2</f>
+        <v>2</v>
+      </c>
+      <c r="D62" s="23">
+        <f>12.25/3.281</f>
+        <v>3.7336177994513866</v>
+      </c>
+      <c r="E62" s="24"/>
+      <c r="F62" s="24">
+        <f t="shared" si="7"/>
+        <v>0.46</v>
+      </c>
+      <c r="G62" s="36">
+        <f>PRODUCT(C62:F62)</f>
+        <v>3.434928375495276</v>
+      </c>
+      <c r="H62" s="25"/>
+      <c r="I62" s="26"/>
+      <c r="J62" s="27"/>
+      <c r="K62" s="24"/>
+    </row>
+    <row r="63" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="21"/>
+      <c r="B63" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C63" s="22"/>
+      <c r="D63" s="23"/>
+      <c r="E63" s="24"/>
+      <c r="F63" s="24"/>
+      <c r="G63" s="27">
+        <f>SUM(G58:G62)</f>
+        <v>31.168095092959458</v>
+      </c>
+      <c r="H63" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="I63" s="26">
+        <v>915.42</v>
+      </c>
+      <c r="J63" s="27">
+        <f>G63*I63</f>
+        <v>28531.897609996944</v>
+      </c>
+      <c r="K63" s="24"/>
+    </row>
+    <row r="64" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="21"/>
+      <c r="B64" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C64" s="22"/>
+      <c r="D64" s="23"/>
+      <c r="E64" s="24"/>
+      <c r="F64" s="24"/>
+      <c r="G64" s="27"/>
+      <c r="H64" s="25"/>
+      <c r="I64" s="26"/>
+      <c r="J64" s="27">
+        <f>0.13*G63*46827.87/100</f>
+        <v>1897.3961567089666</v>
+      </c>
+      <c r="K64" s="24"/>
+    </row>
+    <row r="65" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="21"/>
+      <c r="B65" s="39"/>
+      <c r="C65" s="22"/>
+      <c r="D65" s="23"/>
+      <c r="E65" s="24"/>
+      <c r="F65" s="24"/>
+      <c r="G65" s="27"/>
+      <c r="H65" s="25"/>
+      <c r="I65" s="26"/>
+      <c r="J65" s="27"/>
+      <c r="K65" s="24"/>
+    </row>
+    <row r="66" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+      <c r="A66" s="21">
+        <v>6</v>
+      </c>
+      <c r="B66" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="C66" s="22"/>
+      <c r="D66" s="23"/>
+      <c r="E66" s="24"/>
+      <c r="F66" s="24"/>
+      <c r="G66" s="27"/>
+      <c r="H66" s="25"/>
+      <c r="I66" s="26"/>
+      <c r="J66" s="27"/>
+      <c r="K66" s="24"/>
+    </row>
+    <row r="67" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="21"/>
+      <c r="B67" s="39" t="str">
+        <f>B32</f>
+        <v>-for footing</v>
+      </c>
+      <c r="C67" s="22">
+        <f>C43</f>
+        <v>12</v>
+      </c>
+      <c r="D67" s="23">
+        <f>D43</f>
+        <v>0.45</v>
+      </c>
+      <c r="E67" s="24">
+        <f>E43</f>
+        <v>0.45</v>
+      </c>
+      <c r="F67" s="24">
+        <v>0.45</v>
+      </c>
+      <c r="G67" s="36">
+        <f>PRODUCT(C67:F67)</f>
+        <v>1.0935000000000001</v>
+      </c>
+      <c r="H67" s="25"/>
+      <c r="I67" s="26"/>
+      <c r="J67" s="27"/>
+      <c r="K67" s="24"/>
+    </row>
+    <row r="68" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="21"/>
+      <c r="B68" s="39" t="str">
+        <f>B59</f>
+        <v>-for column</v>
+      </c>
+      <c r="C68" s="22">
+        <f>C67</f>
+        <v>12</v>
+      </c>
+      <c r="D68" s="23">
+        <v>0.3</v>
+      </c>
+      <c r="E68" s="24">
+        <v>0.3</v>
+      </c>
+      <c r="F68" s="24">
+        <f>0.3+0.45</f>
+        <v>0.75</v>
+      </c>
+      <c r="G68" s="36">
+        <f>PRODUCT(C68:F68)</f>
+        <v>0.80999999999999983</v>
+      </c>
+      <c r="H68" s="25"/>
+      <c r="I68" s="26"/>
+      <c r="J68" s="27"/>
+      <c r="K68" s="24"/>
+    </row>
+    <row r="69" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="21"/>
+      <c r="B69" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="C69" s="22">
+        <v>2</v>
+      </c>
+      <c r="D69" s="23">
+        <f>40/3.281</f>
+        <v>12.1914050594331</v>
+      </c>
+      <c r="E69" s="24">
+        <v>0.23</v>
+      </c>
+      <c r="F69" s="24">
+        <v>0.23</v>
+      </c>
+      <c r="G69" s="36">
+        <f t="shared" ref="G69:G70" si="8">PRODUCT(C69:F69)</f>
+        <v>1.289850655288022</v>
+      </c>
+      <c r="H69" s="25"/>
+      <c r="I69" s="26"/>
+      <c r="J69" s="27"/>
+      <c r="K69" s="24"/>
+    </row>
+    <row r="70" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="21"/>
+      <c r="B70" s="39"/>
+      <c r="C70" s="22">
+        <v>2</v>
+      </c>
+      <c r="D70" s="23">
+        <f>30/3.281</f>
+        <v>9.1435537945748244</v>
+      </c>
+      <c r="E70" s="24">
+        <v>0.23</v>
+      </c>
+      <c r="F70" s="24">
+        <v>0.23</v>
+      </c>
+      <c r="G70" s="36">
+        <f t="shared" si="8"/>
+        <v>0.96738799146601662</v>
+      </c>
+      <c r="H70" s="25"/>
+      <c r="I70" s="26"/>
+      <c r="J70" s="27"/>
+      <c r="K70" s="24"/>
+    </row>
+    <row r="71" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="21"/>
+      <c r="B71" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="C71" s="22">
+        <f>-C67</f>
+        <v>-12</v>
+      </c>
+      <c r="D71" s="23">
+        <f>3/12/3.281</f>
+        <v>7.6196281621456863E-2</v>
+      </c>
+      <c r="E71" s="24">
+        <v>0.23</v>
+      </c>
+      <c r="F71" s="24">
+        <v>0.23</v>
+      </c>
+      <c r="G71" s="36">
+        <f>PRODUCT(C71:F71)</f>
+        <v>-4.8369399573300817E-2</v>
+      </c>
+      <c r="H71" s="25"/>
+      <c r="I71" s="26"/>
+      <c r="J71" s="27"/>
+      <c r="K71" s="24"/>
+    </row>
+    <row r="72" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="21"/>
+      <c r="B72" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C72" s="22"/>
+      <c r="D72" s="23"/>
+      <c r="E72" s="24"/>
+      <c r="F72" s="24"/>
+      <c r="G72" s="27">
+        <f>SUM(G67:G71)</f>
+        <v>4.1123692471807374</v>
+      </c>
+      <c r="H72" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="I72" s="26">
+        <v>13568.9</v>
+      </c>
+      <c r="J72" s="27">
+        <f>G72*I72</f>
+        <v>55800.327078070703</v>
+      </c>
+      <c r="K72" s="24"/>
+    </row>
+    <row r="73" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="21"/>
+      <c r="B73" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C73" s="22"/>
+      <c r="D73" s="23"/>
+      <c r="E73" s="24"/>
+      <c r="F73" s="24"/>
+      <c r="G73" s="27"/>
+      <c r="H73" s="25"/>
+      <c r="I73" s="26"/>
+      <c r="J73" s="27">
+        <f>0.13*G72*9524.2</f>
+        <v>5091.7135339198421</v>
+      </c>
+      <c r="K73" s="24"/>
+    </row>
+    <row r="74" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="21"/>
+      <c r="B74" s="39"/>
+      <c r="C74" s="22"/>
+      <c r="D74" s="23"/>
+      <c r="E74" s="24"/>
+      <c r="F74" s="24"/>
+      <c r="G74" s="27"/>
+      <c r="H74" s="25"/>
+      <c r="I74" s="26"/>
+      <c r="J74" s="27"/>
+      <c r="K74" s="24"/>
+    </row>
+    <row r="75" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+      <c r="A75" s="21">
+        <v>7</v>
+      </c>
+      <c r="B75" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="C75" s="22"/>
+      <c r="D75" s="23"/>
+      <c r="E75" s="24"/>
+      <c r="F75" s="24"/>
+      <c r="G75" s="27"/>
+      <c r="H75" s="25"/>
+      <c r="I75" s="26"/>
+      <c r="J75" s="27"/>
+      <c r="K75" s="24"/>
+    </row>
+    <row r="76" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="21"/>
+      <c r="B76" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="C76" s="22">
+        <f>2*2</f>
+        <v>4</v>
+      </c>
+      <c r="D76" s="23">
+        <f>12.5/3.281</f>
+        <v>3.8098140810728434</v>
+      </c>
+      <c r="E76" s="24">
+        <v>0.23</v>
+      </c>
+      <c r="F76" s="24">
+        <v>0.45</v>
+      </c>
+      <c r="G76" s="36">
+        <f>PRODUCT(C76:F76)</f>
+        <v>1.5772630295641572</v>
+      </c>
+      <c r="H76" s="25"/>
+      <c r="I76" s="26"/>
+      <c r="J76" s="27"/>
+      <c r="K76" s="24"/>
+    </row>
+    <row r="77" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="21"/>
+      <c r="B77" s="39"/>
+      <c r="C77" s="22">
+        <f>2*2</f>
+        <v>4</v>
+      </c>
+      <c r="D77" s="23">
+        <f>11.917/3.281</f>
+        <v>3.6321243523316058</v>
+      </c>
+      <c r="E77" s="24">
+        <v>0.23</v>
+      </c>
+      <c r="F77" s="24">
+        <v>0.45</v>
+      </c>
+      <c r="G77" s="36">
+        <f>PRODUCT(C77:F77)</f>
+        <v>1.5036994818652849</v>
+      </c>
+      <c r="H77" s="25"/>
+      <c r="I77" s="26"/>
+      <c r="J77" s="27"/>
+      <c r="K77" s="24"/>
+    </row>
+    <row r="78" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="21"/>
+      <c r="B78" s="39"/>
+      <c r="C78" s="22">
+        <f>1*2</f>
+        <v>2</v>
+      </c>
+      <c r="D78" s="23">
+        <f>12.25/3.281</f>
+        <v>3.7336177994513866</v>
+      </c>
+      <c r="E78" s="24">
+        <v>0.23</v>
+      </c>
+      <c r="F78" s="24">
+        <v>0.45</v>
+      </c>
+      <c r="G78" s="36">
+        <f>PRODUCT(C78:F78)</f>
+        <v>0.77285888448643714</v>
+      </c>
+      <c r="H78" s="25"/>
+      <c r="I78" s="26"/>
+      <c r="J78" s="27"/>
+      <c r="K78" s="24"/>
+    </row>
+    <row r="79" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="21"/>
+      <c r="B79" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C79" s="22"/>
+      <c r="D79" s="23"/>
+      <c r="E79" s="24"/>
+      <c r="F79" s="24"/>
+      <c r="G79" s="27">
+        <f>SUM(G76:G78)</f>
+        <v>3.8538213959158796</v>
+      </c>
+      <c r="H79" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="I79" s="26">
+        <v>14362.76</v>
+      </c>
+      <c r="J79" s="27">
+        <f>G79*I79</f>
+        <v>55351.511792404759</v>
+      </c>
+      <c r="K79" s="24"/>
+    </row>
+    <row r="80" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="21"/>
+      <c r="B80" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C80" s="22"/>
+      <c r="D80" s="23"/>
+      <c r="E80" s="24"/>
+      <c r="F80" s="24"/>
+      <c r="G80" s="27"/>
+      <c r="H80" s="25"/>
+      <c r="I80" s="26"/>
+      <c r="J80" s="27">
+        <f>0.13*G79*10311.74</f>
+        <v>5166.1485513458092</v>
+      </c>
+      <c r="K80" s="24"/>
+    </row>
+    <row r="81" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="21"/>
+      <c r="B81" s="39"/>
+      <c r="C81" s="22"/>
+      <c r="D81" s="23"/>
+      <c r="E81" s="24"/>
+      <c r="F81" s="24"/>
+      <c r="G81" s="27"/>
+      <c r="H81" s="25"/>
+      <c r="I81" s="26"/>
+      <c r="J81" s="27"/>
+      <c r="K81" s="24"/>
+    </row>
+    <row r="82" spans="1:31" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A82" s="21">
+        <v>9</v>
+      </c>
+      <c r="B82" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="C82" s="22">
+        <v>1</v>
+      </c>
+      <c r="D82" s="23"/>
+      <c r="E82" s="24"/>
+      <c r="F82" s="24"/>
+      <c r="G82" s="36">
+        <f>PRODUCT(C82:F82)</f>
+        <v>1</v>
+      </c>
+      <c r="H82" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="I82" s="26">
+        <f>2000</f>
+        <v>2000</v>
+      </c>
+      <c r="J82" s="27">
+        <f>G82*I82</f>
+        <v>2000</v>
+      </c>
+      <c r="K82" s="24"/>
+    </row>
+    <row r="83" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="21"/>
+      <c r="B83" s="39"/>
+      <c r="C83" s="22"/>
+      <c r="D83" s="23"/>
+      <c r="E83" s="24"/>
+      <c r="F83" s="24"/>
+      <c r="G83" s="27"/>
+      <c r="H83" s="25"/>
+      <c r="I83" s="26"/>
+      <c r="J83" s="27"/>
+      <c r="K83" s="24"/>
+    </row>
+    <row r="84" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="21">
+        <v>10</v>
+      </c>
+      <c r="B84" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="C84" s="22">
+        <v>1</v>
+      </c>
+      <c r="D84" s="23"/>
+      <c r="E84" s="24"/>
+      <c r="F84" s="24"/>
+      <c r="G84" s="36">
+        <f>PRODUCT(C84:F84)</f>
+        <v>1</v>
+      </c>
+      <c r="H84" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="I84" s="26">
+        <v>500</v>
+      </c>
+      <c r="J84" s="27">
+        <f>G84*I84</f>
+        <v>500</v>
+      </c>
+      <c r="K84" s="24"/>
+    </row>
+    <row r="85" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="21"/>
+      <c r="B85" s="39"/>
+      <c r="C85" s="22"/>
+      <c r="D85" s="23"/>
+      <c r="E85" s="24"/>
+      <c r="F85" s="24"/>
+      <c r="G85" s="27"/>
+      <c r="H85" s="25"/>
+      <c r="I85" s="26"/>
+      <c r="J85" s="27"/>
+      <c r="K85" s="24"/>
+    </row>
+    <row r="86" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A86" s="9"/>
+      <c r="B86" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C86" s="8"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="6"/>
+      <c r="G86" s="33"/>
+      <c r="H86" s="7"/>
+      <c r="I86" s="7"/>
+      <c r="J86" s="7">
+        <f>SUM(J10:J85)</f>
+        <v>561106.68717552302</v>
+      </c>
+      <c r="K86" s="4"/>
+      <c r="M86" s="29"/>
+      <c r="P86" s="32"/>
+      <c r="Q86" s="32"/>
+    </row>
+    <row r="87" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="M87" s="29"/>
+      <c r="N87" s="30"/>
+      <c r="O87" s="30"/>
+      <c r="P87" s="31"/>
+      <c r="R87" s="30"/>
+      <c r="S87" s="30"/>
+      <c r="T87" s="30"/>
+      <c r="U87" s="29"/>
+      <c r="V87" s="29"/>
+      <c r="W87" s="29"/>
+      <c r="X87" s="29"/>
+      <c r="Y87" s="29"/>
+      <c r="Z87" s="29"/>
+      <c r="AA87" s="29"/>
+      <c r="AB87" s="29"/>
+      <c r="AC87" s="29"/>
+      <c r="AD87" s="29"/>
+      <c r="AE87" s="29"/>
+    </row>
+    <row r="88" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C88" s="48">
+        <f>J86</f>
+        <v>561106.68717552302</v>
+      </c>
+      <c r="D88" s="49"/>
+      <c r="E88" s="10">
+        <v>100</v>
+      </c>
+      <c r="F88" s="12"/>
+      <c r="G88" s="13"/>
+      <c r="H88" s="12"/>
+      <c r="I88" s="14"/>
+      <c r="J88" s="15"/>
+      <c r="K88" s="16"/>
+      <c r="M88" s="12"/>
+      <c r="N88" s="30"/>
+      <c r="O88" s="30"/>
+      <c r="P88" s="30"/>
+      <c r="Q88" s="30"/>
+      <c r="R88" s="30"/>
+      <c r="S88" s="30"/>
+      <c r="T88" s="30"/>
+      <c r="U88" s="12"/>
+      <c r="V88" s="12"/>
+      <c r="W88" s="12"/>
+      <c r="X88" s="12"/>
+      <c r="Y88" s="12"/>
+      <c r="Z88" s="12"/>
+      <c r="AA88" s="12"/>
+      <c r="AB88" s="12"/>
+      <c r="AC88" s="12"/>
+      <c r="AD88" s="12"/>
+      <c r="AE88" s="12"/>
+    </row>
+    <row r="89" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="B89" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C89" s="51">
+        <v>400000</v>
+      </c>
+      <c r="D89" s="52"/>
+      <c r="E89" s="10"/>
+      <c r="M89" s="29"/>
+      <c r="N89" s="30"/>
+      <c r="O89" s="30"/>
+      <c r="P89" s="30"/>
+      <c r="Q89" s="30"/>
+      <c r="R89" s="30"/>
+      <c r="S89" s="30"/>
+      <c r="T89" s="30"/>
+      <c r="U89" s="29"/>
+      <c r="V89" s="29"/>
+      <c r="W89" s="29"/>
+      <c r="X89" s="29"/>
+      <c r="Y89" s="29"/>
+      <c r="Z89" s="29"/>
+      <c r="AA89" s="29"/>
+      <c r="AB89" s="29"/>
+      <c r="AC89" s="29"/>
+      <c r="AD89" s="29"/>
+      <c r="AE89" s="29"/>
+    </row>
+    <row r="90" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="B90" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C90" s="51">
+        <f>C89-C92-C93</f>
+        <v>380000</v>
+      </c>
+      <c r="D90" s="52"/>
+      <c r="E90" s="10">
+        <f>C90/C88*100</f>
+        <v>67.723306224138796</v>
+      </c>
+      <c r="M90" s="29"/>
+      <c r="N90" s="29"/>
+      <c r="O90" s="29"/>
+      <c r="P90" s="29"/>
+      <c r="Q90" s="29"/>
+      <c r="R90" s="29"/>
+      <c r="S90" s="29"/>
+      <c r="T90" s="29"/>
+      <c r="U90" s="29"/>
+      <c r="V90" s="29"/>
+      <c r="W90" s="29"/>
+      <c r="X90" s="29"/>
+      <c r="Y90" s="29"/>
+      <c r="Z90" s="29"/>
+      <c r="AA90" s="29"/>
+      <c r="AB90" s="29"/>
+      <c r="AC90" s="29"/>
+      <c r="AD90" s="29"/>
+      <c r="AE90" s="29"/>
+    </row>
+    <row r="91" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="B91" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C91" s="53">
+        <f>C88-C90</f>
+        <v>181106.68717552302</v>
+      </c>
+      <c r="D91" s="53"/>
+      <c r="E91" s="10">
+        <f>100-E90</f>
+        <v>32.276693775861204</v>
+      </c>
+      <c r="M91" s="29"/>
+      <c r="N91" s="29"/>
+      <c r="O91" s="29"/>
+      <c r="P91" s="29"/>
+      <c r="Q91" s="29"/>
+      <c r="R91" s="29"/>
+      <c r="S91" s="29"/>
+      <c r="T91" s="29"/>
+      <c r="U91" s="29"/>
+      <c r="V91" s="29"/>
+      <c r="W91" s="29"/>
+      <c r="X91" s="29"/>
+      <c r="Y91" s="29"/>
+      <c r="Z91" s="29"/>
+      <c r="AA91" s="29"/>
+      <c r="AB91" s="29"/>
+      <c r="AC91" s="29"/>
+      <c r="AD91" s="29"/>
+      <c r="AE91" s="29"/>
+    </row>
+    <row r="92" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="B92" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C92" s="48">
+        <f>C89*0.03</f>
+        <v>12000</v>
+      </c>
+      <c r="D92" s="49"/>
+      <c r="E92" s="10">
+        <v>3</v>
+      </c>
+      <c r="M92" s="29"/>
+      <c r="N92" s="29"/>
+      <c r="O92" s="29"/>
+      <c r="P92" s="29"/>
+      <c r="Q92" s="29"/>
+      <c r="R92" s="29"/>
+      <c r="S92" s="29"/>
+      <c r="T92" s="29"/>
+      <c r="U92" s="29"/>
+      <c r="V92" s="29"/>
+      <c r="W92" s="29"/>
+      <c r="X92" s="29"/>
+      <c r="Y92" s="29"/>
+      <c r="Z92" s="29"/>
+      <c r="AA92" s="29"/>
+      <c r="AB92" s="29"/>
+      <c r="AC92" s="29"/>
+      <c r="AD92" s="29"/>
+      <c r="AE92" s="29"/>
+    </row>
+    <row r="93" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="B93" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C93" s="48">
+        <f>C89*0.02</f>
+        <v>8000</v>
+      </c>
+      <c r="D93" s="49"/>
+      <c r="E93" s="10">
+        <v>2</v>
+      </c>
+      <c r="M93" s="29"/>
+      <c r="N93" s="29"/>
+      <c r="O93" s="29"/>
+      <c r="P93" s="29"/>
+      <c r="Q93" s="29"/>
+      <c r="R93" s="29"/>
+      <c r="S93" s="29"/>
+      <c r="T93" s="29"/>
+      <c r="U93" s="29"/>
+      <c r="V93" s="29"/>
+      <c r="W93" s="29"/>
+      <c r="X93" s="29"/>
+      <c r="Y93" s="29"/>
+      <c r="Z93" s="29"/>
+      <c r="AA93" s="29"/>
+      <c r="AB93" s="29"/>
+      <c r="AC93" s="29"/>
+      <c r="AD93" s="29"/>
+      <c r="AE93" s="29"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="H6:K6"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="80" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;LPrepared By:
+Kristal Suwal&amp;CChecked By:
+Er. Milan Phuyal&amp;RApproved By:    
+Er. Prakash Singh Saud</oddFooter>
+  </headerFooter>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="41" max="10" man="1"/>
+  </rowBreaks>
+</worksheet>
 </file>
--- a/ofc/estimates/kurthali truss/truss.xlsx
+++ b/ofc/estimates/kurthali truss/truss.xlsx
@@ -2,26 +2,27 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\081_082\ofc\ofc\estimates\kurthali truss\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\081-082\ofc\estimates\kurthali truss\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="new" sheetId="18" r:id="rId1"/>
-    <sheet name="as per mistry" sheetId="19" r:id="rId2"/>
-    <sheet name="final" sheetId="20" r:id="rId3"/>
+    <sheet name="new" sheetId="18" state="hidden" r:id="rId1"/>
+    <sheet name="as per mistry" sheetId="19" state="hidden" r:id="rId2"/>
+    <sheet name="final" sheetId="20" state="hidden" r:id="rId3"/>
+    <sheet name="400000 final" sheetId="21" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
     <definedName name="adopted_rate_aggregate_10_20_mm">[1]District_Rate!$L$6</definedName>
@@ -42,9 +43,11 @@
     <definedName name="description_784">[2]Abstract!$B$300</definedName>
     <definedName name="excavator">[1]Equipment_Rate!$J$19</definedName>
     <definedName name="generator">[1]Equipment_Rate!$J$20</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'400000 final'!$A$1:$K$93</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'as per mistry'!$A$5:$K$72</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">final!$A$5:$K$87</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">new!$A$1:$K$76</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">'400000 final'!$1:$8</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'as per mistry'!$1:$8</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">final!$1:$8</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">new!$1:$8</definedName>
@@ -52,7 +55,7 @@
     <definedName name="skilled_blacksmith">[1]District_Rate!$D$149</definedName>
     <definedName name="unskilled">[1]District_Rate!$D$156</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -62,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="72">
   <si>
     <t>Government of Nepal</t>
   </si>
@@ -283,10 +286,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
@@ -451,9 +454,9 @@
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
@@ -464,7 +467,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -472,7 +475,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -489,7 +492,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -498,7 +501,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -510,7 +513,7 @@
     <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -554,16 +557,38 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -575,28 +600,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1272,135 +1275,135 @@
       <selection activeCell="A46" sqref="A46:XFD59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.109375" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" customWidth="1"/>
-    <col min="5" max="5" width="7.88671875" customWidth="1"/>
-    <col min="6" max="6" width="7.109375" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="6.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.109375" customWidth="1"/>
-    <col min="17" max="17" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="6.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-    </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="45" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-    </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="46" t="s">
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-    </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="46" t="s">
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+    </row>
+    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-    </row>
-    <row r="5" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="47" t="s">
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+    </row>
+    <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-    </row>
-    <row r="6" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" s="42" t="s">
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+    </row>
+    <row r="6" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="43" t="s">
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-    </row>
-    <row r="7" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="50" t="s">
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="43" t="s">
+      <c r="H7" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
-    </row>
-    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+    </row>
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -1435,7 +1438,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="21">
         <v>1</v>
       </c>
@@ -1460,7 +1463,7 @@
       <c r="J9" s="27"/>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="38"/>
       <c r="B10" s="39" t="s">
         <v>46</v>
@@ -1489,7 +1492,7 @@
       <c r="K10" s="11"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="38"/>
       <c r="B11" s="39" t="s">
         <v>47</v>
@@ -1518,7 +1521,7 @@
       <c r="K11" s="11"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="38"/>
       <c r="B12" s="39"/>
       <c r="C12" s="40">
@@ -1546,7 +1549,7 @@
       <c r="K12" s="11"/>
       <c r="M12" s="12"/>
     </row>
-    <row r="13" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="38"/>
       <c r="B13" s="39" t="s">
         <v>51</v>
@@ -1576,7 +1579,7 @@
       <c r="K13" s="11"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="38"/>
       <c r="B14" s="39" t="s">
         <v>48</v>
@@ -1605,7 +1608,7 @@
       <c r="K14" s="11"/>
       <c r="M14" s="12"/>
     </row>
-    <row r="15" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="38"/>
       <c r="B15" s="39" t="s">
         <v>50</v>
@@ -1634,7 +1637,7 @@
       <c r="K15" s="11"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="38"/>
       <c r="B16" s="39"/>
       <c r="C16" s="40">
@@ -1661,7 +1664,7 @@
       <c r="K16" s="11"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="38"/>
       <c r="B17" s="39"/>
       <c r="C17" s="40">
@@ -1688,7 +1691,7 @@
       <c r="K17" s="11"/>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="38"/>
       <c r="B18" s="39"/>
       <c r="C18" s="40">
@@ -1715,7 +1718,7 @@
       <c r="K18" s="11"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="38"/>
       <c r="B19" s="39" t="s">
         <v>38</v>
@@ -1744,7 +1747,7 @@
       <c r="K19" s="11"/>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="38"/>
       <c r="B20" s="39"/>
       <c r="C20" s="40">
@@ -1771,7 +1774,7 @@
       <c r="K20" s="11"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="38"/>
       <c r="B21" s="39"/>
       <c r="C21" s="40">
@@ -1798,7 +1801,7 @@
       <c r="K21" s="11"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="38"/>
       <c r="B22" s="39"/>
       <c r="C22" s="40">
@@ -1825,7 +1828,7 @@
       <c r="K22" s="11"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="38"/>
       <c r="B23" s="39" t="s">
         <v>52</v>
@@ -1855,7 +1858,7 @@
       <c r="K23" s="11"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="21"/>
       <c r="B24" s="39" t="s">
         <v>26</v>
@@ -1880,7 +1883,7 @@
       </c>
       <c r="K24" s="24"/>
     </row>
-    <row r="25" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="21"/>
       <c r="B25" s="39" t="s">
         <v>39</v>
@@ -1898,7 +1901,7 @@
       </c>
       <c r="K25" s="24"/>
     </row>
-    <row r="26" spans="1:13" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="21"/>
       <c r="B26" s="37"/>
       <c r="C26" s="22"/>
@@ -1911,7 +1914,7 @@
       <c r="J26" s="27"/>
       <c r="K26" s="24"/>
     </row>
-    <row r="27" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="38">
         <v>2</v>
       </c>
@@ -1929,7 +1932,7 @@
       <c r="K27" s="11"/>
       <c r="M27" s="12"/>
     </row>
-    <row r="28" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="38"/>
       <c r="B28" s="39"/>
       <c r="C28" s="40">
@@ -1954,7 +1957,7 @@
       <c r="K28" s="11"/>
       <c r="M28" s="12"/>
     </row>
-    <row r="29" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="21"/>
       <c r="B29" s="39" t="s">
         <v>26</v>
@@ -1979,7 +1982,7 @@
       </c>
       <c r="K29" s="24"/>
     </row>
-    <row r="30" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="21"/>
       <c r="B30" s="39" t="s">
         <v>39</v>
@@ -1997,7 +2000,7 @@
       </c>
       <c r="K30" s="24"/>
     </row>
-    <row r="31" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="21"/>
       <c r="B31" s="39"/>
       <c r="C31" s="22"/>
@@ -2010,7 +2013,7 @@
       <c r="J31" s="27"/>
       <c r="K31" s="24"/>
     </row>
-    <row r="32" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="21">
         <v>3</v>
       </c>
@@ -2027,7 +2030,7 @@
       <c r="J32" s="27"/>
       <c r="K32" s="24"/>
     </row>
-    <row r="33" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="21"/>
       <c r="B33" s="39" t="s">
         <v>41</v>
@@ -2055,7 +2058,7 @@
       <c r="J33" s="27"/>
       <c r="K33" s="24"/>
     </row>
-    <row r="34" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="21"/>
       <c r="B34" s="39" t="s">
         <v>26</v>
@@ -2080,7 +2083,7 @@
       </c>
       <c r="K34" s="24"/>
     </row>
-    <row r="35" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="21"/>
       <c r="B35" s="39"/>
       <c r="C35" s="22"/>
@@ -2093,7 +2096,7 @@
       <c r="J35" s="27"/>
       <c r="K35" s="24"/>
     </row>
-    <row r="36" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="21">
         <v>3</v>
       </c>
@@ -2110,7 +2113,7 @@
       <c r="J36" s="27"/>
       <c r="K36" s="24"/>
     </row>
-    <row r="37" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="21"/>
       <c r="B37" s="39" t="s">
         <v>41</v>
@@ -2137,7 +2140,7 @@
       <c r="J37" s="27"/>
       <c r="K37" s="24"/>
     </row>
-    <row r="38" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="21"/>
       <c r="B38" s="39" t="s">
         <v>26</v>
@@ -2162,7 +2165,7 @@
       </c>
       <c r="K38" s="24"/>
     </row>
-    <row r="39" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="21"/>
       <c r="B39" s="39" t="s">
         <v>39</v>
@@ -2180,7 +2183,7 @@
       </c>
       <c r="K39" s="24"/>
     </row>
-    <row r="40" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="21"/>
       <c r="B40" s="39"/>
       <c r="C40" s="22"/>
@@ -2193,7 +2196,7 @@
       <c r="J40" s="27"/>
       <c r="K40" s="24"/>
     </row>
-    <row r="41" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="21">
         <v>3</v>
       </c>
@@ -2210,7 +2213,7 @@
       <c r="J41" s="27"/>
       <c r="K41" s="24"/>
     </row>
-    <row r="42" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="21"/>
       <c r="B42" s="39" t="s">
         <v>41</v>
@@ -2237,7 +2240,7 @@
       <c r="J42" s="27"/>
       <c r="K42" s="24"/>
     </row>
-    <row r="43" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="21"/>
       <c r="B43" s="39" t="s">
         <v>26</v>
@@ -2262,7 +2265,7 @@
       </c>
       <c r="K43" s="24"/>
     </row>
-    <row r="44" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="21"/>
       <c r="B44" s="39" t="s">
         <v>39</v>
@@ -2280,7 +2283,7 @@
       </c>
       <c r="K44" s="24"/>
     </row>
-    <row r="45" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="21"/>
       <c r="B45" s="39"/>
       <c r="C45" s="22"/>
@@ -2293,7 +2296,7 @@
       <c r="J45" s="27"/>
       <c r="K45" s="24"/>
     </row>
-    <row r="60" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A60" s="21">
         <v>3</v>
       </c>
@@ -2310,7 +2313,7 @@
       <c r="J60" s="27"/>
       <c r="K60" s="24"/>
     </row>
-    <row r="61" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="21"/>
       <c r="B61" s="39" t="s">
         <v>41</v>
@@ -2337,7 +2340,7 @@
       <c r="J61" s="27"/>
       <c r="K61" s="24"/>
     </row>
-    <row r="62" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="21"/>
       <c r="B62" s="39" t="s">
         <v>26</v>
@@ -2362,7 +2365,7 @@
       </c>
       <c r="K62" s="24"/>
     </row>
-    <row r="63" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="21"/>
       <c r="B63" s="39" t="s">
         <v>39</v>
@@ -2380,7 +2383,7 @@
       </c>
       <c r="K63" s="24"/>
     </row>
-    <row r="64" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="21"/>
       <c r="B64" s="39"/>
       <c r="C64" s="22"/>
@@ -2393,7 +2396,7 @@
       <c r="J64" s="27"/>
       <c r="K64" s="24"/>
     </row>
-    <row r="65" spans="1:31" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:31" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A65" s="21">
         <v>3</v>
       </c>
@@ -2422,7 +2425,7 @@
       </c>
       <c r="K65" s="24"/>
     </row>
-    <row r="66" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="21"/>
       <c r="B66" s="39"/>
       <c r="C66" s="22"/>
@@ -2435,7 +2438,7 @@
       <c r="J66" s="27"/>
       <c r="K66" s="24"/>
     </row>
-    <row r="67" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="21">
         <v>4</v>
       </c>
@@ -2464,7 +2467,7 @@
       </c>
       <c r="K67" s="24"/>
     </row>
-    <row r="68" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="21"/>
       <c r="B68" s="39"/>
       <c r="C68" s="22"/>
@@ -2477,7 +2480,7 @@
       <c r="J68" s="27"/>
       <c r="K68" s="24"/>
     </row>
-    <row r="69" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A69" s="9"/>
       <c r="B69" s="20" t="s">
         <v>16</v>
@@ -2498,7 +2501,7 @@
       <c r="P69" s="32"/>
       <c r="Q69" s="32"/>
     </row>
-    <row r="70" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:31" x14ac:dyDescent="0.25">
       <c r="M70" s="29"/>
       <c r="N70" s="30"/>
       <c r="O70" s="30"/>
@@ -2518,15 +2521,15 @@
       <c r="AD70" s="29"/>
       <c r="AE70" s="29"/>
     </row>
-    <row r="71" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B71" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C71" s="48">
+      <c r="C71" s="44">
         <f>J69</f>
         <v>324179.69887430896</v>
       </c>
-      <c r="D71" s="49"/>
+      <c r="D71" s="45"/>
       <c r="E71" s="10">
         <v>100</v>
       </c>
@@ -2556,14 +2559,14 @@
       <c r="AD71" s="12"/>
       <c r="AE71" s="12"/>
     </row>
-    <row r="72" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B72" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C72" s="51">
+      <c r="C72" s="48">
         <v>400000</v>
       </c>
-      <c r="D72" s="52"/>
+      <c r="D72" s="49"/>
       <c r="E72" s="10"/>
       <c r="M72" s="29"/>
       <c r="N72" s="30"/>
@@ -2585,15 +2588,15 @@
       <c r="AD72" s="29"/>
       <c r="AE72" s="29"/>
     </row>
-    <row r="73" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B73" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C73" s="51">
+      <c r="C73" s="48">
         <f>C72-C75-C76</f>
         <v>380000</v>
       </c>
-      <c r="D73" s="52"/>
+      <c r="D73" s="49"/>
       <c r="E73" s="10">
         <f>C73/C71*100</f>
         <v>117.21893792841533</v>
@@ -2618,15 +2621,15 @@
       <c r="AD73" s="29"/>
       <c r="AE73" s="29"/>
     </row>
-    <row r="74" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B74" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C74" s="53">
+      <c r="C74" s="50">
         <f>C71-C73</f>
         <v>-55820.301125691039</v>
       </c>
-      <c r="D74" s="53"/>
+      <c r="D74" s="50"/>
       <c r="E74" s="10">
         <f>100-E73</f>
         <v>-17.218937928415329</v>
@@ -2651,15 +2654,15 @@
       <c r="AD74" s="29"/>
       <c r="AE74" s="29"/>
     </row>
-    <row r="75" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B75" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C75" s="48">
+      <c r="C75" s="44">
         <f>C72*0.03</f>
         <v>12000</v>
       </c>
-      <c r="D75" s="49"/>
+      <c r="D75" s="45"/>
       <c r="E75" s="10">
         <v>3</v>
       </c>
@@ -2683,15 +2686,15 @@
       <c r="AD75" s="29"/>
       <c r="AE75" s="29"/>
     </row>
-    <row r="76" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B76" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C76" s="48">
+      <c r="C76" s="44">
         <f>C72*0.02</f>
         <v>8000</v>
       </c>
-      <c r="D76" s="49"/>
+      <c r="D76" s="45"/>
       <c r="E76" s="10">
         <v>2</v>
       </c>
@@ -2717,6 +2720,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
     <mergeCell ref="C75:D75"/>
     <mergeCell ref="C76:D76"/>
     <mergeCell ref="A7:F7"/>
@@ -2725,13 +2735,6 @@
     <mergeCell ref="C72:D72"/>
     <mergeCell ref="C73:D73"/>
     <mergeCell ref="C74:D74"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2749,139 +2752,139 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE78"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A52" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A58" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <selection activeCell="J53" sqref="J53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.109375" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" customWidth="1"/>
-    <col min="5" max="5" width="7.88671875" customWidth="1"/>
-    <col min="6" max="6" width="7.109375" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="6.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.109375" customWidth="1"/>
-    <col min="17" max="17" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="6.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-    </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="45" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-    </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="46" t="s">
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-    </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="46" t="s">
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+    </row>
+    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-    </row>
-    <row r="5" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="47" t="s">
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+    </row>
+    <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-    </row>
-    <row r="6" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" s="42" t="s">
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+    </row>
+    <row r="6" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="43" t="s">
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-    </row>
-    <row r="7" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="50" t="s">
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="43" t="s">
+      <c r="H7" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
-    </row>
-    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+    </row>
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -2916,7 +2919,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="21">
         <v>1</v>
       </c>
@@ -2941,7 +2944,7 @@
       <c r="J9" s="27"/>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="38"/>
       <c r="B10" s="39" t="s">
         <v>46</v>
@@ -2971,7 +2974,7 @@
       <c r="K10" s="11"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="38"/>
       <c r="B11" s="39" t="s">
         <v>47</v>
@@ -3000,7 +3003,7 @@
       <c r="K11" s="11"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="38"/>
       <c r="B12" s="39" t="s">
         <v>51</v>
@@ -3030,7 +3033,7 @@
       <c r="K12" s="11"/>
       <c r="M12" s="12"/>
     </row>
-    <row r="13" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="38"/>
       <c r="B13" s="39" t="s">
         <v>48</v>
@@ -3060,7 +3063,7 @@
       <c r="K13" s="11"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="38"/>
       <c r="B14" s="39" t="s">
         <v>50</v>
@@ -3090,7 +3093,7 @@
       <c r="K14" s="11"/>
       <c r="M14" s="12"/>
     </row>
-    <row r="15" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="38"/>
       <c r="B15" s="39"/>
       <c r="C15" s="40">
@@ -3118,7 +3121,7 @@
       <c r="K15" s="11"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="38"/>
       <c r="B16" s="39"/>
       <c r="C16" s="40">
@@ -3146,7 +3149,7 @@
       <c r="K16" s="11"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="38"/>
       <c r="B17" s="39"/>
       <c r="C17" s="40">
@@ -3174,7 +3177,7 @@
       <c r="K17" s="11"/>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="38"/>
       <c r="B18" s="39" t="s">
         <v>49</v>
@@ -3204,7 +3207,7 @@
       <c r="K18" s="11"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="38"/>
       <c r="B19" s="39"/>
       <c r="C19" s="40">
@@ -3232,7 +3235,7 @@
       <c r="K19" s="11"/>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="38"/>
       <c r="B20" s="39"/>
       <c r="C20" s="40">
@@ -3260,7 +3263,7 @@
       <c r="K20" s="11"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="38"/>
       <c r="B21" s="39"/>
       <c r="C21" s="40">
@@ -3288,7 +3291,7 @@
       <c r="K21" s="11"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="38"/>
       <c r="B22" s="39" t="s">
         <v>52</v>
@@ -3318,7 +3321,7 @@
       <c r="K22" s="11"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="21"/>
       <c r="B23" s="39" t="s">
         <v>26</v>
@@ -3343,7 +3346,7 @@
       </c>
       <c r="K23" s="24"/>
     </row>
-    <row r="24" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="21"/>
       <c r="B24" s="39" t="s">
         <v>39</v>
@@ -3361,7 +3364,7 @@
       </c>
       <c r="K24" s="24"/>
     </row>
-    <row r="25" spans="1:13" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="21"/>
       <c r="B25" s="37"/>
       <c r="C25" s="22"/>
@@ -3374,7 +3377,7 @@
       <c r="J25" s="27"/>
       <c r="K25" s="24"/>
     </row>
-    <row r="26" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="38">
         <v>2</v>
       </c>
@@ -3392,7 +3395,7 @@
       <c r="K26" s="11"/>
       <c r="M26" s="12"/>
     </row>
-    <row r="27" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="38"/>
       <c r="B27" s="39"/>
       <c r="C27" s="40">
@@ -3417,7 +3420,7 @@
       <c r="K27" s="11"/>
       <c r="M27" s="12"/>
     </row>
-    <row r="28" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="21"/>
       <c r="B28" s="39" t="s">
         <v>26</v>
@@ -3442,7 +3445,7 @@
       </c>
       <c r="K28" s="24"/>
     </row>
-    <row r="29" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="21"/>
       <c r="B29" s="39" t="s">
         <v>39</v>
@@ -3460,7 +3463,7 @@
       </c>
       <c r="K29" s="24"/>
     </row>
-    <row r="30" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="21"/>
       <c r="B30" s="39"/>
       <c r="C30" s="22"/>
@@ -3473,7 +3476,7 @@
       <c r="J30" s="27"/>
       <c r="K30" s="24"/>
     </row>
-    <row r="31" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="21">
         <v>3</v>
       </c>
@@ -3490,7 +3493,7 @@
       <c r="J31" s="27"/>
       <c r="K31" s="24"/>
     </row>
-    <row r="32" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="21"/>
       <c r="B32" s="39" t="s">
         <v>41</v>
@@ -3518,7 +3521,7 @@
       <c r="J32" s="27"/>
       <c r="K32" s="24"/>
     </row>
-    <row r="33" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="21"/>
       <c r="B33" s="39" t="s">
         <v>26</v>
@@ -3543,7 +3546,7 @@
       </c>
       <c r="K33" s="24"/>
     </row>
-    <row r="34" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="21"/>
       <c r="B34" s="39"/>
       <c r="C34" s="22"/>
@@ -3556,7 +3559,7 @@
       <c r="J34" s="27"/>
       <c r="K34" s="24"/>
     </row>
-    <row r="35" spans="1:11" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="21">
         <v>4</v>
       </c>
@@ -3573,7 +3576,7 @@
       <c r="J35" s="27"/>
       <c r="K35" s="24"/>
     </row>
-    <row r="36" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="21"/>
       <c r="B36" s="39" t="s">
         <v>41</v>
@@ -3600,7 +3603,7 @@
       <c r="J36" s="27"/>
       <c r="K36" s="24"/>
     </row>
-    <row r="37" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="21"/>
       <c r="B37" s="39" t="s">
         <v>56</v>
@@ -3626,7 +3629,7 @@
       <c r="J37" s="27"/>
       <c r="K37" s="24"/>
     </row>
-    <row r="38" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="21"/>
       <c r="B38" s="39" t="s">
         <v>26</v>
@@ -3651,7 +3654,7 @@
       </c>
       <c r="K38" s="24"/>
     </row>
-    <row r="39" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="21"/>
       <c r="B39" s="39" t="s">
         <v>39</v>
@@ -3669,7 +3672,7 @@
       </c>
       <c r="K39" s="24"/>
     </row>
-    <row r="40" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="21"/>
       <c r="B40" s="39"/>
       <c r="C40" s="22"/>
@@ -3682,7 +3685,7 @@
       <c r="J40" s="27"/>
       <c r="K40" s="24"/>
     </row>
-    <row r="41" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="21">
         <v>5</v>
       </c>
@@ -3699,7 +3702,7 @@
       <c r="J41" s="27"/>
       <c r="K41" s="24"/>
     </row>
-    <row r="42" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="21"/>
       <c r="B42" s="39" t="s">
         <v>41</v>
@@ -3728,7 +3731,7 @@
       <c r="J42" s="27"/>
       <c r="K42" s="24"/>
     </row>
-    <row r="43" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="21"/>
       <c r="B43" s="39" t="s">
         <v>26</v>
@@ -3753,7 +3756,7 @@
       </c>
       <c r="K43" s="24"/>
     </row>
-    <row r="44" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="21"/>
       <c r="B44" s="39" t="s">
         <v>39</v>
@@ -3771,7 +3774,7 @@
       </c>
       <c r="K44" s="24"/>
     </row>
-    <row r="45" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="21"/>
       <c r="B45" s="39"/>
       <c r="C45" s="22"/>
@@ -3784,7 +3787,7 @@
       <c r="J45" s="27"/>
       <c r="K45" s="24"/>
     </row>
-    <row r="46" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="21">
         <v>6</v>
       </c>
@@ -3801,7 +3804,7 @@
       <c r="J46" s="27"/>
       <c r="K46" s="24"/>
     </row>
-    <row r="47" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="21"/>
       <c r="B47" s="39" t="s">
         <v>57</v>
@@ -3830,7 +3833,7 @@
       <c r="J47" s="27"/>
       <c r="K47" s="24"/>
     </row>
-    <row r="48" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="21"/>
       <c r="B48" s="39"/>
       <c r="C48" s="22">
@@ -3855,7 +3858,7 @@
       <c r="J48" s="27"/>
       <c r="K48" s="24"/>
     </row>
-    <row r="49" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="21"/>
       <c r="B49" s="39" t="s">
         <v>56</v>
@@ -3883,7 +3886,7 @@
       <c r="J49" s="27"/>
       <c r="K49" s="24"/>
     </row>
-    <row r="50" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="21"/>
       <c r="B50" s="39" t="s">
         <v>26</v>
@@ -3908,7 +3911,7 @@
       </c>
       <c r="K50" s="24"/>
     </row>
-    <row r="51" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="21"/>
       <c r="B51" s="39" t="s">
         <v>39</v>
@@ -3926,7 +3929,7 @@
       </c>
       <c r="K51" s="24"/>
     </row>
-    <row r="52" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="21"/>
       <c r="B52" s="39"/>
       <c r="C52" s="22"/>
@@ -3939,7 +3942,7 @@
       <c r="J52" s="27"/>
       <c r="K52" s="24"/>
     </row>
-    <row r="53" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="21">
         <v>7</v>
       </c>
@@ -3956,7 +3959,7 @@
       <c r="J53" s="27"/>
       <c r="K53" s="24"/>
     </row>
-    <row r="54" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="21"/>
       <c r="B54" s="39" t="s">
         <v>57</v>
@@ -3984,7 +3987,7 @@
       <c r="J54" s="27"/>
       <c r="K54" s="24"/>
     </row>
-    <row r="55" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="21"/>
       <c r="B55" s="39"/>
       <c r="C55" s="22">
@@ -4010,7 +4013,7 @@
       <c r="J55" s="27"/>
       <c r="K55" s="24"/>
     </row>
-    <row r="56" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="21"/>
       <c r="B56" s="39" t="s">
         <v>58</v>
@@ -4037,7 +4040,7 @@
       <c r="J56" s="27"/>
       <c r="K56" s="24"/>
     </row>
-    <row r="57" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="21"/>
       <c r="B57" s="39"/>
       <c r="C57" s="22">
@@ -4062,7 +4065,7 @@
       <c r="J57" s="27"/>
       <c r="K57" s="24"/>
     </row>
-    <row r="58" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="21"/>
       <c r="B58" s="39" t="s">
         <v>26</v>
@@ -4087,7 +4090,7 @@
       </c>
       <c r="K58" s="24"/>
     </row>
-    <row r="59" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="21"/>
       <c r="B59" s="39" t="s">
         <v>39</v>
@@ -4105,7 +4108,7 @@
       </c>
       <c r="K59" s="24"/>
     </row>
-    <row r="60" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="21"/>
       <c r="B60" s="39"/>
       <c r="C60" s="22"/>
@@ -4118,7 +4121,7 @@
       <c r="J60" s="27"/>
       <c r="K60" s="24"/>
     </row>
-    <row r="61" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="21">
         <v>8</v>
       </c>
@@ -4135,7 +4138,7 @@
       <c r="J61" s="27"/>
       <c r="K61" s="24"/>
     </row>
-    <row r="62" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="21"/>
       <c r="B62" s="39" t="s">
         <v>58</v>
@@ -4161,7 +4164,7 @@
       <c r="J62" s="27"/>
       <c r="K62" s="24"/>
     </row>
-    <row r="63" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="21"/>
       <c r="B63" s="39"/>
       <c r="C63" s="22">
@@ -4185,7 +4188,7 @@
       <c r="J63" s="27"/>
       <c r="K63" s="24"/>
     </row>
-    <row r="64" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="21"/>
       <c r="B64" s="39" t="s">
         <v>26</v>
@@ -4210,7 +4213,7 @@
       </c>
       <c r="K64" s="24"/>
     </row>
-    <row r="65" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="21"/>
       <c r="B65" s="39" t="s">
         <v>39</v>
@@ -4228,7 +4231,7 @@
       </c>
       <c r="K65" s="24"/>
     </row>
-    <row r="66" spans="1:31" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="21"/>
       <c r="B66" s="37"/>
       <c r="C66" s="22"/>
@@ -4241,7 +4244,7 @@
       <c r="J66" s="27"/>
       <c r="K66" s="24"/>
     </row>
-    <row r="67" spans="1:31" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:31" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A67" s="21">
         <v>9</v>
       </c>
@@ -4270,7 +4273,7 @@
       </c>
       <c r="K67" s="24"/>
     </row>
-    <row r="68" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="21"/>
       <c r="B68" s="39"/>
       <c r="C68" s="22"/>
@@ -4283,7 +4286,7 @@
       <c r="J68" s="27"/>
       <c r="K68" s="24"/>
     </row>
-    <row r="69" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="21">
         <v>10</v>
       </c>
@@ -4312,7 +4315,7 @@
       </c>
       <c r="K69" s="24"/>
     </row>
-    <row r="70" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="21"/>
       <c r="B70" s="39"/>
       <c r="C70" s="22"/>
@@ -4325,7 +4328,7 @@
       <c r="J70" s="27"/>
       <c r="K70" s="24"/>
     </row>
-    <row r="71" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A71" s="9"/>
       <c r="B71" s="20" t="s">
         <v>16</v>
@@ -4346,7 +4349,7 @@
       <c r="P71" s="32"/>
       <c r="Q71" s="32"/>
     </row>
-    <row r="72" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:31" x14ac:dyDescent="0.25">
       <c r="M72" s="29"/>
       <c r="N72" s="30"/>
       <c r="O72" s="30"/>
@@ -4366,15 +4369,15 @@
       <c r="AD72" s="29"/>
       <c r="AE72" s="29"/>
     </row>
-    <row r="73" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B73" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C73" s="48">
+      <c r="C73" s="44">
         <f>J71</f>
         <v>902209.24857039668</v>
       </c>
-      <c r="D73" s="49"/>
+      <c r="D73" s="45"/>
       <c r="E73" s="10">
         <v>100</v>
       </c>
@@ -4404,14 +4407,14 @@
       <c r="AD73" s="12"/>
       <c r="AE73" s="12"/>
     </row>
-    <row r="74" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B74" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C74" s="51">
+      <c r="C74" s="48">
         <v>400000</v>
       </c>
-      <c r="D74" s="52"/>
+      <c r="D74" s="49"/>
       <c r="E74" s="10"/>
       <c r="M74" s="29"/>
       <c r="N74" s="30"/>
@@ -4433,15 +4436,15 @@
       <c r="AD74" s="29"/>
       <c r="AE74" s="29"/>
     </row>
-    <row r="75" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B75" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C75" s="51">
+      <c r="C75" s="48">
         <f>C74-C77-C78</f>
         <v>380000</v>
       </c>
-      <c r="D75" s="52"/>
+      <c r="D75" s="49"/>
       <c r="E75" s="10">
         <f>C75/C73*100</f>
         <v>42.118832255613896</v>
@@ -4466,15 +4469,15 @@
       <c r="AD75" s="29"/>
       <c r="AE75" s="29"/>
     </row>
-    <row r="76" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B76" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C76" s="53">
+      <c r="C76" s="50">
         <f>C73-C75</f>
         <v>522209.24857039668</v>
       </c>
-      <c r="D76" s="53"/>
+      <c r="D76" s="50"/>
       <c r="E76" s="10">
         <f>100-E75</f>
         <v>57.881167744386104</v>
@@ -4499,15 +4502,15 @@
       <c r="AD76" s="29"/>
       <c r="AE76" s="29"/>
     </row>
-    <row r="77" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B77" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C77" s="48">
+      <c r="C77" s="44">
         <f>C74*0.03</f>
         <v>12000</v>
       </c>
-      <c r="D77" s="49"/>
+      <c r="D77" s="45"/>
       <c r="E77" s="10">
         <v>3</v>
       </c>
@@ -4531,15 +4534,15 @@
       <c r="AD77" s="29"/>
       <c r="AE77" s="29"/>
     </row>
-    <row r="78" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B78" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C78" s="48">
+      <c r="C78" s="44">
         <f>C74*0.02</f>
         <v>8000</v>
       </c>
-      <c r="D78" s="49"/>
+      <c r="D78" s="45"/>
       <c r="E78" s="10">
         <v>2</v>
       </c>
@@ -4565,6 +4568,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
     <mergeCell ref="C77:D77"/>
     <mergeCell ref="C78:D78"/>
     <mergeCell ref="A7:F7"/>
@@ -4573,13 +4583,6 @@
     <mergeCell ref="C74:D74"/>
     <mergeCell ref="C75:D75"/>
     <mergeCell ref="C76:D76"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B61" r:id="rId1"/>
@@ -4603,139 +4606,139 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE93"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A71" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="I75" sqref="I75"/>
+    <sheetView topLeftCell="A70" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="A85" sqref="A85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.109375" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" customWidth="1"/>
-    <col min="5" max="5" width="7.88671875" customWidth="1"/>
-    <col min="6" max="6" width="7.109375" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="6.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.109375" customWidth="1"/>
-    <col min="17" max="17" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="6.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-    </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="45" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-    </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="46" t="s">
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-    </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="46" t="s">
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+    </row>
+    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-    </row>
-    <row r="5" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="47" t="s">
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+    </row>
+    <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-    </row>
-    <row r="6" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" s="42" t="s">
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+    </row>
+    <row r="6" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="43" t="s">
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-    </row>
-    <row r="7" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="50" t="s">
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="43" t="s">
+      <c r="H7" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
-    </row>
-    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+    </row>
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -4770,7 +4773,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="21">
         <v>1</v>
       </c>
@@ -4795,7 +4798,7 @@
       <c r="J9" s="27"/>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="38"/>
       <c r="B10" s="39" t="s">
         <v>46</v>
@@ -4825,7 +4828,7 @@
       <c r="K10" s="11"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="38"/>
       <c r="B11" s="39" t="s">
         <v>47</v>
@@ -4854,7 +4857,7 @@
       <c r="K11" s="11"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="38"/>
       <c r="B12" s="39" t="s">
         <v>51</v>
@@ -4884,7 +4887,7 @@
       <c r="K12" s="11"/>
       <c r="M12" s="12"/>
     </row>
-    <row r="13" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="38"/>
       <c r="B13" s="39" t="s">
         <v>48</v>
@@ -4914,7 +4917,7 @@
       <c r="K13" s="11"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="38"/>
       <c r="B14" s="39" t="s">
         <v>50</v>
@@ -4944,7 +4947,7 @@
       <c r="K14" s="11"/>
       <c r="M14" s="12"/>
     </row>
-    <row r="15" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="38"/>
       <c r="B15" s="39"/>
       <c r="C15" s="40">
@@ -4972,7 +4975,7 @@
       <c r="K15" s="11"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="38"/>
       <c r="B16" s="39"/>
       <c r="C16" s="40">
@@ -5000,7 +5003,7 @@
       <c r="K16" s="11"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="38"/>
       <c r="B17" s="39"/>
       <c r="C17" s="40">
@@ -5028,7 +5031,7 @@
       <c r="K17" s="11"/>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="38"/>
       <c r="B18" s="39" t="s">
         <v>49</v>
@@ -5058,7 +5061,7 @@
       <c r="K18" s="11"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="38"/>
       <c r="B19" s="39"/>
       <c r="C19" s="40">
@@ -5086,7 +5089,7 @@
       <c r="K19" s="11"/>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="38"/>
       <c r="B20" s="39"/>
       <c r="C20" s="40">
@@ -5114,7 +5117,7 @@
       <c r="K20" s="11"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="38"/>
       <c r="B21" s="39"/>
       <c r="C21" s="40">
@@ -5142,7 +5145,7 @@
       <c r="K21" s="11"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="38"/>
       <c r="B22" s="39" t="s">
         <v>60</v>
@@ -5172,7 +5175,7 @@
       <c r="K22" s="11"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="21"/>
       <c r="B23" s="39" t="s">
         <v>26</v>
@@ -5197,7 +5200,7 @@
       </c>
       <c r="K23" s="24"/>
     </row>
-    <row r="24" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="21"/>
       <c r="B24" s="39" t="s">
         <v>39</v>
@@ -5215,7 +5218,7 @@
       </c>
       <c r="K24" s="24"/>
     </row>
-    <row r="25" spans="1:13" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="21"/>
       <c r="B25" s="37"/>
       <c r="C25" s="22"/>
@@ -5228,7 +5231,7 @@
       <c r="J25" s="27"/>
       <c r="K25" s="24"/>
     </row>
-    <row r="26" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="38">
         <v>2</v>
       </c>
@@ -5246,7 +5249,7 @@
       <c r="K26" s="11"/>
       <c r="M26" s="12"/>
     </row>
-    <row r="27" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="38"/>
       <c r="B27" s="39"/>
       <c r="C27" s="40">
@@ -5271,7 +5274,7 @@
       <c r="K27" s="11"/>
       <c r="M27" s="12"/>
     </row>
-    <row r="28" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="21"/>
       <c r="B28" s="39" t="s">
         <v>26</v>
@@ -5296,7 +5299,7 @@
       </c>
       <c r="K28" s="24"/>
     </row>
-    <row r="29" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="21"/>
       <c r="B29" s="39" t="s">
         <v>39</v>
@@ -5314,7 +5317,7 @@
       </c>
       <c r="K29" s="24"/>
     </row>
-    <row r="30" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="21"/>
       <c r="B30" s="39"/>
       <c r="C30" s="22"/>
@@ -5327,7 +5330,7 @@
       <c r="J30" s="27"/>
       <c r="K30" s="24"/>
     </row>
-    <row r="31" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="21">
         <v>3</v>
       </c>
@@ -5344,7 +5347,7 @@
       <c r="J31" s="27"/>
       <c r="K31" s="24"/>
     </row>
-    <row r="32" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="21"/>
       <c r="B32" s="39" t="s">
         <v>57</v>
@@ -5372,7 +5375,7 @@
       <c r="J32" s="27"/>
       <c r="K32" s="24"/>
     </row>
-    <row r="33" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="21"/>
       <c r="B33" s="39" t="s">
         <v>26</v>
@@ -5397,7 +5400,7 @@
       </c>
       <c r="K33" s="24"/>
     </row>
-    <row r="34" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="21"/>
       <c r="B34" s="39"/>
       <c r="C34" s="22"/>
@@ -5410,7 +5413,7 @@
       <c r="J34" s="27"/>
       <c r="K34" s="24"/>
     </row>
-    <row r="35" spans="1:11" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="21">
         <v>4</v>
       </c>
@@ -5427,7 +5430,7 @@
       <c r="J35" s="27"/>
       <c r="K35" s="24"/>
     </row>
-    <row r="36" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="21"/>
       <c r="B36" s="39" t="str">
         <f>B32</f>
@@ -5455,14 +5458,14 @@
       <c r="J36" s="27"/>
       <c r="K36" s="24"/>
     </row>
-    <row r="37" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="21"/>
       <c r="B37" s="39" t="s">
         <v>63</v>
       </c>
       <c r="C37" s="22">
-        <f>2*2</f>
-        <v>4</v>
+        <f>0*2*2</f>
+        <v>0</v>
       </c>
       <c r="D37" s="23">
         <f>11.17/3.281</f>
@@ -5474,19 +5477,19 @@
       <c r="F37" s="24"/>
       <c r="G37" s="36">
         <f t="shared" ref="G37:G38" si="3">PRODUCT(C37:F37)</f>
-        <v>3.1320938738189574</v>
+        <v>0</v>
       </c>
       <c r="H37" s="25"/>
       <c r="I37" s="26"/>
       <c r="J37" s="27"/>
       <c r="K37" s="24"/>
     </row>
-    <row r="38" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="21"/>
       <c r="B38" s="39"/>
       <c r="C38" s="22">
-        <f>2*3</f>
-        <v>6</v>
+        <f>0*2*3</f>
+        <v>0</v>
       </c>
       <c r="D38" s="23">
         <f>11.75/3.281</f>
@@ -5498,14 +5501,14 @@
       <c r="F38" s="24"/>
       <c r="G38" s="36">
         <f t="shared" si="3"/>
-        <v>4.9420908259676919</v>
+        <v>0</v>
       </c>
       <c r="H38" s="25"/>
       <c r="I38" s="26"/>
       <c r="J38" s="27"/>
       <c r="K38" s="24"/>
     </row>
-    <row r="39" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="21"/>
       <c r="B39" s="39" t="s">
         <v>26</v>
@@ -5516,7 +5519,7 @@
       <c r="F39" s="24"/>
       <c r="G39" s="27">
         <f>SUM(G36:G38)</f>
-        <v>10.504184699786649</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="H39" s="25" t="s">
         <v>33</v>
@@ -5526,11 +5529,11 @@
       </c>
       <c r="J39" s="27">
         <f>G39*I39</f>
-        <v>10661.432344742456</v>
+        <v>2466.3771000000002</v>
       </c>
       <c r="K39" s="24"/>
     </row>
-    <row r="40" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="21"/>
       <c r="B40" s="39" t="s">
         <v>39</v>
@@ -5544,11 +5547,11 @@
       <c r="I40" s="26"/>
       <c r="J40" s="27">
         <f>0.13*G39*8617.2/10</f>
-        <v>1176.7165851350196</v>
+        <v>272.21734800000002</v>
       </c>
       <c r="K40" s="24"/>
     </row>
-    <row r="41" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="21"/>
       <c r="B41" s="39"/>
       <c r="C41" s="22"/>
@@ -5561,7 +5564,7 @@
       <c r="J41" s="27"/>
       <c r="K41" s="24"/>
     </row>
-    <row r="42" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="21">
         <v>5</v>
       </c>
@@ -5578,7 +5581,7 @@
       <c r="J42" s="27"/>
       <c r="K42" s="24"/>
     </row>
-    <row r="43" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="21"/>
       <c r="B43" s="39" t="str">
         <f>B32</f>
@@ -5608,14 +5611,14 @@
       <c r="J43" s="27"/>
       <c r="K43" s="24"/>
     </row>
-    <row r="44" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="21"/>
       <c r="B44" s="39" t="s">
         <v>63</v>
       </c>
       <c r="C44" s="22">
-        <f>2*2</f>
-        <v>4</v>
+        <f>0*2*2</f>
+        <v>0</v>
       </c>
       <c r="D44" s="23">
         <f>11.17/3.281</f>
@@ -5629,19 +5632,19 @@
       </c>
       <c r="G44" s="36">
         <f t="shared" ref="G44:G45" si="4">PRODUCT(C44:F44)</f>
-        <v>0.15660469369094787</v>
+        <v>0</v>
       </c>
       <c r="H44" s="25"/>
       <c r="I44" s="26"/>
       <c r="J44" s="27"/>
       <c r="K44" s="24"/>
     </row>
-    <row r="45" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="21"/>
       <c r="B45" s="39"/>
       <c r="C45" s="22">
-        <f>2*3</f>
-        <v>6</v>
+        <f>0*2*3</f>
+        <v>0</v>
       </c>
       <c r="D45" s="23">
         <f>11.75/3.281</f>
@@ -5655,14 +5658,14 @@
       </c>
       <c r="G45" s="36">
         <f t="shared" si="4"/>
-        <v>0.24710454129838461</v>
+        <v>0</v>
       </c>
       <c r="H45" s="25"/>
       <c r="I45" s="26"/>
       <c r="J45" s="27"/>
       <c r="K45" s="24"/>
     </row>
-    <row r="46" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="21"/>
       <c r="B46" s="39" t="s">
         <v>26</v>
@@ -5673,7 +5676,7 @@
       <c r="F46" s="24"/>
       <c r="G46" s="27">
         <f>SUM(G43:G45)</f>
-        <v>0.58595923498933256</v>
+        <v>0.18225</v>
       </c>
       <c r="H46" s="25" t="s">
         <v>42</v>
@@ -5683,11 +5686,11 @@
       </c>
       <c r="J46" s="27">
         <f>G46*I46</f>
-        <v>7607.5673437900041</v>
+        <v>2366.1699749999998</v>
       </c>
       <c r="K46" s="24"/>
     </row>
-    <row r="47" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="21"/>
       <c r="B47" s="39" t="s">
         <v>39</v>
@@ -5701,11 +5704,11 @@
       <c r="I47" s="26"/>
       <c r="J47" s="27">
         <f>0.13*G46*8078.11</f>
-        <v>615.34761024875809</v>
+        <v>191.39062117500001</v>
       </c>
       <c r="K47" s="24"/>
     </row>
-    <row r="48" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="21"/>
       <c r="B48" s="39"/>
       <c r="C48" s="22"/>
@@ -5718,7 +5721,7 @@
       <c r="J48" s="27"/>
       <c r="K48" s="24"/>
     </row>
-    <row r="49" spans="1:11" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="21">
         <v>6</v>
       </c>
@@ -5737,7 +5740,7 @@
       <c r="F49" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="G49" s="54" t="s">
+      <c r="G49" s="42" t="s">
         <v>67</v>
       </c>
       <c r="H49" s="25"/>
@@ -5745,7 +5748,7 @@
       <c r="J49" s="27"/>
       <c r="K49" s="24"/>
     </row>
-    <row r="50" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="21"/>
       <c r="B50" s="39" t="str">
         <f>B44</f>
@@ -5766,7 +5769,7 @@
         <f>PRODUCT(C50:E50)</f>
         <v>145.184</v>
       </c>
-      <c r="G50" s="55">
+      <c r="G50" s="43">
         <f>F50/1000</f>
         <v>0.14518400000000001</v>
       </c>
@@ -5775,14 +5778,14 @@
       <c r="J50" s="27"/>
       <c r="K50" s="24"/>
     </row>
-    <row r="51" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="21"/>
       <c r="B51" s="39" t="s">
         <v>69</v>
       </c>
       <c r="C51" s="22">
-        <f>TRUNC((11.917+12.25+11.917-0.17*6)/0.15,0)+3</f>
-        <v>236</v>
+        <f>2*(TRUNC((11.917+12.25+11.917-0.17*6)/0.5,0))+3</f>
+        <v>143</v>
       </c>
       <c r="D51" s="34">
         <f>(0.583*4+0.17*2)/3.281</f>
@@ -5794,20 +5797,22 @@
       </c>
       <c r="F51" s="35">
         <f>PRODUCT(C51:E51)</f>
-        <v>75.928913572721342</v>
-      </c>
-      <c r="G51" s="55">
+        <v>46.007773902115048</v>
+      </c>
+      <c r="G51" s="43">
         <f>F51/1000</f>
-        <v>7.5928913572721343E-2</v>
+        <v>4.6007773902115051E-2</v>
       </c>
       <c r="H51" s="25"/>
       <c r="I51" s="26"/>
       <c r="J51" s="27"/>
       <c r="K51" s="24"/>
     </row>
-    <row r="52" spans="1:11" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="21"/>
-      <c r="B52" s="37"/>
+      <c r="B52" s="39" t="s">
+        <v>63</v>
+      </c>
       <c r="C52" s="22">
         <v>4</v>
       </c>
@@ -5823,7 +5828,7 @@
         <f>PRODUCT(C52:E52)</f>
         <v>109.62844444444444</v>
       </c>
-      <c r="G52" s="55">
+      <c r="G52" s="43">
         <f t="shared" ref="G52" si="5">F52/1000</f>
         <v>0.10962844444444445</v>
       </c>
@@ -5832,14 +5837,14 @@
       <c r="J52" s="27"/>
       <c r="K52" s="24"/>
     </row>
-    <row r="53" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="21"/>
       <c r="B53" s="39" t="s">
         <v>69</v>
       </c>
       <c r="C53" s="22">
-        <f>TRUNC((12.5-0.17*4)/0.15,0)+3</f>
-        <v>81</v>
+        <f>4*(TRUNC((12.5-0.17*4)/0.5,0))+3</f>
+        <v>95</v>
       </c>
       <c r="D53" s="34">
         <f>(0.583*4+0.17*2)/3.281</f>
@@ -5851,18 +5856,18 @@
       </c>
       <c r="F53" s="35">
         <f>PRODUCT(C53:E53)</f>
-        <v>26.060347455044191</v>
-      </c>
-      <c r="G53" s="55">
+        <v>30.564605039866645</v>
+      </c>
+      <c r="G53" s="43">
         <f>F53/1000</f>
-        <v>2.6060347455044191E-2</v>
+        <v>3.0564605039866646E-2</v>
       </c>
       <c r="H53" s="25"/>
       <c r="I53" s="26"/>
       <c r="J53" s="27"/>
       <c r="K53" s="24"/>
     </row>
-    <row r="54" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="21"/>
       <c r="B54" s="39" t="s">
         <v>26</v>
@@ -5872,8 +5877,8 @@
       <c r="E54" s="24"/>
       <c r="F54" s="24"/>
       <c r="G54" s="27">
-        <f>SUM(G50:G53)</f>
-        <v>0.35680170547220996</v>
+        <f>0*SUM(G50:G53)</f>
+        <v>0</v>
       </c>
       <c r="H54" s="25" t="s">
         <v>70</v>
@@ -5883,11 +5888,11 @@
       </c>
       <c r="J54" s="27">
         <f>G54*I54</f>
-        <v>47076.417020003384</v>
+        <v>0</v>
       </c>
       <c r="K54" s="24"/>
     </row>
-    <row r="55" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="21"/>
       <c r="B55" s="39" t="s">
         <v>39</v>
@@ -5901,11 +5906,11 @@
       <c r="I55" s="26"/>
       <c r="J55" s="27">
         <f>0.13*G54*106200</f>
-        <v>4926.0043457493312</v>
+        <v>0</v>
       </c>
       <c r="K55" s="24"/>
     </row>
-    <row r="56" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="21"/>
       <c r="B56" s="39"/>
       <c r="C56" s="22"/>
@@ -5918,9 +5923,9 @@
       <c r="J56" s="27"/>
       <c r="K56" s="24"/>
     </row>
-    <row r="57" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="21">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B57" s="37" t="s">
         <v>71</v>
@@ -5935,7 +5940,7 @@
       <c r="J57" s="27"/>
       <c r="K57" s="24"/>
     </row>
-    <row r="58" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="21"/>
       <c r="B58" s="39" t="str">
         <f>B32</f>
@@ -5961,7 +5966,7 @@
       <c r="J58" s="27"/>
       <c r="K58" s="24"/>
     </row>
-    <row r="59" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="21"/>
       <c r="B59" s="39" t="s">
         <v>68</v>
@@ -5986,14 +5991,14 @@
       <c r="J59" s="27"/>
       <c r="K59" s="24"/>
     </row>
-    <row r="60" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="21"/>
       <c r="B60" s="39" t="s">
         <v>63</v>
       </c>
       <c r="C60" s="22">
-        <f>2*2</f>
-        <v>4</v>
+        <f>0*2*2</f>
+        <v>0</v>
       </c>
       <c r="D60" s="23">
         <f>12.5/3.281</f>
@@ -6006,19 +6011,19 @@
       </c>
       <c r="G60" s="36">
         <f>PRODUCT(C60:F60)</f>
-        <v>7.0100579091740318</v>
+        <v>0</v>
       </c>
       <c r="H60" s="25"/>
       <c r="I60" s="26"/>
       <c r="J60" s="27"/>
       <c r="K60" s="24"/>
     </row>
-    <row r="61" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="21"/>
       <c r="B61" s="39"/>
       <c r="C61" s="22">
-        <f>2*2</f>
-        <v>4</v>
+        <f>0*2*2</f>
+        <v>0</v>
       </c>
       <c r="D61" s="23">
         <f>11.917/3.281</f>
@@ -6031,19 +6036,19 @@
       </c>
       <c r="G61" s="36">
         <f>PRODUCT(C61:F61)</f>
-        <v>6.6831088082901546</v>
+        <v>0</v>
       </c>
       <c r="H61" s="25"/>
       <c r="I61" s="26"/>
       <c r="J61" s="27"/>
       <c r="K61" s="24"/>
     </row>
-    <row r="62" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="21"/>
       <c r="B62" s="39"/>
       <c r="C62" s="22">
-        <f>1*2</f>
-        <v>2</v>
+        <f>0*1*2</f>
+        <v>0</v>
       </c>
       <c r="D62" s="23">
         <f>12.25/3.281</f>
@@ -6056,14 +6061,14 @@
       </c>
       <c r="G62" s="36">
         <f>PRODUCT(C62:F62)</f>
-        <v>3.434928375495276</v>
+        <v>0</v>
       </c>
       <c r="H62" s="25"/>
       <c r="I62" s="26"/>
       <c r="J62" s="27"/>
       <c r="K62" s="24"/>
     </row>
-    <row r="63" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="21"/>
       <c r="B63" s="39" t="s">
         <v>26</v>
@@ -6074,7 +6079,7 @@
       <c r="F63" s="24"/>
       <c r="G63" s="27">
         <f>SUM(G58:G62)</f>
-        <v>31.168095092959458</v>
+        <v>14.04</v>
       </c>
       <c r="H63" s="25" t="s">
         <v>33</v>
@@ -6084,11 +6089,11 @@
       </c>
       <c r="J63" s="27">
         <f>G63*I63</f>
-        <v>28531.897609996944</v>
+        <v>12852.496799999999</v>
       </c>
       <c r="K63" s="24"/>
     </row>
-    <row r="64" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="21"/>
       <c r="B64" s="39" t="s">
         <v>39</v>
@@ -6102,11 +6107,11 @@
       <c r="I64" s="26"/>
       <c r="J64" s="27">
         <f>0.13*G63*46827.87/100</f>
-        <v>1897.3961567089666</v>
+        <v>854.70228323999993</v>
       </c>
       <c r="K64" s="24"/>
     </row>
-    <row r="65" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="21"/>
       <c r="B65" s="39"/>
       <c r="C65" s="22"/>
@@ -6119,9 +6124,9 @@
       <c r="J65" s="27"/>
       <c r="K65" s="24"/>
     </row>
-    <row r="66" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" s="21">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B66" s="37" t="s">
         <v>45</v>
@@ -6136,7 +6141,7 @@
       <c r="J66" s="27"/>
       <c r="K66" s="24"/>
     </row>
-    <row r="67" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="21"/>
       <c r="B67" s="39" t="str">
         <f>B32</f>
@@ -6166,7 +6171,7 @@
       <c r="J67" s="27"/>
       <c r="K67" s="24"/>
     </row>
-    <row r="68" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="21"/>
       <c r="B68" s="39" t="str">
         <f>B59</f>
@@ -6195,13 +6200,14 @@
       <c r="J68" s="27"/>
       <c r="K68" s="24"/>
     </row>
-    <row r="69" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="21"/>
       <c r="B69" s="39" t="s">
         <v>61</v>
       </c>
       <c r="C69" s="22">
-        <v>2</v>
+        <f>0*2</f>
+        <v>0</v>
       </c>
       <c r="D69" s="23">
         <f>40/3.281</f>
@@ -6215,18 +6221,19 @@
       </c>
       <c r="G69" s="36">
         <f t="shared" ref="G69:G70" si="8">PRODUCT(C69:F69)</f>
-        <v>1.289850655288022</v>
+        <v>0</v>
       </c>
       <c r="H69" s="25"/>
       <c r="I69" s="26"/>
       <c r="J69" s="27"/>
       <c r="K69" s="24"/>
     </row>
-    <row r="70" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="21"/>
       <c r="B70" s="39"/>
       <c r="C70" s="22">
-        <v>2</v>
+        <f>0*2</f>
+        <v>0</v>
       </c>
       <c r="D70" s="23">
         <f>30/3.281</f>
@@ -6240,21 +6247,21 @@
       </c>
       <c r="G70" s="36">
         <f t="shared" si="8"/>
-        <v>0.96738799146601662</v>
+        <v>0</v>
       </c>
       <c r="H70" s="25"/>
       <c r="I70" s="26"/>
       <c r="J70" s="27"/>
       <c r="K70" s="24"/>
     </row>
-    <row r="71" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="21"/>
       <c r="B71" s="39" t="s">
         <v>62</v>
       </c>
       <c r="C71" s="22">
-        <f>-C67</f>
-        <v>-12</v>
+        <f>-C67*0</f>
+        <v>0</v>
       </c>
       <c r="D71" s="23">
         <f>3/12/3.281</f>
@@ -6268,14 +6275,14 @@
       </c>
       <c r="G71" s="36">
         <f>PRODUCT(C71:F71)</f>
-        <v>-4.8369399573300817E-2</v>
+        <v>0</v>
       </c>
       <c r="H71" s="25"/>
       <c r="I71" s="26"/>
       <c r="J71" s="27"/>
       <c r="K71" s="24"/>
     </row>
-    <row r="72" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="21"/>
       <c r="B72" s="39" t="s">
         <v>26</v>
@@ -6286,7 +6293,7 @@
       <c r="F72" s="24"/>
       <c r="G72" s="27">
         <f>SUM(G67:G71)</f>
-        <v>4.1123692471807374</v>
+        <v>1.9035</v>
       </c>
       <c r="H72" s="25" t="s">
         <v>42</v>
@@ -6296,11 +6303,11 @@
       </c>
       <c r="J72" s="27">
         <f>G72*I72</f>
-        <v>55800.327078070703</v>
+        <v>25828.401149999998</v>
       </c>
       <c r="K72" s="24"/>
     </row>
-    <row r="73" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="21"/>
       <c r="B73" s="39" t="s">
         <v>39</v>
@@ -6314,11 +6321,11 @@
       <c r="I73" s="26"/>
       <c r="J73" s="27">
         <f>0.13*G72*9524.2</f>
-        <v>5091.7135339198421</v>
+        <v>2356.810911</v>
       </c>
       <c r="K73" s="24"/>
     </row>
-    <row r="74" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="21"/>
       <c r="B74" s="39"/>
       <c r="C74" s="22"/>
@@ -6331,9 +6338,9 @@
       <c r="J74" s="27"/>
       <c r="K74" s="24"/>
     </row>
-    <row r="75" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="21">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B75" s="37" t="s">
         <v>53</v>
@@ -6348,7 +6355,7 @@
       <c r="J75" s="27"/>
       <c r="K75" s="24"/>
     </row>
-    <row r="76" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="21"/>
       <c r="B76" s="39" t="s">
         <v>57</v>
@@ -6376,7 +6383,7 @@
       <c r="J76" s="27"/>
       <c r="K76" s="24"/>
     </row>
-    <row r="77" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="21"/>
       <c r="B77" s="39"/>
       <c r="C77" s="22">
@@ -6402,7 +6409,7 @@
       <c r="J77" s="27"/>
       <c r="K77" s="24"/>
     </row>
-    <row r="78" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="21"/>
       <c r="B78" s="39"/>
       <c r="C78" s="22">
@@ -6428,7 +6435,7 @@
       <c r="J78" s="27"/>
       <c r="K78" s="24"/>
     </row>
-    <row r="79" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="21"/>
       <c r="B79" s="39" t="s">
         <v>26</v>
@@ -6453,7 +6460,7 @@
       </c>
       <c r="K79" s="24"/>
     </row>
-    <row r="80" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="21"/>
       <c r="B80" s="39" t="s">
         <v>39</v>
@@ -6471,7 +6478,7 @@
       </c>
       <c r="K80" s="24"/>
     </row>
-    <row r="81" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="21"/>
       <c r="B81" s="39"/>
       <c r="C81" s="22"/>
@@ -6484,9 +6491,9 @@
       <c r="J81" s="27"/>
       <c r="K81" s="24"/>
     </row>
-    <row r="82" spans="1:31" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:31" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A82" s="21">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B82" s="41" t="s">
         <v>35</v>
@@ -6505,16 +6512,15 @@
         <v>36</v>
       </c>
       <c r="I82" s="26">
-        <f>2000</f>
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="J82" s="27">
         <f>G82*I82</f>
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="K82" s="24"/>
     </row>
-    <row r="83" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="21"/>
       <c r="B83" s="39"/>
       <c r="C83" s="22"/>
@@ -6527,9 +6533,9 @@
       <c r="J83" s="27"/>
       <c r="K83" s="24"/>
     </row>
-    <row r="84" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="21">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B84" s="41" t="s">
         <v>37</v>
@@ -6548,15 +6554,15 @@
         <v>55</v>
       </c>
       <c r="I84" s="26">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="J84" s="27">
         <f>G84*I84</f>
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K84" s="24"/>
     </row>
-    <row r="85" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="21"/>
       <c r="B85" s="39"/>
       <c r="C85" s="22"/>
@@ -6569,7 +6575,7 @@
       <c r="J85" s="27"/>
       <c r="K85" s="24"/>
     </row>
-    <row r="86" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A86" s="9"/>
       <c r="B86" s="20" t="s">
         <v>16</v>
@@ -6583,14 +6589,14 @@
       <c r="I86" s="7"/>
       <c r="J86" s="7">
         <f>SUM(J10:J85)</f>
-        <v>561106.68717552302</v>
+        <v>448410.4337355725</v>
       </c>
       <c r="K86" s="4"/>
       <c r="M86" s="29"/>
       <c r="P86" s="32"/>
       <c r="Q86" s="32"/>
     </row>
-    <row r="87" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:31" x14ac:dyDescent="0.25">
       <c r="M87" s="29"/>
       <c r="N87" s="30"/>
       <c r="O87" s="30"/>
@@ -6610,15 +6616,15 @@
       <c r="AD87" s="29"/>
       <c r="AE87" s="29"/>
     </row>
-    <row r="88" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B88" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C88" s="48">
+      <c r="C88" s="44">
         <f>J86</f>
-        <v>561106.68717552302</v>
-      </c>
-      <c r="D88" s="49"/>
+        <v>448410.4337355725</v>
+      </c>
+      <c r="D88" s="45"/>
       <c r="E88" s="10">
         <v>100</v>
       </c>
@@ -6648,14 +6654,14 @@
       <c r="AD88" s="12"/>
       <c r="AE88" s="12"/>
     </row>
-    <row r="89" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B89" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C89" s="51">
+      <c r="C89" s="48">
         <v>400000</v>
       </c>
-      <c r="D89" s="52"/>
+      <c r="D89" s="49"/>
       <c r="E89" s="10"/>
       <c r="M89" s="29"/>
       <c r="N89" s="30"/>
@@ -6677,18 +6683,18 @@
       <c r="AD89" s="29"/>
       <c r="AE89" s="29"/>
     </row>
-    <row r="90" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B90" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C90" s="51">
+      <c r="C90" s="48">
         <f>C89-C92-C93</f>
         <v>380000</v>
       </c>
-      <c r="D90" s="52"/>
+      <c r="D90" s="49"/>
       <c r="E90" s="10">
         <f>C90/C88*100</f>
-        <v>67.723306224138796</v>
+        <v>84.743790824476193</v>
       </c>
       <c r="M90" s="29"/>
       <c r="N90" s="29"/>
@@ -6710,18 +6716,18 @@
       <c r="AD90" s="29"/>
       <c r="AE90" s="29"/>
     </row>
-    <row r="91" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B91" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C91" s="53">
+      <c r="C91" s="50">
         <f>C88-C90</f>
-        <v>181106.68717552302</v>
-      </c>
-      <c r="D91" s="53"/>
+        <v>68410.4337355725</v>
+      </c>
+      <c r="D91" s="50"/>
       <c r="E91" s="10">
         <f>100-E90</f>
-        <v>32.276693775861204</v>
+        <v>15.256209175523807</v>
       </c>
       <c r="M91" s="29"/>
       <c r="N91" s="29"/>
@@ -6743,15 +6749,15 @@
       <c r="AD91" s="29"/>
       <c r="AE91" s="29"/>
     </row>
-    <row r="92" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B92" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C92" s="48">
+      <c r="C92" s="44">
         <f>C89*0.03</f>
         <v>12000</v>
       </c>
-      <c r="D92" s="49"/>
+      <c r="D92" s="45"/>
       <c r="E92" s="10">
         <v>3</v>
       </c>
@@ -6775,15 +6781,2259 @@
       <c r="AD92" s="29"/>
       <c r="AE92" s="29"/>
     </row>
-    <row r="93" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B93" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C93" s="48">
+      <c r="C93" s="44">
         <f>C89*0.02</f>
         <v>8000</v>
       </c>
-      <c r="D93" s="49"/>
+      <c r="D93" s="45"/>
+      <c r="E93" s="10">
+        <v>2</v>
+      </c>
+      <c r="M93" s="29"/>
+      <c r="N93" s="29"/>
+      <c r="O93" s="29"/>
+      <c r="P93" s="29"/>
+      <c r="Q93" s="29"/>
+      <c r="R93" s="29"/>
+      <c r="S93" s="29"/>
+      <c r="T93" s="29"/>
+      <c r="U93" s="29"/>
+      <c r="V93" s="29"/>
+      <c r="W93" s="29"/>
+      <c r="X93" s="29"/>
+      <c r="Y93" s="29"/>
+      <c r="Z93" s="29"/>
+      <c r="AA93" s="29"/>
+      <c r="AB93" s="29"/>
+      <c r="AC93" s="29"/>
+      <c r="AD93" s="29"/>
+      <c r="AE93" s="29"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="C91:D91"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="80" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;LPrepared By:
+Kristal Suwal&amp;CChecked By:
+Er. Milan Phuyal&amp;RApproved By:    
+Er. Prakash Singh Saud</oddFooter>
+  </headerFooter>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="41" max="10" man="1"/>
+  </rowBreaks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AE93"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A39" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="6.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+    </row>
+    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+    </row>
+    <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+    </row>
+    <row r="6" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+    </row>
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="21">
+        <v>1</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="35"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="24"/>
+    </row>
+    <row r="10" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="38"/>
+      <c r="B10" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="40">
+        <f>3*4</f>
+        <v>12</v>
+      </c>
+      <c r="D10" s="10">
+        <f>(2.5+1.5+13)/3.281</f>
+        <v>5.1813471502590671</v>
+      </c>
+      <c r="E10" s="10">
+        <v>3.97</v>
+      </c>
+      <c r="F10" s="10">
+        <f>PRODUCT(C10:E10)</f>
+        <v>246.83937823834196</v>
+      </c>
+      <c r="G10" s="36">
+        <f>F10</f>
+        <v>246.83937823834196</v>
+      </c>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="11"/>
+      <c r="M10" s="12"/>
+    </row>
+    <row r="11" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="38"/>
+      <c r="B11" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="40">
+        <v>4</v>
+      </c>
+      <c r="D11" s="10">
+        <f>(1.5+30+1.5)/3.281</f>
+        <v>10.057909174032307</v>
+      </c>
+      <c r="E11" s="10">
+        <v>2.72</v>
+      </c>
+      <c r="F11" s="10">
+        <f t="shared" ref="F11:F22" si="0">PRODUCT(C11:E11)</f>
+        <v>109.43005181347151</v>
+      </c>
+      <c r="G11" s="36">
+        <f t="shared" ref="G11:G22" si="1">F11</f>
+        <v>109.43005181347151</v>
+      </c>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="11"/>
+      <c r="M11" s="12"/>
+    </row>
+    <row r="12" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="38"/>
+      <c r="B12" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="40">
+        <f>2*4</f>
+        <v>8</v>
+      </c>
+      <c r="D12" s="10">
+        <f>16.333/3.281</f>
+        <v>4.97805547089302</v>
+      </c>
+      <c r="E12" s="10">
+        <v>2.72</v>
+      </c>
+      <c r="F12" s="10">
+        <f t="shared" si="0"/>
+        <v>108.32248704663212</v>
+      </c>
+      <c r="G12" s="36">
+        <f t="shared" si="1"/>
+        <v>108.32248704663212</v>
+      </c>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="11"/>
+      <c r="M12" s="12"/>
+    </row>
+    <row r="13" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="38"/>
+      <c r="B13" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="40">
+        <f>1*4</f>
+        <v>4</v>
+      </c>
+      <c r="D13" s="10">
+        <f>3.5/3.281</f>
+        <v>1.0667479427003961</v>
+      </c>
+      <c r="E13" s="10">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F13" s="10">
+        <f t="shared" si="0"/>
+        <v>10.368790003047851</v>
+      </c>
+      <c r="G13" s="36">
+        <f t="shared" si="1"/>
+        <v>10.368790003047851</v>
+      </c>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="11"/>
+      <c r="M13" s="12"/>
+    </row>
+    <row r="14" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="38"/>
+      <c r="B14" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="40">
+        <f>2*4</f>
+        <v>8</v>
+      </c>
+      <c r="D14" s="10">
+        <f>4/3.281</f>
+        <v>1.2191405059433098</v>
+      </c>
+      <c r="E14" s="10">
+        <v>1.83</v>
+      </c>
+      <c r="F14" s="10">
+        <f t="shared" si="0"/>
+        <v>17.848217007010057</v>
+      </c>
+      <c r="G14" s="36">
+        <f t="shared" si="1"/>
+        <v>17.848217007010057</v>
+      </c>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="11"/>
+      <c r="M14" s="12"/>
+    </row>
+    <row r="15" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="38"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="40">
+        <f t="shared" ref="C15:C21" si="2">2*4</f>
+        <v>8</v>
+      </c>
+      <c r="D15" s="10">
+        <f>3.583/3.281</f>
+        <v>1.0920451081987199</v>
+      </c>
+      <c r="E15" s="10">
+        <v>1.83</v>
+      </c>
+      <c r="F15" s="10">
+        <f t="shared" si="0"/>
+        <v>15.987540384029261</v>
+      </c>
+      <c r="G15" s="36">
+        <f t="shared" si="1"/>
+        <v>15.987540384029261</v>
+      </c>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="11"/>
+      <c r="M15" s="12"/>
+    </row>
+    <row r="16" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="38"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="40">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="D16" s="10">
+        <f>3.25/3.281</f>
+        <v>0.99055166107893933</v>
+      </c>
+      <c r="E16" s="10">
+        <v>1.83</v>
+      </c>
+      <c r="F16" s="10">
+        <f t="shared" si="0"/>
+        <v>14.501676318195672</v>
+      </c>
+      <c r="G16" s="36">
+        <f t="shared" si="1"/>
+        <v>14.501676318195672</v>
+      </c>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="11"/>
+      <c r="M16" s="12"/>
+    </row>
+    <row r="17" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="38"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="40">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="D17" s="10">
+        <f>3.083/3.281</f>
+        <v>0.93965254495580619</v>
+      </c>
+      <c r="E17" s="10">
+        <v>1.83</v>
+      </c>
+      <c r="F17" s="10">
+        <f t="shared" si="0"/>
+        <v>13.756513258153003</v>
+      </c>
+      <c r="G17" s="36">
+        <f t="shared" si="1"/>
+        <v>13.756513258153003</v>
+      </c>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="11"/>
+      <c r="M17" s="12"/>
+    </row>
+    <row r="18" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="38"/>
+      <c r="B18" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="40">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="D18" s="10">
+        <f>2.667/3.281</f>
+        <v>0.81286193233770188</v>
+      </c>
+      <c r="E18" s="10">
+        <v>1.83</v>
+      </c>
+      <c r="F18" s="10">
+        <f t="shared" si="0"/>
+        <v>11.900298689423956</v>
+      </c>
+      <c r="G18" s="36">
+        <f t="shared" si="1"/>
+        <v>11.900298689423956</v>
+      </c>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="11"/>
+      <c r="M18" s="12"/>
+    </row>
+    <row r="19" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="38"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="40">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="D19" s="10">
+        <f>2/3.281</f>
+        <v>0.6095702529716549</v>
+      </c>
+      <c r="E19" s="10">
+        <v>1.83</v>
+      </c>
+      <c r="F19" s="10">
+        <f t="shared" si="0"/>
+        <v>8.9241085035050283</v>
+      </c>
+      <c r="G19" s="36">
+        <f t="shared" si="1"/>
+        <v>8.9241085035050283</v>
+      </c>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="11"/>
+      <c r="M19" s="12"/>
+    </row>
+    <row r="20" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="38"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="40">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="D20" s="10">
+        <f>1.333/3.281</f>
+        <v>0.40627857360560804</v>
+      </c>
+      <c r="E20" s="10">
+        <v>1.83</v>
+      </c>
+      <c r="F20" s="10">
+        <f t="shared" si="0"/>
+        <v>5.9479183175861019</v>
+      </c>
+      <c r="G20" s="36">
+        <f t="shared" si="1"/>
+        <v>5.9479183175861019</v>
+      </c>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="11"/>
+      <c r="M20" s="12"/>
+    </row>
+    <row r="21" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="38"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="40">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="D21" s="10">
+        <f>8/12/3.281</f>
+        <v>0.20319008432388497</v>
+      </c>
+      <c r="E21" s="10">
+        <v>1.83</v>
+      </c>
+      <c r="F21" s="10">
+        <f t="shared" si="0"/>
+        <v>2.9747028345016759</v>
+      </c>
+      <c r="G21" s="36">
+        <f t="shared" si="1"/>
+        <v>2.9747028345016759</v>
+      </c>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="11"/>
+      <c r="M21" s="12"/>
+    </row>
+    <row r="22" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="38"/>
+      <c r="B22" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="40">
+        <f>2*6</f>
+        <v>12</v>
+      </c>
+      <c r="D22" s="10">
+        <f>44/3.281</f>
+        <v>13.41054556537641</v>
+      </c>
+      <c r="E22" s="10">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F22" s="10">
+        <f t="shared" si="0"/>
+        <v>391.05150868637611</v>
+      </c>
+      <c r="G22" s="36">
+        <f t="shared" si="1"/>
+        <v>391.05150868637611</v>
+      </c>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="11"/>
+      <c r="M22" s="12"/>
+    </row>
+    <row r="23" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="21"/>
+      <c r="B23" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="22"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="27">
+        <f>SUM(G10:G22)</f>
+        <v>957.85319110027433</v>
+      </c>
+      <c r="H23" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="I23" s="26">
+        <v>181.17</v>
+      </c>
+      <c r="J23" s="27">
+        <f>G23*I23</f>
+        <v>173534.2626316367</v>
+      </c>
+      <c r="K23" s="24"/>
+    </row>
+    <row r="24" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="21"/>
+      <c r="B24" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="22"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="27">
+        <f>0.13*G23*(1871.42/18.94)</f>
+        <v>12303.63941159207</v>
+      </c>
+      <c r="K24" s="24"/>
+    </row>
+    <row r="25" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="21"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="24"/>
+    </row>
+    <row r="26" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="38">
+        <v>2</v>
+      </c>
+      <c r="B26" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="40"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="11"/>
+      <c r="M26" s="12"/>
+    </row>
+    <row r="27" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="38"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="40">
+        <v>2</v>
+      </c>
+      <c r="D27" s="10">
+        <f>16.17/3.281</f>
+        <v>4.928375495275831</v>
+      </c>
+      <c r="E27" s="10">
+        <f>(0.75+40+0.75)/3.281</f>
+        <v>12.648582749161841</v>
+      </c>
+      <c r="F27" s="10"/>
+      <c r="G27" s="36">
+        <f>PRODUCT(C27:F27)</f>
+        <v>124.67393054187565</v>
+      </c>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="11"/>
+      <c r="M27" s="12"/>
+    </row>
+    <row r="28" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="21"/>
+      <c r="B28" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="22"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="27">
+        <f>SUM(G27:G27)</f>
+        <v>124.67393054187565</v>
+      </c>
+      <c r="H28" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="I28" s="26">
+        <v>1070.9000000000001</v>
+      </c>
+      <c r="J28" s="27">
+        <f>G28*I28</f>
+        <v>133513.31221729465</v>
+      </c>
+      <c r="K28" s="24"/>
+    </row>
+    <row r="29" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="21"/>
+      <c r="B29" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="22"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="27">
+        <f>0.13*G28*8587.63/10</f>
+        <v>13918.496619811258</v>
+      </c>
+      <c r="K29" s="24"/>
+    </row>
+    <row r="30" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="21"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="24"/>
+    </row>
+    <row r="31" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="21">
+        <v>3</v>
+      </c>
+      <c r="B31" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="22"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="24"/>
+    </row>
+    <row r="32" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="21"/>
+      <c r="B32" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" s="22">
+        <f>3*4</f>
+        <v>12</v>
+      </c>
+      <c r="D32" s="23">
+        <v>0.45</v>
+      </c>
+      <c r="E32" s="24">
+        <v>0.45</v>
+      </c>
+      <c r="F32" s="24">
+        <f>(2.5+0.25+0.17)/3.281</f>
+        <v>0.88997256933861624</v>
+      </c>
+      <c r="G32" s="36">
+        <f>PRODUCT(C32:F32)</f>
+        <v>2.1626333434928378</v>
+      </c>
+      <c r="H32" s="25"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="24"/>
+    </row>
+    <row r="33" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="21"/>
+      <c r="B33" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="22"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="27">
+        <f>SUM(G32:G32)</f>
+        <v>2.1626333434928378</v>
+      </c>
+      <c r="H33" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="I33" s="26">
+        <v>663.31</v>
+      </c>
+      <c r="J33" s="27">
+        <f>G33*I33</f>
+        <v>1434.4963230722342</v>
+      </c>
+      <c r="K33" s="24"/>
+    </row>
+    <row r="34" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="21"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="24"/>
+    </row>
+    <row r="35" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="21">
+        <v>4</v>
+      </c>
+      <c r="B35" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" s="22"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="24"/>
+    </row>
+    <row r="36" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="21"/>
+      <c r="B36" s="39" t="str">
+        <f>B32</f>
+        <v>-for footing</v>
+      </c>
+      <c r="C36" s="22">
+        <f>C32</f>
+        <v>12</v>
+      </c>
+      <c r="D36" s="23">
+        <f>D32</f>
+        <v>0.45</v>
+      </c>
+      <c r="E36" s="24">
+        <f>E32</f>
+        <v>0.45</v>
+      </c>
+      <c r="F36" s="24"/>
+      <c r="G36" s="36">
+        <f>PRODUCT(C36:F36)</f>
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="H36" s="25"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="27"/>
+      <c r="K36" s="24"/>
+    </row>
+    <row r="37" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="21"/>
+      <c r="B37" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="C37" s="22">
+        <f>0*2*2</f>
+        <v>0</v>
+      </c>
+      <c r="D37" s="23">
+        <f>11.17/3.281</f>
+        <v>3.4044498628466928</v>
+      </c>
+      <c r="E37" s="24">
+        <v>0.23</v>
+      </c>
+      <c r="F37" s="24"/>
+      <c r="G37" s="36">
+        <f t="shared" ref="G37:G38" si="3">PRODUCT(C37:F37)</f>
+        <v>0</v>
+      </c>
+      <c r="H37" s="25"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="27"/>
+      <c r="K37" s="24"/>
+    </row>
+    <row r="38" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="21"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="22">
+        <f>0*2*3</f>
+        <v>0</v>
+      </c>
+      <c r="D38" s="23">
+        <f>11.75/3.281</f>
+        <v>3.5812252362084727</v>
+      </c>
+      <c r="E38" s="24">
+        <v>0.23</v>
+      </c>
+      <c r="F38" s="24"/>
+      <c r="G38" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H38" s="25"/>
+      <c r="I38" s="26"/>
+      <c r="J38" s="27"/>
+      <c r="K38" s="24"/>
+    </row>
+    <row r="39" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="21"/>
+      <c r="B39" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" s="22"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="27">
+        <f>SUM(G36:G38)</f>
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="H39" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="I39" s="26">
+        <v>1014.97</v>
+      </c>
+      <c r="J39" s="27">
+        <f>G39*I39</f>
+        <v>2466.3771000000002</v>
+      </c>
+      <c r="K39" s="24"/>
+    </row>
+    <row r="40" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="21"/>
+      <c r="B40" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" s="22"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="27">
+        <f>0.13*G39*8617.2/10</f>
+        <v>272.21734800000002</v>
+      </c>
+      <c r="K40" s="24"/>
+    </row>
+    <row r="41" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="21"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="26"/>
+      <c r="J41" s="27"/>
+      <c r="K41" s="24"/>
+    </row>
+    <row r="42" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="21">
+        <v>5</v>
+      </c>
+      <c r="B42" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" s="22"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="27"/>
+      <c r="K42" s="24"/>
+    </row>
+    <row r="43" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="21"/>
+      <c r="B43" s="39" t="str">
+        <f>B32</f>
+        <v>-for footing</v>
+      </c>
+      <c r="C43" s="22">
+        <f>C36</f>
+        <v>12</v>
+      </c>
+      <c r="D43" s="23">
+        <f>D36</f>
+        <v>0.45</v>
+      </c>
+      <c r="E43" s="24">
+        <f>E36</f>
+        <v>0.45</v>
+      </c>
+      <c r="F43" s="24">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="G43" s="36">
+        <f>PRODUCT(C43:F43)</f>
+        <v>0.18225</v>
+      </c>
+      <c r="H43" s="25"/>
+      <c r="I43" s="26"/>
+      <c r="J43" s="27"/>
+      <c r="K43" s="24"/>
+    </row>
+    <row r="44" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="21"/>
+      <c r="B44" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="C44" s="22">
+        <f>0*2*2</f>
+        <v>0</v>
+      </c>
+      <c r="D44" s="23">
+        <f>11.17/3.281</f>
+        <v>3.4044498628466928</v>
+      </c>
+      <c r="E44" s="24">
+        <v>0.23</v>
+      </c>
+      <c r="F44" s="24">
+        <v>0.05</v>
+      </c>
+      <c r="G44" s="36">
+        <f t="shared" ref="G44:G45" si="4">PRODUCT(C44:F44)</f>
+        <v>0</v>
+      </c>
+      <c r="H44" s="25"/>
+      <c r="I44" s="26"/>
+      <c r="J44" s="27"/>
+      <c r="K44" s="24"/>
+    </row>
+    <row r="45" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="21"/>
+      <c r="B45" s="39"/>
+      <c r="C45" s="22">
+        <f>0*2*3</f>
+        <v>0</v>
+      </c>
+      <c r="D45" s="23">
+        <f>11.75/3.281</f>
+        <v>3.5812252362084727</v>
+      </c>
+      <c r="E45" s="24">
+        <v>0.23</v>
+      </c>
+      <c r="F45" s="24">
+        <v>0.05</v>
+      </c>
+      <c r="G45" s="36">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H45" s="25"/>
+      <c r="I45" s="26"/>
+      <c r="J45" s="27"/>
+      <c r="K45" s="24"/>
+    </row>
+    <row r="46" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="21"/>
+      <c r="B46" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46" s="22"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="27">
+        <f>SUM(G43:G45)</f>
+        <v>0.18225</v>
+      </c>
+      <c r="H46" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="I46" s="26">
+        <v>12983.1</v>
+      </c>
+      <c r="J46" s="27">
+        <f>G46*I46</f>
+        <v>2366.1699749999998</v>
+      </c>
+      <c r="K46" s="24"/>
+    </row>
+    <row r="47" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="21"/>
+      <c r="B47" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C47" s="22"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="26"/>
+      <c r="J47" s="27">
+        <f>0.13*G46*8078.11</f>
+        <v>191.39062117500001</v>
+      </c>
+      <c r="K47" s="24"/>
+    </row>
+    <row r="48" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="21"/>
+      <c r="B48" s="39"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="26"/>
+      <c r="J48" s="27"/>
+      <c r="K48" s="24"/>
+    </row>
+    <row r="49" spans="1:11" s="1" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="21">
+        <v>6</v>
+      </c>
+      <c r="B49" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="C49" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D49" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="E49" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="F49" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="G49" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="H49" s="25"/>
+      <c r="I49" s="26"/>
+      <c r="J49" s="27"/>
+      <c r="K49" s="24"/>
+    </row>
+    <row r="50" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="21"/>
+      <c r="B50" s="39" t="str">
+        <f>B44</f>
+        <v>-for tie beam</v>
+      </c>
+      <c r="C50" s="22">
+        <v>4</v>
+      </c>
+      <c r="D50" s="34">
+        <f>(40-0.333+0.583*2)</f>
+        <v>40.832999999999998</v>
+      </c>
+      <c r="E50" s="35">
+        <f>12*12/162</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="F50" s="35">
+        <f>PRODUCT(C50:E50)</f>
+        <v>145.184</v>
+      </c>
+      <c r="G50" s="43">
+        <f>F50/1000</f>
+        <v>0.14518400000000001</v>
+      </c>
+      <c r="H50" s="25"/>
+      <c r="I50" s="26"/>
+      <c r="J50" s="27"/>
+      <c r="K50" s="24"/>
+    </row>
+    <row r="51" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="21"/>
+      <c r="B51" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="C51" s="22">
+        <f>2*(TRUNC((11.917+12.25+11.917-0.17*6)/0.5,0))+3</f>
+        <v>143</v>
+      </c>
+      <c r="D51" s="34">
+        <f>(0.583*4+0.17*2)/3.281</f>
+        <v>0.81438585797013097</v>
+      </c>
+      <c r="E51" s="35">
+        <f>8*8/162</f>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F51" s="35">
+        <f>PRODUCT(C51:E51)</f>
+        <v>46.007773902115048</v>
+      </c>
+      <c r="G51" s="43">
+        <f>F51/1000</f>
+        <v>4.6007773902115051E-2</v>
+      </c>
+      <c r="H51" s="25"/>
+      <c r="I51" s="26"/>
+      <c r="J51" s="27"/>
+      <c r="K51" s="24"/>
+    </row>
+    <row r="52" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="21"/>
+      <c r="B52" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="C52" s="22">
+        <v>4</v>
+      </c>
+      <c r="D52" s="34">
+        <f>(30-0.333+0.583*2)</f>
+        <v>30.833000000000002</v>
+      </c>
+      <c r="E52" s="35">
+        <f>12*12/162</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="F52" s="35">
+        <f>PRODUCT(C52:E52)</f>
+        <v>109.62844444444444</v>
+      </c>
+      <c r="G52" s="43">
+        <f t="shared" ref="G52" si="5">F52/1000</f>
+        <v>0.10962844444444445</v>
+      </c>
+      <c r="H52" s="25"/>
+      <c r="I52" s="26"/>
+      <c r="J52" s="27"/>
+      <c r="K52" s="24"/>
+    </row>
+    <row r="53" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="21"/>
+      <c r="B53" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="C53" s="22">
+        <f>4*(TRUNC((12.5-0.17*4)/0.5,0))+3</f>
+        <v>95</v>
+      </c>
+      <c r="D53" s="34">
+        <f>(0.583*4+0.17*2)/3.281</f>
+        <v>0.81438585797013097</v>
+      </c>
+      <c r="E53" s="35">
+        <f>8*8/162</f>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F53" s="35">
+        <f>PRODUCT(C53:E53)</f>
+        <v>30.564605039866645</v>
+      </c>
+      <c r="G53" s="43">
+        <f>F53/1000</f>
+        <v>3.0564605039866646E-2</v>
+      </c>
+      <c r="H53" s="25"/>
+      <c r="I53" s="26"/>
+      <c r="J53" s="27"/>
+      <c r="K53" s="24"/>
+    </row>
+    <row r="54" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="21"/>
+      <c r="B54" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C54" s="22"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="24"/>
+      <c r="F54" s="24"/>
+      <c r="G54" s="27">
+        <f>0*SUM(G50:G53)</f>
+        <v>0</v>
+      </c>
+      <c r="H54" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="I54" s="26">
+        <v>131940</v>
+      </c>
+      <c r="J54" s="27">
+        <f>G54*I54</f>
+        <v>0</v>
+      </c>
+      <c r="K54" s="24"/>
+    </row>
+    <row r="55" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="21"/>
+      <c r="B55" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C55" s="22"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="24"/>
+      <c r="G55" s="27"/>
+      <c r="H55" s="25"/>
+      <c r="I55" s="26"/>
+      <c r="J55" s="27">
+        <f>0.13*G54*106200</f>
+        <v>0</v>
+      </c>
+      <c r="K55" s="24"/>
+    </row>
+    <row r="56" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="21"/>
+      <c r="B56" s="39"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="23"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="24"/>
+      <c r="G56" s="27"/>
+      <c r="H56" s="25"/>
+      <c r="I56" s="26"/>
+      <c r="J56" s="27"/>
+      <c r="K56" s="24"/>
+    </row>
+    <row r="57" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="21">
+        <v>6</v>
+      </c>
+      <c r="B57" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C57" s="22"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="24"/>
+      <c r="G57" s="27"/>
+      <c r="H57" s="25"/>
+      <c r="I57" s="26"/>
+      <c r="J57" s="27"/>
+      <c r="K57" s="24"/>
+    </row>
+    <row r="58" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="21"/>
+      <c r="B58" s="39" t="str">
+        <f>B32</f>
+        <v>-for footing</v>
+      </c>
+      <c r="C58" s="22">
+        <v>12</v>
+      </c>
+      <c r="D58" s="23">
+        <f>0.45*4</f>
+        <v>1.8</v>
+      </c>
+      <c r="E58" s="24"/>
+      <c r="F58" s="24">
+        <v>0.45</v>
+      </c>
+      <c r="G58" s="36">
+        <f t="shared" ref="G58:G59" si="6">PRODUCT(C58:F58)</f>
+        <v>9.7200000000000006</v>
+      </c>
+      <c r="H58" s="25"/>
+      <c r="I58" s="26"/>
+      <c r="J58" s="27"/>
+      <c r="K58" s="24"/>
+    </row>
+    <row r="59" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="21"/>
+      <c r="B59" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="C59" s="22">
+        <v>12</v>
+      </c>
+      <c r="D59" s="23">
+        <f>4*0.3</f>
+        <v>1.2</v>
+      </c>
+      <c r="E59" s="24"/>
+      <c r="F59" s="24">
+        <v>0.3</v>
+      </c>
+      <c r="G59" s="36">
+        <f t="shared" si="6"/>
+        <v>4.3199999999999994</v>
+      </c>
+      <c r="H59" s="25"/>
+      <c r="I59" s="26"/>
+      <c r="J59" s="27"/>
+      <c r="K59" s="24"/>
+    </row>
+    <row r="60" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="21"/>
+      <c r="B60" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="C60" s="22">
+        <f>0*2*2</f>
+        <v>0</v>
+      </c>
+      <c r="D60" s="23">
+        <f>12.5/3.281</f>
+        <v>3.8098140810728434</v>
+      </c>
+      <c r="E60" s="24"/>
+      <c r="F60" s="24">
+        <f>0.23*2</f>
+        <v>0.46</v>
+      </c>
+      <c r="G60" s="36">
+        <f>PRODUCT(C60:F60)</f>
+        <v>0</v>
+      </c>
+      <c r="H60" s="25"/>
+      <c r="I60" s="26"/>
+      <c r="J60" s="27"/>
+      <c r="K60" s="24"/>
+    </row>
+    <row r="61" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="21"/>
+      <c r="B61" s="39"/>
+      <c r="C61" s="22">
+        <f>0*2*2</f>
+        <v>0</v>
+      </c>
+      <c r="D61" s="23">
+        <f>11.917/3.281</f>
+        <v>3.6321243523316058</v>
+      </c>
+      <c r="E61" s="24"/>
+      <c r="F61" s="24">
+        <f t="shared" ref="F61:F62" si="7">0.23*2</f>
+        <v>0.46</v>
+      </c>
+      <c r="G61" s="36">
+        <f>PRODUCT(C61:F61)</f>
+        <v>0</v>
+      </c>
+      <c r="H61" s="25"/>
+      <c r="I61" s="26"/>
+      <c r="J61" s="27"/>
+      <c r="K61" s="24"/>
+    </row>
+    <row r="62" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="21"/>
+      <c r="B62" s="39"/>
+      <c r="C62" s="22">
+        <f>0*1*2</f>
+        <v>0</v>
+      </c>
+      <c r="D62" s="23">
+        <f>12.25/3.281</f>
+        <v>3.7336177994513866</v>
+      </c>
+      <c r="E62" s="24"/>
+      <c r="F62" s="24">
+        <f t="shared" si="7"/>
+        <v>0.46</v>
+      </c>
+      <c r="G62" s="36">
+        <f>PRODUCT(C62:F62)</f>
+        <v>0</v>
+      </c>
+      <c r="H62" s="25"/>
+      <c r="I62" s="26"/>
+      <c r="J62" s="27"/>
+      <c r="K62" s="24"/>
+    </row>
+    <row r="63" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="21"/>
+      <c r="B63" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C63" s="22"/>
+      <c r="D63" s="23"/>
+      <c r="E63" s="24"/>
+      <c r="F63" s="24"/>
+      <c r="G63" s="27">
+        <f>SUM(G58:G62)</f>
+        <v>14.04</v>
+      </c>
+      <c r="H63" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="I63" s="26">
+        <v>915.42</v>
+      </c>
+      <c r="J63" s="27">
+        <f>G63*I63</f>
+        <v>12852.496799999999</v>
+      </c>
+      <c r="K63" s="24"/>
+    </row>
+    <row r="64" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="21"/>
+      <c r="B64" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C64" s="22"/>
+      <c r="D64" s="23"/>
+      <c r="E64" s="24"/>
+      <c r="F64" s="24"/>
+      <c r="G64" s="27"/>
+      <c r="H64" s="25"/>
+      <c r="I64" s="26"/>
+      <c r="J64" s="27">
+        <f>0.13*G63*46827.87/100</f>
+        <v>854.70228323999993</v>
+      </c>
+      <c r="K64" s="24"/>
+    </row>
+    <row r="65" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="21"/>
+      <c r="B65" s="39"/>
+      <c r="C65" s="22"/>
+      <c r="D65" s="23"/>
+      <c r="E65" s="24"/>
+      <c r="F65" s="24"/>
+      <c r="G65" s="27"/>
+      <c r="H65" s="25"/>
+      <c r="I65" s="26"/>
+      <c r="J65" s="27"/>
+      <c r="K65" s="24"/>
+    </row>
+    <row r="66" spans="1:11" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A66" s="21">
+        <v>7</v>
+      </c>
+      <c r="B66" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="C66" s="22"/>
+      <c r="D66" s="23"/>
+      <c r="E66" s="24"/>
+      <c r="F66" s="24"/>
+      <c r="G66" s="27"/>
+      <c r="H66" s="25"/>
+      <c r="I66" s="26"/>
+      <c r="J66" s="27"/>
+      <c r="K66" s="24"/>
+    </row>
+    <row r="67" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="21"/>
+      <c r="B67" s="39" t="str">
+        <f>B32</f>
+        <v>-for footing</v>
+      </c>
+      <c r="C67" s="22">
+        <f>C43</f>
+        <v>12</v>
+      </c>
+      <c r="D67" s="23">
+        <f>D43</f>
+        <v>0.45</v>
+      </c>
+      <c r="E67" s="24">
+        <f>E43</f>
+        <v>0.45</v>
+      </c>
+      <c r="F67" s="24">
+        <v>0.45</v>
+      </c>
+      <c r="G67" s="36">
+        <f>PRODUCT(C67:F67)</f>
+        <v>1.0935000000000001</v>
+      </c>
+      <c r="H67" s="25"/>
+      <c r="I67" s="26"/>
+      <c r="J67" s="27"/>
+      <c r="K67" s="24"/>
+    </row>
+    <row r="68" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="21"/>
+      <c r="B68" s="39" t="str">
+        <f>B59</f>
+        <v>-for column</v>
+      </c>
+      <c r="C68" s="22">
+        <f>C67</f>
+        <v>12</v>
+      </c>
+      <c r="D68" s="23">
+        <v>0.3</v>
+      </c>
+      <c r="E68" s="24">
+        <v>0.3</v>
+      </c>
+      <c r="F68" s="24">
+        <f>0.3+0.45</f>
+        <v>0.75</v>
+      </c>
+      <c r="G68" s="36">
+        <f>PRODUCT(C68:F68)</f>
+        <v>0.80999999999999983</v>
+      </c>
+      <c r="H68" s="25"/>
+      <c r="I68" s="26"/>
+      <c r="J68" s="27"/>
+      <c r="K68" s="24"/>
+    </row>
+    <row r="69" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="21"/>
+      <c r="B69" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="C69" s="22">
+        <f>0*2</f>
+        <v>0</v>
+      </c>
+      <c r="D69" s="23">
+        <f>40/3.281</f>
+        <v>12.1914050594331</v>
+      </c>
+      <c r="E69" s="24">
+        <v>0.23</v>
+      </c>
+      <c r="F69" s="24">
+        <v>0.23</v>
+      </c>
+      <c r="G69" s="36">
+        <f t="shared" ref="G69:G70" si="8">PRODUCT(C69:F69)</f>
+        <v>0</v>
+      </c>
+      <c r="H69" s="25"/>
+      <c r="I69" s="26"/>
+      <c r="J69" s="27"/>
+      <c r="K69" s="24"/>
+    </row>
+    <row r="70" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="21"/>
+      <c r="B70" s="39"/>
+      <c r="C70" s="22">
+        <f>0*2</f>
+        <v>0</v>
+      </c>
+      <c r="D70" s="23">
+        <f>30/3.281</f>
+        <v>9.1435537945748244</v>
+      </c>
+      <c r="E70" s="24">
+        <v>0.23</v>
+      </c>
+      <c r="F70" s="24">
+        <v>0.23</v>
+      </c>
+      <c r="G70" s="36">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H70" s="25"/>
+      <c r="I70" s="26"/>
+      <c r="J70" s="27"/>
+      <c r="K70" s="24"/>
+    </row>
+    <row r="71" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="21"/>
+      <c r="B71" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="C71" s="22">
+        <f>-C67*0</f>
+        <v>0</v>
+      </c>
+      <c r="D71" s="23">
+        <f>3/12/3.281</f>
+        <v>7.6196281621456863E-2</v>
+      </c>
+      <c r="E71" s="24">
+        <v>0.23</v>
+      </c>
+      <c r="F71" s="24">
+        <v>0.23</v>
+      </c>
+      <c r="G71" s="36">
+        <f>PRODUCT(C71:F71)</f>
+        <v>0</v>
+      </c>
+      <c r="H71" s="25"/>
+      <c r="I71" s="26"/>
+      <c r="J71" s="27"/>
+      <c r="K71" s="24"/>
+    </row>
+    <row r="72" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="21"/>
+      <c r="B72" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C72" s="22"/>
+      <c r="D72" s="23"/>
+      <c r="E72" s="24"/>
+      <c r="F72" s="24"/>
+      <c r="G72" s="27">
+        <f>SUM(G67:G71)</f>
+        <v>1.9035</v>
+      </c>
+      <c r="H72" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="I72" s="26">
+        <v>13568.9</v>
+      </c>
+      <c r="J72" s="27">
+        <f>G72*I72</f>
+        <v>25828.401149999998</v>
+      </c>
+      <c r="K72" s="24"/>
+    </row>
+    <row r="73" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="21"/>
+      <c r="B73" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C73" s="22"/>
+      <c r="D73" s="23"/>
+      <c r="E73" s="24"/>
+      <c r="F73" s="24"/>
+      <c r="G73" s="27"/>
+      <c r="H73" s="25"/>
+      <c r="I73" s="26"/>
+      <c r="J73" s="27">
+        <f>0.13*G72*9524.2</f>
+        <v>2356.810911</v>
+      </c>
+      <c r="K73" s="24"/>
+    </row>
+    <row r="74" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="21"/>
+      <c r="B74" s="39"/>
+      <c r="C74" s="22"/>
+      <c r="D74" s="23"/>
+      <c r="E74" s="24"/>
+      <c r="F74" s="24"/>
+      <c r="G74" s="27"/>
+      <c r="H74" s="25"/>
+      <c r="I74" s="26"/>
+      <c r="J74" s="27"/>
+      <c r="K74" s="24"/>
+    </row>
+    <row r="75" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" s="21">
+        <v>8</v>
+      </c>
+      <c r="B75" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="C75" s="22"/>
+      <c r="D75" s="23"/>
+      <c r="E75" s="24"/>
+      <c r="F75" s="24"/>
+      <c r="G75" s="27"/>
+      <c r="H75" s="25"/>
+      <c r="I75" s="26"/>
+      <c r="J75" s="27"/>
+      <c r="K75" s="24"/>
+    </row>
+    <row r="76" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="21"/>
+      <c r="B76" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="C76" s="22">
+        <f>2*2</f>
+        <v>4</v>
+      </c>
+      <c r="D76" s="23">
+        <f>12.5/3.281</f>
+        <v>3.8098140810728434</v>
+      </c>
+      <c r="E76" s="24">
+        <v>0.23</v>
+      </c>
+      <c r="F76" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="G76" s="36">
+        <f>PRODUCT(C76:F76)</f>
+        <v>1.752514477293508</v>
+      </c>
+      <c r="H76" s="25"/>
+      <c r="I76" s="26"/>
+      <c r="J76" s="27"/>
+      <c r="K76" s="24"/>
+    </row>
+    <row r="77" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="21"/>
+      <c r="B77" s="39"/>
+      <c r="C77" s="22">
+        <f>2*2</f>
+        <v>4</v>
+      </c>
+      <c r="D77" s="23">
+        <f>11.917/3.281</f>
+        <v>3.6321243523316058</v>
+      </c>
+      <c r="E77" s="24">
+        <v>0.23</v>
+      </c>
+      <c r="F77" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="G77" s="36">
+        <f>PRODUCT(C77:F77)</f>
+        <v>1.6707772020725387</v>
+      </c>
+      <c r="H77" s="25"/>
+      <c r="I77" s="26"/>
+      <c r="J77" s="27"/>
+      <c r="K77" s="24"/>
+    </row>
+    <row r="78" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="21"/>
+      <c r="B78" s="39"/>
+      <c r="C78" s="22">
+        <f>1*2</f>
+        <v>2</v>
+      </c>
+      <c r="D78" s="23">
+        <f>12.25/3.281</f>
+        <v>3.7336177994513866</v>
+      </c>
+      <c r="E78" s="24">
+        <v>0.23</v>
+      </c>
+      <c r="F78" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="G78" s="36">
+        <f>PRODUCT(C78:F78)</f>
+        <v>0.85873209387381899</v>
+      </c>
+      <c r="H78" s="25"/>
+      <c r="I78" s="26"/>
+      <c r="J78" s="27"/>
+      <c r="K78" s="24"/>
+    </row>
+    <row r="79" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="21"/>
+      <c r="B79" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C79" s="22"/>
+      <c r="D79" s="23"/>
+      <c r="E79" s="24"/>
+      <c r="F79" s="24"/>
+      <c r="G79" s="27">
+        <f>SUM(G76:G78)</f>
+        <v>4.2820237732398656</v>
+      </c>
+      <c r="H79" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="I79" s="26">
+        <v>14362.76</v>
+      </c>
+      <c r="J79" s="27">
+        <f>G79*I79</f>
+        <v>61501.679769338611</v>
+      </c>
+      <c r="K79" s="24"/>
+    </row>
+    <row r="80" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="21"/>
+      <c r="B80" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C80" s="22"/>
+      <c r="D80" s="23"/>
+      <c r="E80" s="24"/>
+      <c r="F80" s="24"/>
+      <c r="G80" s="27"/>
+      <c r="H80" s="25"/>
+      <c r="I80" s="26"/>
+      <c r="J80" s="27">
+        <f>0.13*G79*10311.74</f>
+        <v>5740.1650570508991</v>
+      </c>
+      <c r="K80" s="24"/>
+    </row>
+    <row r="81" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="21"/>
+      <c r="B81" s="39"/>
+      <c r="C81" s="22"/>
+      <c r="D81" s="23"/>
+      <c r="E81" s="24"/>
+      <c r="F81" s="24"/>
+      <c r="G81" s="27"/>
+      <c r="H81" s="25"/>
+      <c r="I81" s="26"/>
+      <c r="J81" s="27"/>
+      <c r="K81" s="24"/>
+    </row>
+    <row r="82" spans="1:31" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A82" s="21">
+        <v>9</v>
+      </c>
+      <c r="B82" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="C82" s="22">
+        <v>1</v>
+      </c>
+      <c r="D82" s="23"/>
+      <c r="E82" s="24"/>
+      <c r="F82" s="24"/>
+      <c r="G82" s="36">
+        <f>PRODUCT(C82:F82)</f>
+        <v>1</v>
+      </c>
+      <c r="H82" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="I82" s="26">
+        <v>5000</v>
+      </c>
+      <c r="J82" s="27">
+        <f>G82*I82</f>
+        <v>5000</v>
+      </c>
+      <c r="K82" s="24"/>
+    </row>
+    <row r="83" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="21"/>
+      <c r="B83" s="39"/>
+      <c r="C83" s="22"/>
+      <c r="D83" s="23"/>
+      <c r="E83" s="24"/>
+      <c r="F83" s="24"/>
+      <c r="G83" s="27"/>
+      <c r="H83" s="25"/>
+      <c r="I83" s="26"/>
+      <c r="J83" s="27"/>
+      <c r="K83" s="24"/>
+    </row>
+    <row r="84" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="21">
+        <v>10</v>
+      </c>
+      <c r="B84" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="C84" s="22">
+        <v>1</v>
+      </c>
+      <c r="D84" s="23"/>
+      <c r="E84" s="24"/>
+      <c r="F84" s="24"/>
+      <c r="G84" s="36">
+        <f>PRODUCT(C84:F84)</f>
+        <v>1</v>
+      </c>
+      <c r="H84" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="I84" s="26">
+        <v>1000</v>
+      </c>
+      <c r="J84" s="27">
+        <f>G84*I84</f>
+        <v>1000</v>
+      </c>
+      <c r="K84" s="24"/>
+    </row>
+    <row r="85" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="21"/>
+      <c r="B85" s="39"/>
+      <c r="C85" s="22"/>
+      <c r="D85" s="23"/>
+      <c r="E85" s="24"/>
+      <c r="F85" s="24"/>
+      <c r="G85" s="27"/>
+      <c r="H85" s="25"/>
+      <c r="I85" s="26"/>
+      <c r="J85" s="27"/>
+      <c r="K85" s="24"/>
+    </row>
+    <row r="86" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A86" s="9"/>
+      <c r="B86" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C86" s="8"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="6"/>
+      <c r="G86" s="33"/>
+      <c r="H86" s="7"/>
+      <c r="I86" s="7"/>
+      <c r="J86" s="7">
+        <f>SUM(J10:J85)</f>
+        <v>455134.61821821146</v>
+      </c>
+      <c r="K86" s="4"/>
+      <c r="M86" s="29"/>
+      <c r="P86" s="32"/>
+      <c r="Q86" s="32"/>
+    </row>
+    <row r="87" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="M87" s="29"/>
+      <c r="N87" s="30"/>
+      <c r="O87" s="30"/>
+      <c r="P87" s="31"/>
+      <c r="R87" s="30"/>
+      <c r="S87" s="30"/>
+      <c r="T87" s="30"/>
+      <c r="U87" s="29"/>
+      <c r="V87" s="29"/>
+      <c r="W87" s="29"/>
+      <c r="X87" s="29"/>
+      <c r="Y87" s="29"/>
+      <c r="Z87" s="29"/>
+      <c r="AA87" s="29"/>
+      <c r="AB87" s="29"/>
+      <c r="AC87" s="29"/>
+      <c r="AD87" s="29"/>
+      <c r="AE87" s="29"/>
+    </row>
+    <row r="88" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C88" s="44">
+        <f>J86</f>
+        <v>455134.61821821146</v>
+      </c>
+      <c r="D88" s="45"/>
+      <c r="E88" s="10">
+        <v>100</v>
+      </c>
+      <c r="F88" s="12"/>
+      <c r="G88" s="13"/>
+      <c r="H88" s="12"/>
+      <c r="I88" s="14"/>
+      <c r="J88" s="15"/>
+      <c r="K88" s="16"/>
+      <c r="M88" s="12"/>
+      <c r="N88" s="30"/>
+      <c r="O88" s="30"/>
+      <c r="P88" s="30"/>
+      <c r="Q88" s="30"/>
+      <c r="R88" s="30"/>
+      <c r="S88" s="30"/>
+      <c r="T88" s="30"/>
+      <c r="U88" s="12"/>
+      <c r="V88" s="12"/>
+      <c r="W88" s="12"/>
+      <c r="X88" s="12"/>
+      <c r="Y88" s="12"/>
+      <c r="Z88" s="12"/>
+      <c r="AA88" s="12"/>
+      <c r="AB88" s="12"/>
+      <c r="AC88" s="12"/>
+      <c r="AD88" s="12"/>
+      <c r="AE88" s="12"/>
+    </row>
+    <row r="89" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B89" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C89" s="48">
+        <v>400000</v>
+      </c>
+      <c r="D89" s="49"/>
+      <c r="E89" s="10"/>
+      <c r="M89" s="29"/>
+      <c r="N89" s="30"/>
+      <c r="O89" s="30"/>
+      <c r="P89" s="30"/>
+      <c r="Q89" s="30"/>
+      <c r="R89" s="30"/>
+      <c r="S89" s="30"/>
+      <c r="T89" s="30"/>
+      <c r="U89" s="29"/>
+      <c r="V89" s="29"/>
+      <c r="W89" s="29"/>
+      <c r="X89" s="29"/>
+      <c r="Y89" s="29"/>
+      <c r="Z89" s="29"/>
+      <c r="AA89" s="29"/>
+      <c r="AB89" s="29"/>
+      <c r="AC89" s="29"/>
+      <c r="AD89" s="29"/>
+      <c r="AE89" s="29"/>
+    </row>
+    <row r="90" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B90" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C90" s="48">
+        <f>C89-C92-C93</f>
+        <v>380000</v>
+      </c>
+      <c r="D90" s="49"/>
+      <c r="E90" s="10">
+        <f>C90/C88*100</f>
+        <v>83.491781286083437</v>
+      </c>
+      <c r="M90" s="29"/>
+      <c r="N90" s="29"/>
+      <c r="O90" s="29"/>
+      <c r="P90" s="29"/>
+      <c r="Q90" s="29"/>
+      <c r="R90" s="29"/>
+      <c r="S90" s="29"/>
+      <c r="T90" s="29"/>
+      <c r="U90" s="29"/>
+      <c r="V90" s="29"/>
+      <c r="W90" s="29"/>
+      <c r="X90" s="29"/>
+      <c r="Y90" s="29"/>
+      <c r="Z90" s="29"/>
+      <c r="AA90" s="29"/>
+      <c r="AB90" s="29"/>
+      <c r="AC90" s="29"/>
+      <c r="AD90" s="29"/>
+      <c r="AE90" s="29"/>
+    </row>
+    <row r="91" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B91" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C91" s="50">
+        <f>C88-C90</f>
+        <v>75134.618218211457</v>
+      </c>
+      <c r="D91" s="50"/>
+      <c r="E91" s="10">
+        <f>100-E90</f>
+        <v>16.508218713916563</v>
+      </c>
+      <c r="M91" s="29"/>
+      <c r="N91" s="29"/>
+      <c r="O91" s="29"/>
+      <c r="P91" s="29"/>
+      <c r="Q91" s="29"/>
+      <c r="R91" s="29"/>
+      <c r="S91" s="29"/>
+      <c r="T91" s="29"/>
+      <c r="U91" s="29"/>
+      <c r="V91" s="29"/>
+      <c r="W91" s="29"/>
+      <c r="X91" s="29"/>
+      <c r="Y91" s="29"/>
+      <c r="Z91" s="29"/>
+      <c r="AA91" s="29"/>
+      <c r="AB91" s="29"/>
+      <c r="AC91" s="29"/>
+      <c r="AD91" s="29"/>
+      <c r="AE91" s="29"/>
+    </row>
+    <row r="92" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B92" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C92" s="44">
+        <f>C89*0.03</f>
+        <v>12000</v>
+      </c>
+      <c r="D92" s="45"/>
+      <c r="E92" s="10">
+        <v>3</v>
+      </c>
+      <c r="M92" s="29"/>
+      <c r="N92" s="29"/>
+      <c r="O92" s="29"/>
+      <c r="P92" s="29"/>
+      <c r="Q92" s="29"/>
+      <c r="R92" s="29"/>
+      <c r="S92" s="29"/>
+      <c r="T92" s="29"/>
+      <c r="U92" s="29"/>
+      <c r="V92" s="29"/>
+      <c r="W92" s="29"/>
+      <c r="X92" s="29"/>
+      <c r="Y92" s="29"/>
+      <c r="Z92" s="29"/>
+      <c r="AA92" s="29"/>
+      <c r="AB92" s="29"/>
+      <c r="AC92" s="29"/>
+      <c r="AD92" s="29"/>
+      <c r="AE92" s="29"/>
+    </row>
+    <row r="93" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B93" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C93" s="44">
+        <f>C89*0.02</f>
+        <v>8000</v>
+      </c>
+      <c r="D93" s="45"/>
       <c r="E93" s="10">
         <v>2</v>
       </c>
@@ -6829,13 +9079,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
-    <oddFooter>&amp;LPrepared By:
-Kristal Suwal&amp;CChecked By:
-Er. Milan Phuyal&amp;RApproved By:    
-Er. Prakash Singh Saud</oddFooter>
+    <oddFooter xml:space="preserve">&amp;LPrepared By:&amp;CChecked By:&amp;RApproved By: </oddFooter>
   </headerFooter>
-  <rowBreaks count="1" manualBreakCount="1">
-    <brk id="41" max="10" man="1"/>
-  </rowBreaks>
 </worksheet>
 </file>